--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1352" uniqueCount="465">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1352" uniqueCount="466">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -38,6 +38,9 @@
   </si>
   <si>
     <t>Reverse the array</t>
+  </si>
+  <si>
+    <t>Yes</t>
   </si>
   <si>
     <t>Find the maximum and minimum element in an array</t>
@@ -1416,13 +1419,19 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -1448,7 +1457,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -1502,41 +1511,41 @@
   </cellStyleXfs>
   <cellXfs count="13">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="6" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="7" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="7" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="8" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1881,7 +1890,7 @@
         <v>4</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
       <c r="A5" s="1"/>
       <c r="B5" s="4"/>
       <c r="C5" s="7" t="s">
@@ -1896,7 +1905,7 @@
         <v>7</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="24.75">
@@ -1904,7 +1913,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C7" s="7" t="s">
         <v>5</v>
@@ -1915,7 +1924,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C8" s="7" t="s">
         <v>5</v>
@@ -1926,7 +1935,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C9" s="7" t="s">
         <v>5</v>
@@ -1937,7 +1946,7 @@
         <v>6</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C10" s="7" t="s">
         <v>5</v>
@@ -1948,7 +1957,7 @@
         <v>6</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C11" s="7" t="s">
         <v>5</v>
@@ -1959,7 +1968,7 @@
         <v>6</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C12" s="7" t="s">
         <v>5</v>
@@ -1970,7 +1979,7 @@
         <v>6</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C13" s="7" t="s">
         <v>5</v>
@@ -1981,7 +1990,7 @@
         <v>6</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C14" s="7" t="s">
         <v>5</v>
@@ -1992,7 +2001,7 @@
         <v>6</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C15" s="7" t="s">
         <v>5</v>
@@ -2003,7 +2012,7 @@
         <v>6</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C16" s="7" t="s">
         <v>5</v>
@@ -2014,7 +2023,7 @@
         <v>6</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C17" s="7" t="s">
         <v>5</v>
@@ -2025,7 +2034,7 @@
         <v>6</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C18" s="7" t="s">
         <v>5</v>
@@ -2036,7 +2045,7 @@
         <v>6</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C19" s="7" t="s">
         <v>5</v>
@@ -2047,7 +2056,7 @@
         <v>6</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C20" s="7" t="s">
         <v>5</v>
@@ -2058,7 +2067,7 @@
         <v>6</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C21" s="7" t="s">
         <v>5</v>
@@ -2069,7 +2078,7 @@
         <v>6</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C22" s="7" t="s">
         <v>5</v>
@@ -2080,7 +2089,7 @@
         <v>6</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C23" s="7" t="s">
         <v>5</v>
@@ -2091,7 +2100,7 @@
         <v>6</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C24" s="7" t="s">
         <v>5</v>
@@ -2102,7 +2111,7 @@
         <v>6</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C25" s="7" t="s">
         <v>5</v>
@@ -2113,7 +2122,7 @@
         <v>6</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C26" s="7" t="s">
         <v>5</v>
@@ -2124,7 +2133,7 @@
         <v>6</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C27" s="7" t="s">
         <v>5</v>
@@ -2135,7 +2144,7 @@
         <v>6</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C28" s="7" t="s">
         <v>5</v>
@@ -2146,7 +2155,7 @@
         <v>6</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C29" s="7" t="s">
         <v>5</v>
@@ -2157,7 +2166,7 @@
         <v>6</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C30" s="7" t="s">
         <v>5</v>
@@ -2168,7 +2177,7 @@
         <v>6</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C31" s="7" t="s">
         <v>5</v>
@@ -2179,7 +2188,7 @@
         <v>6</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C32" s="7" t="s">
         <v>5</v>
@@ -2190,7 +2199,7 @@
         <v>6</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C33" s="7" t="s">
         <v>5</v>
@@ -2201,7 +2210,7 @@
         <v>6</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C34" s="7" t="s">
         <v>5</v>
@@ -2212,7 +2221,7 @@
         <v>6</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C35" s="7" t="s">
         <v>5</v>
@@ -2223,7 +2232,7 @@
         <v>6</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C36" s="7" t="s">
         <v>5</v>
@@ -2234,7 +2243,7 @@
         <v>6</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C37" s="7" t="s">
         <v>5</v>
@@ -2245,7 +2254,7 @@
         <v>6</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C38" s="7" t="s">
         <v>5</v>
@@ -2256,7 +2265,7 @@
         <v>6</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C39" s="7" t="s">
         <v>5</v>
@@ -2267,7 +2276,7 @@
         <v>6</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C40" s="7" t="s">
         <v>5</v>
@@ -2278,7 +2287,7 @@
         <v>6</v>
       </c>
       <c r="B41" s="9" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C41" s="7" t="s">
         <v>5</v>
@@ -2300,10 +2309,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="18">
       <c r="A44" s="8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B44" s="9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C44" s="7" t="s">
         <v>5</v>
@@ -2311,10 +2320,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="18">
       <c r="A45" s="8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B45" s="9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C45" s="7" t="s">
         <v>5</v>
@@ -2322,10 +2331,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="18">
       <c r="A46" s="8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B46" s="9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C46" s="7" t="s">
         <v>5</v>
@@ -2333,10 +2342,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="18">
       <c r="A47" s="8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B47" s="9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C47" s="7" t="s">
         <v>5</v>
@@ -2344,10 +2353,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="18">
       <c r="A48" s="8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B48" s="9" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C48" s="7" t="s">
         <v>5</v>
@@ -2355,10 +2364,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="18">
       <c r="A49" s="8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B49" s="9" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C49" s="7" t="s">
         <v>5</v>
@@ -2366,10 +2375,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="18">
       <c r="A50" s="8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B50" s="9" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C50" s="7" t="s">
         <v>5</v>
@@ -2377,10 +2386,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="18">
       <c r="A51" s="8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B51" s="9" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C51" s="7" t="s">
         <v>5</v>
@@ -2388,10 +2397,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="18">
       <c r="A52" s="8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B52" s="9" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C52" s="7" t="s">
         <v>5</v>
@@ -2399,10 +2408,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="18">
       <c r="A53" s="8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B53" s="9" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C53" s="7" t="s">
         <v>5</v>
@@ -2420,10 +2429,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="18">
       <c r="A56" s="8" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B56" s="9" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C56" s="7" t="s">
         <v>5</v>
@@ -2431,10 +2440,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="18">
       <c r="A57" s="8" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B57" s="9" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C57" s="7" t="s">
         <v>5</v>
@@ -2442,10 +2451,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="18">
       <c r="A58" s="8" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B58" s="9" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C58" s="7" t="s">
         <v>5</v>
@@ -2453,10 +2462,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="18">
       <c r="A59" s="8" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B59" s="10" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C59" s="7" t="s">
         <v>5</v>
@@ -2464,10 +2473,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="18">
       <c r="A60" s="8" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B60" s="9" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C60" s="7" t="s">
         <v>5</v>
@@ -2475,10 +2484,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="18">
       <c r="A61" s="8" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B61" s="9" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C61" s="7" t="s">
         <v>5</v>
@@ -2486,10 +2495,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="18">
       <c r="A62" s="8" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B62" s="9" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C62" s="7" t="s">
         <v>5</v>
@@ -2497,10 +2506,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="18">
       <c r="A63" s="8" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B63" s="9" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C63" s="7" t="s">
         <v>5</v>
@@ -2508,10 +2517,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="64" customHeight="1" ht="18">
       <c r="A64" s="8" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B64" s="9" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C64" s="7" t="s">
         <v>5</v>
@@ -2519,10 +2528,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="65" customHeight="1" ht="18">
       <c r="A65" s="8" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B65" s="9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C65" s="7" t="s">
         <v>5</v>
@@ -2530,10 +2539,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="66" customHeight="1" ht="18">
       <c r="A66" s="8" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B66" s="9" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C66" s="7" t="s">
         <v>5</v>
@@ -2541,10 +2550,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="67" customHeight="1" ht="18">
       <c r="A67" s="8" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B67" s="9" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C67" s="7" t="s">
         <v>5</v>
@@ -2552,10 +2561,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="68" customHeight="1" ht="18">
       <c r="A68" s="8" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B68" s="9" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C68" s="7" t="s">
         <v>5</v>
@@ -2563,10 +2572,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="69" customHeight="1" ht="18">
       <c r="A69" s="8" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B69" s="9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C69" s="7" t="s">
         <v>5</v>
@@ -2574,10 +2583,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="70" customHeight="1" ht="18">
       <c r="A70" s="8" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B70" s="9" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C70" s="7" t="s">
         <v>5</v>
@@ -2585,10 +2594,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="71" customHeight="1" ht="18">
       <c r="A71" s="8" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B71" s="9" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C71" s="7" t="s">
         <v>5</v>
@@ -2596,10 +2605,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="72" customHeight="1" ht="18">
       <c r="A72" s="8" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B72" s="9" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C72" s="7" t="s">
         <v>5</v>
@@ -2607,10 +2616,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="73" customHeight="1" ht="18">
       <c r="A73" s="8" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B73" s="9" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C73" s="7" t="s">
         <v>5</v>
@@ -2618,10 +2627,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="74" customHeight="1" ht="18">
       <c r="A74" s="8" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B74" s="9" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C74" s="7" t="s">
         <v>5</v>
@@ -2629,10 +2638,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="75" customHeight="1" ht="18">
       <c r="A75" s="8" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B75" s="9" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C75" s="7" t="s">
         <v>5</v>
@@ -2640,10 +2649,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="76" customHeight="1" ht="18">
       <c r="A76" s="8" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B76" s="9" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C76" s="7" t="s">
         <v>5</v>
@@ -2651,10 +2660,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="77" customHeight="1" ht="18">
       <c r="A77" s="8" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B77" s="9" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C77" s="7" t="s">
         <v>5</v>
@@ -2662,10 +2671,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="78" customHeight="1" ht="18">
       <c r="A78" s="8" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B78" s="9" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C78" s="7" t="s">
         <v>5</v>
@@ -2673,10 +2682,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="79" customHeight="1" ht="18">
       <c r="A79" s="8" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B79" s="9" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C79" s="7" t="s">
         <v>5</v>
@@ -2684,10 +2693,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="80" customHeight="1" ht="18">
       <c r="A80" s="8" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B80" s="9" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C80" s="7" t="s">
         <v>5</v>
@@ -2695,10 +2704,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="81" customHeight="1" ht="18">
       <c r="A81" s="8" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B81" s="9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C81" s="7" t="s">
         <v>5</v>
@@ -2706,10 +2715,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="82" customHeight="1" ht="18">
       <c r="A82" s="8" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B82" s="9" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C82" s="7" t="s">
         <v>5</v>
@@ -2717,10 +2726,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="83" customHeight="1" ht="18">
       <c r="A83" s="8" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B83" s="9" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C83" s="7" t="s">
         <v>5</v>
@@ -2728,10 +2737,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="84" customHeight="1" ht="18">
       <c r="A84" s="8" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B84" s="9" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C84" s="7" t="s">
         <v>5</v>
@@ -2739,10 +2748,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="85" customHeight="1" ht="18">
       <c r="A85" s="8" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B85" s="9" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C85" s="7" t="s">
         <v>5</v>
@@ -2750,10 +2759,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="86" customHeight="1" ht="18">
       <c r="A86" s="8" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B86" s="9" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C86" s="7" t="s">
         <v>5</v>
@@ -2761,10 +2770,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="87" customHeight="1" ht="18">
       <c r="A87" s="8" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B87" s="9" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C87" s="7" t="s">
         <v>5</v>
@@ -2772,10 +2781,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="88" customHeight="1" ht="18">
       <c r="A88" s="8" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B88" s="9" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C88" s="7" t="s">
         <v>5</v>
@@ -2783,10 +2792,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="89" customHeight="1" ht="18">
       <c r="A89" s="8" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B89" s="9" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C89" s="7" t="s">
         <v>5</v>
@@ -2794,10 +2803,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="90" customHeight="1" ht="18">
       <c r="A90" s="8" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B90" s="9" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C90" s="7" t="s">
         <v>5</v>
@@ -2805,10 +2814,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="91" customHeight="1" ht="18">
       <c r="A91" s="8" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B91" s="9" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C91" s="7" t="s">
         <v>5</v>
@@ -2816,10 +2825,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="92" customHeight="1" ht="18">
       <c r="A92" s="8" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B92" s="9" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C92" s="7" t="s">
         <v>5</v>
@@ -2827,10 +2836,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="93" customHeight="1" ht="18">
       <c r="A93" s="8" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B93" s="9" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C93" s="7" t="s">
         <v>5</v>
@@ -2838,10 +2847,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="94" customHeight="1" ht="18">
       <c r="A94" s="8" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B94" s="9" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C94" s="7" t="s">
         <v>5</v>
@@ -2849,10 +2858,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="95" customHeight="1" ht="18">
       <c r="A95" s="8" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B95" s="9" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C95" s="7" t="s">
         <v>5</v>
@@ -2860,10 +2869,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="96" customHeight="1" ht="18">
       <c r="A96" s="8" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B96" s="9" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C96" s="7" t="s">
         <v>5</v>
@@ -2871,10 +2880,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="97" customHeight="1" ht="18">
       <c r="A97" s="8" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B97" s="9" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C97" s="7" t="s">
         <v>5</v>
@@ -2882,10 +2891,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="98" customHeight="1" ht="18">
       <c r="A98" s="8" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B98" s="9" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C98" s="7" t="s">
         <v>5</v>
@@ -2903,10 +2912,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="101" customHeight="1" ht="18">
       <c r="A101" s="8" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B101" s="9" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C101" s="7" t="s">
         <v>5</v>
@@ -2914,10 +2923,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="102" customHeight="1" ht="18">
       <c r="A102" s="8" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B102" s="9" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C102" s="7" t="s">
         <v>5</v>
@@ -2925,10 +2934,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="103" customHeight="1" ht="18">
       <c r="A103" s="8" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B103" s="9" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C103" s="7" t="s">
         <v>5</v>
@@ -2936,10 +2945,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="104" customHeight="1" ht="18">
       <c r="A104" s="8" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B104" s="9" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C104" s="7" t="s">
         <v>5</v>
@@ -2947,10 +2956,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="105" customHeight="1" ht="18">
       <c r="A105" s="8" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B105" s="9" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C105" s="7" t="s">
         <v>5</v>
@@ -2958,10 +2967,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="106" customHeight="1" ht="18">
       <c r="A106" s="8" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B106" s="9" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C106" s="7" t="s">
         <v>5</v>
@@ -2969,10 +2978,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="107" customHeight="1" ht="18">
       <c r="A107" s="8" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B107" s="9" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C107" s="7" t="s">
         <v>5</v>
@@ -2980,10 +2989,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="108" customHeight="1" ht="18">
       <c r="A108" s="8" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B108" s="9" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C108" s="7" t="s">
         <v>5</v>
@@ -2991,10 +3000,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="109" customHeight="1" ht="18">
       <c r="A109" s="8" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B109" s="9" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C109" s="7" t="s">
         <v>5</v>
@@ -3002,10 +3011,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="110" customHeight="1" ht="18">
       <c r="A110" s="8" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B110" s="9" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C110" s="7" t="s">
         <v>5</v>
@@ -3013,10 +3022,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="111" customHeight="1" ht="18">
       <c r="A111" s="8" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B111" s="9" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C111" s="7" t="s">
         <v>5</v>
@@ -3024,10 +3033,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="112" customHeight="1" ht="18">
       <c r="A112" s="8" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B112" s="9" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C112" s="7" t="s">
         <v>5</v>
@@ -3035,10 +3044,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="113" customHeight="1" ht="18">
       <c r="A113" s="8" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B113" s="9" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C113" s="7" t="s">
         <v>5</v>
@@ -3046,10 +3055,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="114" customHeight="1" ht="18">
       <c r="A114" s="8" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B114" s="9" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C114" s="7" t="s">
         <v>5</v>
@@ -3057,10 +3066,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="115" customHeight="1" ht="18">
       <c r="A115" s="8" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B115" s="9" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C115" s="7" t="s">
         <v>5</v>
@@ -3068,10 +3077,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="116" customHeight="1" ht="18">
       <c r="A116" s="8" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B116" s="9" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C116" s="7" t="s">
         <v>5</v>
@@ -3079,10 +3088,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="117" customHeight="1" ht="18">
       <c r="A117" s="8" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B117" s="9" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C117" s="7" t="s">
         <v>5</v>
@@ -3090,10 +3099,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="118" customHeight="1" ht="18">
       <c r="A118" s="8" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B118" s="9" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C118" s="7" t="s">
         <v>5</v>
@@ -3101,10 +3110,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="119" customHeight="1" ht="18">
       <c r="A119" s="8" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B119" s="9" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C119" s="7" t="s">
         <v>5</v>
@@ -3112,10 +3121,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="120" customHeight="1" ht="18">
       <c r="A120" s="8" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B120" s="9" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C120" s="7" t="s">
         <v>5</v>
@@ -3123,10 +3132,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="121" customHeight="1" ht="18">
       <c r="A121" s="8" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B121" s="9" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C121" s="7" t="s">
         <v>5</v>
@@ -3134,10 +3143,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="122" customHeight="1" ht="18">
       <c r="A122" s="8" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B122" s="9" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C122" s="7" t="s">
         <v>5</v>
@@ -3145,10 +3154,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="123" customHeight="1" ht="18">
       <c r="A123" s="8" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B123" s="9" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C123" s="7" t="s">
         <v>5</v>
@@ -3156,10 +3165,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="124" customHeight="1" ht="18">
       <c r="A124" s="8" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B124" s="9" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C124" s="7" t="s">
         <v>5</v>
@@ -3167,10 +3176,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="125" customHeight="1" ht="18">
       <c r="A125" s="8" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B125" s="9" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C125" s="7" t="s">
         <v>5</v>
@@ -3178,10 +3187,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="126" customHeight="1" ht="18">
       <c r="A126" s="8" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B126" s="9" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C126" s="7" t="s">
         <v>5</v>
@@ -3189,10 +3198,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="127" customHeight="1" ht="18">
       <c r="A127" s="8" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B127" s="9" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C127" s="7" t="s">
         <v>5</v>
@@ -3200,10 +3209,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="128" customHeight="1" ht="18">
       <c r="A128" s="8" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B128" s="9" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C128" s="7" t="s">
         <v>5</v>
@@ -3211,10 +3220,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="129" customHeight="1" ht="18">
       <c r="A129" s="8" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B129" s="9" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C129" s="7" t="s">
         <v>5</v>
@@ -3222,10 +3231,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="130" customHeight="1" ht="18">
       <c r="A130" s="8" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B130" s="9" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C130" s="7" t="s">
         <v>5</v>
@@ -3233,10 +3242,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="131" customHeight="1" ht="18">
       <c r="A131" s="8" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B131" s="9" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C131" s="7" t="s">
         <v>5</v>
@@ -3244,10 +3253,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="132" customHeight="1" ht="18">
       <c r="A132" s="8" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B132" s="9" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C132" s="7" t="s">
         <v>5</v>
@@ -3255,10 +3264,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="133" customHeight="1" ht="18">
       <c r="A133" s="8" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B133" s="9" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C133" s="7" t="s">
         <v>5</v>
@@ -3266,10 +3275,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="134" customHeight="1" ht="18">
       <c r="A134" s="8" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B134" s="9" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C134" s="7" t="s">
         <v>5</v>
@@ -3277,10 +3286,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="135" customHeight="1" ht="18">
       <c r="A135" s="8" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B135" s="9" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C135" s="7" t="s">
         <v>5</v>
@@ -3288,10 +3297,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="136" customHeight="1" ht="18">
       <c r="A136" s="8" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B136" s="9" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C136" s="7" t="s">
         <v>5</v>
@@ -3309,10 +3318,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="139" customHeight="1" ht="18">
       <c r="A139" s="8" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B139" s="9" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C139" s="7" t="s">
         <v>5</v>
@@ -3320,10 +3329,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="140" customHeight="1" ht="18">
       <c r="A140" s="8" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B140" s="9" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C140" s="7" t="s">
         <v>5</v>
@@ -3331,10 +3340,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="141" customHeight="1" ht="18">
       <c r="A141" s="8" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B141" s="9" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C141" s="7" t="s">
         <v>5</v>
@@ -3342,10 +3351,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="142" customHeight="1" ht="18">
       <c r="A142" s="8" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B142" s="9" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C142" s="7" t="s">
         <v>5</v>
@@ -3353,10 +3362,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="143" customHeight="1" ht="18">
       <c r="A143" s="8" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B143" s="9" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C143" s="7" t="s">
         <v>5</v>
@@ -3364,10 +3373,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="144" customHeight="1" ht="18">
       <c r="A144" s="8" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B144" s="9" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C144" s="7" t="s">
         <v>5</v>
@@ -3375,10 +3384,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="145" customHeight="1" ht="18">
       <c r="A145" s="8" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B145" s="9" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C145" s="7" t="s">
         <v>5</v>
@@ -3386,10 +3395,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="146" customHeight="1" ht="18">
       <c r="A146" s="8" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B146" s="9" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C146" s="7" t="s">
         <v>5</v>
@@ -3397,10 +3406,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="147" customHeight="1" ht="18">
       <c r="A147" s="8" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B147" s="9" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C147" s="7" t="s">
         <v>5</v>
@@ -3408,10 +3417,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="148" customHeight="1" ht="18">
       <c r="A148" s="8" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B148" s="9" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C148" s="7" t="s">
         <v>5</v>
@@ -3419,10 +3428,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="149" customHeight="1" ht="18">
       <c r="A149" s="8" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B149" s="9" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C149" s="7" t="s">
         <v>5</v>
@@ -3430,10 +3439,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="150" customHeight="1" ht="18">
       <c r="A150" s="8" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B150" s="9" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C150" s="7" t="s">
         <v>5</v>
@@ -3441,10 +3450,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="151" customHeight="1" ht="18">
       <c r="A151" s="8" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B151" s="9" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C151" s="7" t="s">
         <v>5</v>
@@ -3452,10 +3461,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="152" customHeight="1" ht="18">
       <c r="A152" s="8" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B152" s="9" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C152" s="7" t="s">
         <v>5</v>
@@ -3463,10 +3472,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="153" customHeight="1" ht="18">
       <c r="A153" s="8" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B153" s="9" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C153" s="7" t="s">
         <v>5</v>
@@ -3474,10 +3483,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="154" customHeight="1" ht="18">
       <c r="A154" s="8" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B154" s="9" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C154" s="7" t="s">
         <v>5</v>
@@ -3485,10 +3494,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="155" customHeight="1" ht="18">
       <c r="A155" s="8" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B155" s="9" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C155" s="7" t="s">
         <v>5</v>
@@ -3496,10 +3505,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="156" customHeight="1" ht="18">
       <c r="A156" s="8" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B156" s="9" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C156" s="7" t="s">
         <v>5</v>
@@ -3507,10 +3516,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="157" customHeight="1" ht="18">
       <c r="A157" s="8" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B157" s="9" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C157" s="7" t="s">
         <v>5</v>
@@ -3518,10 +3527,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="158" customHeight="1" ht="18">
       <c r="A158" s="8" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B158" s="9" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C158" s="7" t="s">
         <v>5</v>
@@ -3529,10 +3538,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="159" customHeight="1" ht="18">
       <c r="A159" s="8" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B159" s="9" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C159" s="7" t="s">
         <v>5</v>
@@ -3540,10 +3549,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="160" customHeight="1" ht="18">
       <c r="A160" s="8" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B160" s="9" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C160" s="7" t="s">
         <v>5</v>
@@ -3551,10 +3560,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="161" customHeight="1" ht="18">
       <c r="A161" s="8" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B161" s="9" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C161" s="7" t="s">
         <v>5</v>
@@ -3562,10 +3571,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="162" customHeight="1" ht="18">
       <c r="A162" s="8" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B162" s="9" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C162" s="7" t="s">
         <v>5</v>
@@ -3573,10 +3582,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="163" customHeight="1" ht="18">
       <c r="A163" s="8" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B163" s="9" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C163" s="7" t="s">
         <v>5</v>
@@ -3584,10 +3593,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="164" customHeight="1" ht="18">
       <c r="A164" s="8" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B164" s="10" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C164" s="7" t="s">
         <v>5</v>
@@ -3595,10 +3604,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="165" customHeight="1" ht="18">
       <c r="A165" s="8" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B165" s="10" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C165" s="7" t="s">
         <v>5</v>
@@ -3606,10 +3615,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="166" customHeight="1" ht="18">
       <c r="A166" s="8" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B166" s="9" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C166" s="7" t="s">
         <v>5</v>
@@ -3617,10 +3626,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="167" customHeight="1" ht="18">
       <c r="A167" s="8" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B167" s="9" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C167" s="7" t="s">
         <v>5</v>
@@ -3628,10 +3637,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="168" customHeight="1" ht="18">
       <c r="A168" s="8" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B168" s="9" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C168" s="7" t="s">
         <v>5</v>
@@ -3639,10 +3648,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="169" customHeight="1" ht="18">
       <c r="A169" s="8" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B169" s="9" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C169" s="7" t="s">
         <v>5</v>
@@ -3650,10 +3659,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="170" customHeight="1" ht="18">
       <c r="A170" s="8" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B170" s="9" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C170" s="7" t="s">
         <v>5</v>
@@ -3661,10 +3670,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="171" customHeight="1" ht="18">
       <c r="A171" s="8" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B171" s="9" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C171" s="7" t="s">
         <v>5</v>
@@ -3672,10 +3681,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="172" customHeight="1" ht="18">
       <c r="A172" s="8" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B172" s="9" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C172" s="7" t="s">
         <v>5</v>
@@ -3683,10 +3692,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="173" customHeight="1" ht="18">
       <c r="A173" s="8" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B173" s="9" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C173" s="7" t="s">
         <v>5</v>
@@ -3694,10 +3703,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="174" customHeight="1" ht="18">
       <c r="A174" s="8" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B174" s="9" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C174" s="7" t="s">
         <v>5</v>
@@ -3715,10 +3724,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="177" customHeight="1" ht="18">
       <c r="A177" s="8" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B177" s="9" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C177" s="7" t="s">
         <v>5</v>
@@ -3726,10 +3735,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="178" customHeight="1" ht="18">
       <c r="A178" s="8" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B178" s="9" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C178" s="7" t="s">
         <v>5</v>
@@ -3737,10 +3746,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="179" customHeight="1" ht="18">
       <c r="A179" s="8" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B179" s="9" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C179" s="7" t="s">
         <v>5</v>
@@ -3748,10 +3757,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="180" customHeight="1" ht="18">
       <c r="A180" s="8" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B180" s="9" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C180" s="7" t="s">
         <v>5</v>
@@ -3759,10 +3768,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="181" customHeight="1" ht="18">
       <c r="A181" s="8" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B181" s="9" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C181" s="7" t="s">
         <v>5</v>
@@ -3770,10 +3779,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="182" customHeight="1" ht="18">
       <c r="A182" s="8" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B182" s="9" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C182" s="7" t="s">
         <v>5</v>
@@ -3781,10 +3790,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="183" customHeight="1" ht="18">
       <c r="A183" s="8" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B183" s="9" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C183" s="7" t="s">
         <v>5</v>
@@ -3792,10 +3801,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="184" customHeight="1" ht="18">
       <c r="A184" s="8" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B184" s="9" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C184" s="7" t="s">
         <v>5</v>
@@ -3803,10 +3812,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="185" customHeight="1" ht="18">
       <c r="A185" s="8" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B185" s="9" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C185" s="7" t="s">
         <v>5</v>
@@ -3814,10 +3823,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="186" customHeight="1" ht="18">
       <c r="A186" s="8" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B186" s="9" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C186" s="7" t="s">
         <v>5</v>
@@ -3825,10 +3834,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="187" customHeight="1" ht="18">
       <c r="A187" s="8" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B187" s="9" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C187" s="7" t="s">
         <v>5</v>
@@ -3836,10 +3845,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="188" customHeight="1" ht="18">
       <c r="A188" s="8" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B188" s="9" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C188" s="7" t="s">
         <v>5</v>
@@ -3847,10 +3856,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="189" customHeight="1" ht="18">
       <c r="A189" s="8" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B189" s="9" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C189" s="7" t="s">
         <v>5</v>
@@ -3858,10 +3867,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="190" customHeight="1" ht="18">
       <c r="A190" s="8" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B190" s="9" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C190" s="7" t="s">
         <v>5</v>
@@ -3869,10 +3878,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="191" customHeight="1" ht="18">
       <c r="A191" s="8" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B191" s="9" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C191" s="7" t="s">
         <v>5</v>
@@ -3880,10 +3889,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="192" customHeight="1" ht="18">
       <c r="A192" s="8" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B192" s="9" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C192" s="7" t="s">
         <v>5</v>
@@ -3891,10 +3900,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="193" customHeight="1" ht="18">
       <c r="A193" s="8" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B193" s="9" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C193" s="7" t="s">
         <v>5</v>
@@ -3902,10 +3911,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="194" customHeight="1" ht="18">
       <c r="A194" s="8" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B194" s="9" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C194" s="7" t="s">
         <v>5</v>
@@ -3913,10 +3922,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="195" customHeight="1" ht="18">
       <c r="A195" s="8" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B195" s="9" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C195" s="7" t="s">
         <v>5</v>
@@ -3924,10 +3933,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="196" customHeight="1" ht="18">
       <c r="A196" s="8" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B196" s="9" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C196" s="7" t="s">
         <v>5</v>
@@ -3935,10 +3944,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="197" customHeight="1" ht="18">
       <c r="A197" s="8" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B197" s="9" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C197" s="7" t="s">
         <v>5</v>
@@ -3946,10 +3955,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="198" customHeight="1" ht="18">
       <c r="A198" s="8" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B198" s="9" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C198" s="7" t="s">
         <v>5</v>
@@ -3957,10 +3966,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="199" customHeight="1" ht="18">
       <c r="A199" s="8" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B199" s="9" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C199" s="7" t="s">
         <v>5</v>
@@ -3968,10 +3977,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="200" customHeight="1" ht="18">
       <c r="A200" s="8" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B200" s="9" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C200" s="7" t="s">
         <v>5</v>
@@ -3979,10 +3988,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="201" customHeight="1" ht="18">
       <c r="A201" s="8" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B201" s="9" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C201" s="7" t="s">
         <v>5</v>
@@ -3990,10 +3999,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="202" customHeight="1" ht="18">
       <c r="A202" s="8" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B202" s="9" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C202" s="7" t="s">
         <v>5</v>
@@ -4001,10 +4010,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="203" customHeight="1" ht="18">
       <c r="A203" s="8" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B203" s="9" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C203" s="7" t="s">
         <v>5</v>
@@ -4012,10 +4021,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="204" customHeight="1" ht="18">
       <c r="A204" s="8" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B204" s="9" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C204" s="7" t="s">
         <v>5</v>
@@ -4023,10 +4032,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="205" customHeight="1" ht="18">
       <c r="A205" s="8" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B205" s="9" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C205" s="7" t="s">
         <v>5</v>
@@ -4034,10 +4043,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="206" customHeight="1" ht="18">
       <c r="A206" s="8" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B206" s="9" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C206" s="7" t="s">
         <v>5</v>
@@ -4045,10 +4054,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="207" customHeight="1" ht="18">
       <c r="A207" s="8" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B207" s="9" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C207" s="7" t="s">
         <v>5</v>
@@ -4056,10 +4065,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="208" customHeight="1" ht="18">
       <c r="A208" s="8" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B208" s="9" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C208" s="7" t="s">
         <v>5</v>
@@ -4067,10 +4076,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="209" customHeight="1" ht="18">
       <c r="A209" s="8" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B209" s="9" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C209" s="7" t="s">
         <v>5</v>
@@ -4078,10 +4087,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="210" customHeight="1" ht="18">
       <c r="A210" s="8" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B210" s="9" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C210" s="7" t="s">
         <v>5</v>
@@ -4089,10 +4098,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="211" customHeight="1" ht="18">
       <c r="A211" s="8" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B211" s="9" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C211" s="7" t="s">
         <v>5</v>
@@ -4110,10 +4119,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="214" customHeight="1" ht="18">
       <c r="A214" s="8" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B214" s="9" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C214" s="7" t="s">
         <v>5</v>
@@ -4121,10 +4130,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="215" customHeight="1" ht="18">
       <c r="A215" s="8" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B215" s="9" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C215" s="7" t="s">
         <v>5</v>
@@ -4132,10 +4141,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="216" customHeight="1" ht="18">
       <c r="A216" s="8" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B216" s="9" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C216" s="7" t="s">
         <v>5</v>
@@ -4143,10 +4152,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="217" customHeight="1" ht="18">
       <c r="A217" s="8" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B217" s="9" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C217" s="7" t="s">
         <v>5</v>
@@ -4154,10 +4163,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="218" customHeight="1" ht="18">
       <c r="A218" s="8" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B218" s="9" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C218" s="7" t="s">
         <v>5</v>
@@ -4165,10 +4174,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="219" customHeight="1" ht="18">
       <c r="A219" s="8" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B219" s="9" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C219" s="7" t="s">
         <v>5</v>
@@ -4176,10 +4185,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="220" customHeight="1" ht="18">
       <c r="A220" s="8" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B220" s="9" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C220" s="7" t="s">
         <v>5</v>
@@ -4187,10 +4196,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="221" customHeight="1" ht="18">
       <c r="A221" s="8" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B221" s="9" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C221" s="7" t="s">
         <v>5</v>
@@ -4198,10 +4207,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="222" customHeight="1" ht="18">
       <c r="A222" s="8" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B222" s="9" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C222" s="7" t="s">
         <v>5</v>
@@ -4209,10 +4218,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="223" customHeight="1" ht="18">
       <c r="A223" s="8" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B223" s="9" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C223" s="7" t="s">
         <v>5</v>
@@ -4220,10 +4229,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="224" customHeight="1" ht="18">
       <c r="A224" s="8" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B224" s="9" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C224" s="7" t="s">
         <v>5</v>
@@ -4231,10 +4240,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="225" customHeight="1" ht="18">
       <c r="A225" s="8" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B225" s="9" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C225" s="7" t="s">
         <v>5</v>
@@ -4242,10 +4251,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="226" customHeight="1" ht="18">
       <c r="A226" s="8" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B226" s="9" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C226" s="7" t="s">
         <v>5</v>
@@ -4253,10 +4262,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="227" customHeight="1" ht="18">
       <c r="A227" s="8" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B227" s="9" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C227" s="7" t="s">
         <v>5</v>
@@ -4264,10 +4273,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="228" customHeight="1" ht="18">
       <c r="A228" s="8" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B228" s="9" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C228" s="7" t="s">
         <v>5</v>
@@ -4275,10 +4284,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="229" customHeight="1" ht="18">
       <c r="A229" s="8" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B229" s="9" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C229" s="7" t="s">
         <v>5</v>
@@ -4286,10 +4295,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="230" customHeight="1" ht="18">
       <c r="A230" s="8" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B230" s="9" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C230" s="7" t="s">
         <v>5</v>
@@ -4297,10 +4306,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="231" customHeight="1" ht="18">
       <c r="A231" s="8" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B231" s="9" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C231" s="7" t="s">
         <v>5</v>
@@ -4308,10 +4317,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="232" customHeight="1" ht="18">
       <c r="A232" s="8" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B232" s="9" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C232" s="7" t="s">
         <v>5</v>
@@ -4319,10 +4328,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="233" customHeight="1" ht="18">
       <c r="A233" s="8" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B233" s="9" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C233" s="7" t="s">
         <v>5</v>
@@ -4330,10 +4339,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="234" customHeight="1" ht="18">
       <c r="A234" s="8" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B234" s="9" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C234" s="7" t="s">
         <v>5</v>
@@ -4341,10 +4350,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="235" customHeight="1" ht="18">
       <c r="A235" s="8" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B235" s="9" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C235" s="7" t="s">
         <v>5</v>
@@ -4362,10 +4371,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="238" customHeight="1" ht="18">
       <c r="A238" s="8" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B238" s="9" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C238" s="7" t="s">
         <v>5</v>
@@ -4373,10 +4382,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="239" customHeight="1" ht="18">
       <c r="A239" s="8" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B239" s="9" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C239" s="7" t="s">
         <v>5</v>
@@ -4384,10 +4393,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="240" customHeight="1" ht="18">
       <c r="A240" s="8" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B240" s="9" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C240" s="7" t="s">
         <v>5</v>
@@ -4395,10 +4404,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="241" customHeight="1" ht="18">
       <c r="A241" s="8" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B241" s="9" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C241" s="7" t="s">
         <v>5</v>
@@ -4406,10 +4415,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="242" customHeight="1" ht="18">
       <c r="A242" s="8" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B242" s="9" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C242" s="7" t="s">
         <v>5</v>
@@ -4417,10 +4426,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="243" customHeight="1" ht="18">
       <c r="A243" s="8" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B243" s="9" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C243" s="7" t="s">
         <v>5</v>
@@ -4428,10 +4437,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="244" customHeight="1" ht="18">
       <c r="A244" s="8" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B244" s="9" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C244" s="7" t="s">
         <v>5</v>
@@ -4439,10 +4448,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="245" customHeight="1" ht="18">
       <c r="A245" s="8" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B245" s="9" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C245" s="7" t="s">
         <v>5</v>
@@ -4450,10 +4459,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="246" customHeight="1" ht="18">
       <c r="A246" s="8" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B246" s="9" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C246" s="7" t="s">
         <v>5</v>
@@ -4461,10 +4470,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="247" customHeight="1" ht="18">
       <c r="A247" s="8" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B247" s="9" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C247" s="7" t="s">
         <v>5</v>
@@ -4472,10 +4481,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="248" customHeight="1" ht="18">
       <c r="A248" s="8" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B248" s="9" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C248" s="7" t="s">
         <v>5</v>
@@ -4483,10 +4492,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="249" customHeight="1" ht="18">
       <c r="A249" s="8" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B249" s="9" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C249" s="7" t="s">
         <v>5</v>
@@ -4494,10 +4503,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="250" customHeight="1" ht="18">
       <c r="A250" s="8" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B250" s="9" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C250" s="7" t="s">
         <v>5</v>
@@ -4505,10 +4514,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="251" customHeight="1" ht="18">
       <c r="A251" s="8" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B251" s="9" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C251" s="7" t="s">
         <v>5</v>
@@ -4516,10 +4525,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="252" customHeight="1" ht="18">
       <c r="A252" s="8" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B252" s="9" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C252" s="7" t="s">
         <v>5</v>
@@ -4527,10 +4536,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="253" customHeight="1" ht="18">
       <c r="A253" s="8" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B253" s="9" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C253" s="7" t="s">
         <v>5</v>
@@ -4538,10 +4547,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="254" customHeight="1" ht="18">
       <c r="A254" s="8" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B254" s="9" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C254" s="7" t="s">
         <v>5</v>
@@ -4549,10 +4558,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="255" customHeight="1" ht="18">
       <c r="A255" s="8" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B255" s="9" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C255" s="7" t="s">
         <v>5</v>
@@ -4560,10 +4569,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="256" customHeight="1" ht="18">
       <c r="A256" s="8" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B256" s="9" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C256" s="7" t="s">
         <v>5</v>
@@ -4571,10 +4580,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="257" customHeight="1" ht="18">
       <c r="A257" s="8" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B257" s="9" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C257" s="7" t="s">
         <v>5</v>
@@ -4582,10 +4591,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="258" customHeight="1" ht="18">
       <c r="A258" s="8" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B258" s="9" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C258" s="7" t="s">
         <v>5</v>
@@ -4593,10 +4602,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="259" customHeight="1" ht="18">
       <c r="A259" s="8" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B259" s="9" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C259" s="7" t="s">
         <v>5</v>
@@ -4604,10 +4613,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="260" customHeight="1" ht="18">
       <c r="A260" s="8" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B260" s="9" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C260" s="7" t="s">
         <v>5</v>
@@ -4615,10 +4624,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="261" customHeight="1" ht="18">
       <c r="A261" s="8" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B261" s="9" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C261" s="7" t="s">
         <v>5</v>
@@ -4626,10 +4635,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="262" customHeight="1" ht="18">
       <c r="A262" s="8" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B262" s="9" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C262" s="7" t="s">
         <v>5</v>
@@ -4637,10 +4646,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="263" customHeight="1" ht="18">
       <c r="A263" s="8" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B263" s="9" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C263" s="7" t="s">
         <v>5</v>
@@ -4648,10 +4657,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="264" customHeight="1" ht="18">
       <c r="A264" s="8" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B264" s="9" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C264" s="7" t="s">
         <v>5</v>
@@ -4659,10 +4668,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="265" customHeight="1" ht="18">
       <c r="A265" s="8" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B265" s="9" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C265" s="7" t="s">
         <v>5</v>
@@ -4670,10 +4679,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="266" customHeight="1" ht="18">
       <c r="A266" s="8" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B266" s="9" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C266" s="7" t="s">
         <v>5</v>
@@ -4681,10 +4690,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="267" customHeight="1" ht="18">
       <c r="A267" s="8" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B267" s="9" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C267" s="7" t="s">
         <v>5</v>
@@ -4692,10 +4701,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="268" customHeight="1" ht="18">
       <c r="A268" s="8" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B268" s="9" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C268" s="7" t="s">
         <v>5</v>
@@ -4703,10 +4712,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="269" customHeight="1" ht="18">
       <c r="A269" s="8" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B269" s="9" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C269" s="7" t="s">
         <v>5</v>
@@ -4714,10 +4723,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="270" customHeight="1" ht="18">
       <c r="A270" s="8" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B270" s="9" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C270" s="7" t="s">
         <v>5</v>
@@ -4725,10 +4734,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="271" customHeight="1" ht="18">
       <c r="A271" s="8" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B271" s="9" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C271" s="7" t="s">
         <v>5</v>
@@ -4736,10 +4745,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="272" customHeight="1" ht="18">
       <c r="A272" s="8" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B272" s="9" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C272" s="7" t="s">
         <v>5</v>
@@ -4757,10 +4766,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="275" customHeight="1" ht="18">
       <c r="A275" s="8" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B275" s="9" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C275" s="7" t="s">
         <v>5</v>
@@ -4768,10 +4777,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="276" customHeight="1" ht="18">
       <c r="A276" s="8" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B276" s="9" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C276" s="7" t="s">
         <v>5</v>
@@ -4779,10 +4788,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="277" customHeight="1" ht="18">
       <c r="A277" s="8" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B277" s="9" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C277" s="7" t="s">
         <v>5</v>
@@ -4790,10 +4799,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="278" customHeight="1" ht="18">
       <c r="A278" s="8" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B278" s="9" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C278" s="7" t="s">
         <v>5</v>
@@ -4801,10 +4810,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="279" customHeight="1" ht="18">
       <c r="A279" s="8" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B279" s="9" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C279" s="7" t="s">
         <v>5</v>
@@ -4812,10 +4821,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="280" customHeight="1" ht="18">
       <c r="A280" s="8" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B280" s="9" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C280" s="7" t="s">
         <v>5</v>
@@ -4823,10 +4832,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="281" customHeight="1" ht="18">
       <c r="A281" s="8" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B281" s="9" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C281" s="7" t="s">
         <v>5</v>
@@ -4834,10 +4843,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="282" customHeight="1" ht="18">
       <c r="A282" s="8" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B282" s="9" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C282" s="7" t="s">
         <v>5</v>
@@ -4845,10 +4854,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="283" customHeight="1" ht="18">
       <c r="A283" s="8" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B283" s="9" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C283" s="7" t="s">
         <v>5</v>
@@ -4856,10 +4865,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="284" customHeight="1" ht="18">
       <c r="A284" s="8" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B284" s="9" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C284" s="7" t="s">
         <v>5</v>
@@ -4867,10 +4876,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="285" customHeight="1" ht="18">
       <c r="A285" s="8" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B285" s="9" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C285" s="7" t="s">
         <v>5</v>
@@ -4878,10 +4887,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="286" customHeight="1" ht="18">
       <c r="A286" s="8" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B286" s="9" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C286" s="7" t="s">
         <v>5</v>
@@ -4889,10 +4898,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="287" customHeight="1" ht="18">
       <c r="A287" s="8" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B287" s="9" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C287" s="7" t="s">
         <v>5</v>
@@ -4900,10 +4909,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="288" customHeight="1" ht="18">
       <c r="A288" s="8" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B288" s="9" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C288" s="7" t="s">
         <v>5</v>
@@ -4911,10 +4920,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="289" customHeight="1" ht="18">
       <c r="A289" s="8" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B289" s="9" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C289" s="7" t="s">
         <v>5</v>
@@ -4922,10 +4931,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="290" customHeight="1" ht="18">
       <c r="A290" s="8" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B290" s="9" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C290" s="7" t="s">
         <v>5</v>
@@ -4933,10 +4942,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="291" customHeight="1" ht="18">
       <c r="A291" s="8" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B291" s="9" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C291" s="7" t="s">
         <v>5</v>
@@ -4944,10 +4953,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="292" customHeight="1" ht="18">
       <c r="A292" s="8" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B292" s="9" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C292" s="7" t="s">
         <v>5</v>
@@ -4955,10 +4964,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="293" customHeight="1" ht="18">
       <c r="A293" s="8" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B293" s="9" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C293" s="7" t="s">
         <v>5</v>
@@ -4976,10 +4985,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="296" customHeight="1" ht="18">
       <c r="A296" s="8" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B296" s="9" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C296" s="7" t="s">
         <v>5</v>
@@ -4987,10 +4996,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="297" customHeight="1" ht="18">
       <c r="A297" s="8" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B297" s="9" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C297" s="7" t="s">
         <v>5</v>
@@ -4998,10 +5007,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="298" customHeight="1" ht="18">
       <c r="A298" s="8" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B298" s="9" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C298" s="7" t="s">
         <v>5</v>
@@ -5009,10 +5018,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="299" customHeight="1" ht="18">
       <c r="A299" s="8" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B299" s="9" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C299" s="7" t="s">
         <v>5</v>
@@ -5020,10 +5029,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="300" customHeight="1" ht="18">
       <c r="A300" s="8" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B300" s="9" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C300" s="7" t="s">
         <v>5</v>
@@ -5031,10 +5040,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="301" customHeight="1" ht="18">
       <c r="A301" s="8" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B301" s="9" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C301" s="7" t="s">
         <v>5</v>
@@ -5042,10 +5051,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="302" customHeight="1" ht="18">
       <c r="A302" s="8" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B302" s="9" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C302" s="7" t="s">
         <v>5</v>
@@ -5053,10 +5062,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="303" customHeight="1" ht="18">
       <c r="A303" s="8" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B303" s="9" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C303" s="7" t="s">
         <v>5</v>
@@ -5064,10 +5073,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="304" customHeight="1" ht="18">
       <c r="A304" s="8" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B304" s="9" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C304" s="7" t="s">
         <v>5</v>
@@ -5075,10 +5084,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="305" customHeight="1" ht="18">
       <c r="A305" s="8" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B305" s="9" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C305" s="7" t="s">
         <v>5</v>
@@ -5086,10 +5095,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="306" customHeight="1" ht="18">
       <c r="A306" s="8" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B306" s="9" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="C306" s="7" t="s">
         <v>5</v>
@@ -5097,10 +5106,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="307" customHeight="1" ht="18">
       <c r="A307" s="8" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B307" s="9" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C307" s="7" t="s">
         <v>5</v>
@@ -5108,10 +5117,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="308" customHeight="1" ht="18">
       <c r="A308" s="8" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B308" s="9" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C308" s="7" t="s">
         <v>5</v>
@@ -5119,10 +5128,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="309" customHeight="1" ht="18">
       <c r="A309" s="8" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B309" s="9" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C309" s="7" t="s">
         <v>5</v>
@@ -5130,10 +5139,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="310" customHeight="1" ht="18">
       <c r="A310" s="8" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B310" s="9" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C310" s="7" t="s">
         <v>5</v>
@@ -5141,10 +5150,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="311" customHeight="1" ht="18">
       <c r="A311" s="8" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B311" s="9" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C311" s="7" t="s">
         <v>5</v>
@@ -5152,10 +5161,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="312" customHeight="1" ht="18">
       <c r="A312" s="8" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B312" s="9" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C312" s="7" t="s">
         <v>5</v>
@@ -5163,10 +5172,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="313" customHeight="1" ht="18">
       <c r="A313" s="8" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B313" s="9" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C313" s="7" t="s">
         <v>5</v>
@@ -5174,10 +5183,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="314" customHeight="1" ht="18">
       <c r="A314" s="8" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B314" s="9" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C314" s="7" t="s">
         <v>5</v>
@@ -5185,10 +5194,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="315" customHeight="1" ht="18">
       <c r="A315" s="8" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B315" s="9" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C315" s="7" t="s">
         <v>5</v>
@@ -5196,10 +5205,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="316" customHeight="1" ht="18">
       <c r="A316" s="8" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B316" s="9" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="C316" s="7" t="s">
         <v>5</v>
@@ -5207,10 +5216,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="317" customHeight="1" ht="18">
       <c r="A317" s="8" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B317" s="9" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C317" s="7" t="s">
         <v>5</v>
@@ -5218,10 +5227,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="318" customHeight="1" ht="18">
       <c r="A318" s="8" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B318" s="9" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="C318" s="7" t="s">
         <v>5</v>
@@ -5229,10 +5238,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="319" customHeight="1" ht="18">
       <c r="A319" s="8" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B319" s="9" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C319" s="7" t="s">
         <v>5</v>
@@ -5240,10 +5249,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="320" customHeight="1" ht="18">
       <c r="A320" s="8" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B320" s="9" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C320" s="7" t="s">
         <v>5</v>
@@ -5251,10 +5260,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="321" customHeight="1" ht="18">
       <c r="A321" s="8" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B321" s="9" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="C321" s="7" t="s">
         <v>5</v>
@@ -5262,10 +5271,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="322" customHeight="1" ht="18">
       <c r="A322" s="8" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B322" s="9" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="C322" s="7" t="s">
         <v>5</v>
@@ -5273,10 +5282,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="323" customHeight="1" ht="18">
       <c r="A323" s="8" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B323" s="9" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C323" s="7" t="s">
         <v>5</v>
@@ -5284,10 +5293,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="324" customHeight="1" ht="18">
       <c r="A324" s="8" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B324" s="9" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="C324" s="7" t="s">
         <v>5</v>
@@ -5295,10 +5304,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="325" customHeight="1" ht="18">
       <c r="A325" s="8" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B325" s="9" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="C325" s="7" t="s">
         <v>5</v>
@@ -5306,10 +5315,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="326" customHeight="1" ht="18">
       <c r="A326" s="8" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B326" s="9" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C326" s="7" t="s">
         <v>5</v>
@@ -5317,10 +5326,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="327" customHeight="1" ht="18">
       <c r="A327" s="8" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B327" s="9" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C327" s="7" t="s">
         <v>5</v>
@@ -5328,10 +5337,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="328" customHeight="1" ht="18">
       <c r="A328" s="8" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B328" s="9" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="C328" s="7" t="s">
         <v>5</v>
@@ -5339,10 +5348,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="329" customHeight="1" ht="18">
       <c r="A329" s="8" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B329" s="9" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C329" s="7" t="s">
         <v>5</v>
@@ -5350,10 +5359,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="330" customHeight="1" ht="18">
       <c r="A330" s="8" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B330" s="9" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C330" s="7" t="s">
         <v>5</v>
@@ -5361,10 +5370,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="331" customHeight="1" ht="18">
       <c r="A331" s="8" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B331" s="9" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="C331" s="7" t="s">
         <v>5</v>
@@ -5372,10 +5381,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="332" customHeight="1" ht="18">
       <c r="A332" s="8" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B332" s="9" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="C332" s="7" t="s">
         <v>5</v>
@@ -5383,10 +5392,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="333" customHeight="1" ht="18">
       <c r="A333" s="8" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B333" s="9" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C333" s="7" t="s">
         <v>5</v>
@@ -5404,10 +5413,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="336" customHeight="1" ht="18">
       <c r="A336" s="8" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B336" s="9" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="C336" s="7" t="s">
         <v>5</v>
@@ -5415,10 +5424,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="337" customHeight="1" ht="18">
       <c r="A337" s="8" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B337" s="9" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="C337" s="7" t="s">
         <v>5</v>
@@ -5426,10 +5435,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="338" customHeight="1" ht="18">
       <c r="A338" s="8" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B338" s="9" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C338" s="7" t="s">
         <v>5</v>
@@ -5437,10 +5446,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="339" customHeight="1" ht="18">
       <c r="A339" s="8" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B339" s="9" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="C339" s="7" t="s">
         <v>5</v>
@@ -5448,10 +5457,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="340" customHeight="1" ht="18">
       <c r="A340" s="8" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B340" s="9" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="C340" s="7" t="s">
         <v>5</v>
@@ -5459,10 +5468,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="341" customHeight="1" ht="18">
       <c r="A341" s="8" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B341" s="9" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="C341" s="7" t="s">
         <v>5</v>
@@ -5470,10 +5479,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="342" customHeight="1" ht="18">
       <c r="A342" s="8" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B342" s="9" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C342" s="7" t="s">
         <v>5</v>
@@ -5481,10 +5490,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="343" customHeight="1" ht="18">
       <c r="A343" s="8" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B343" s="9" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C343" s="7" t="s">
         <v>5</v>
@@ -5492,10 +5501,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="344" customHeight="1" ht="18">
       <c r="A344" s="8" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B344" s="9" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="C344" s="7" t="s">
         <v>5</v>
@@ -5503,10 +5512,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="345" customHeight="1" ht="18">
       <c r="A345" s="8" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B345" s="9" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C345" s="7" t="s">
         <v>5</v>
@@ -5514,10 +5523,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="346" customHeight="1" ht="18">
       <c r="A346" s="8" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B346" s="9" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="C346" s="7" t="s">
         <v>5</v>
@@ -5525,10 +5534,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="347" customHeight="1" ht="18">
       <c r="A347" s="8" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B347" s="9" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="C347" s="7" t="s">
         <v>5</v>
@@ -5536,10 +5545,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="348" customHeight="1" ht="18">
       <c r="A348" s="8" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B348" s="9" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="C348" s="7" t="s">
         <v>5</v>
@@ -5547,10 +5556,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="349" customHeight="1" ht="18">
       <c r="A349" s="8" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B349" s="9" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="C349" s="7" t="s">
         <v>5</v>
@@ -5558,10 +5567,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="350" customHeight="1" ht="18">
       <c r="A350" s="8" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B350" s="9" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="C350" s="7" t="s">
         <v>5</v>
@@ -5569,10 +5578,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="351" customHeight="1" ht="18">
       <c r="A351" s="8" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B351" s="9" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="C351" s="7" t="s">
         <v>5</v>
@@ -5580,10 +5589,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="352" customHeight="1" ht="18">
       <c r="A352" s="8" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B352" s="9" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="C352" s="7" t="s">
         <v>5</v>
@@ -5591,10 +5600,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="353" customHeight="1" ht="18">
       <c r="A353" s="8" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B353" s="9" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="C353" s="7" t="s">
         <v>5</v>
@@ -5612,10 +5621,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="356" customHeight="1" ht="18">
       <c r="A356" s="8" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B356" s="9" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="C356" s="7" t="s">
         <v>5</v>
@@ -5623,10 +5632,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="357" customHeight="1" ht="18">
       <c r="A357" s="8" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B357" s="9" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="C357" s="7" t="s">
         <v>5</v>
@@ -5634,10 +5643,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="358" customHeight="1" ht="18">
       <c r="A358" s="8" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B358" s="9" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="C358" s="7" t="s">
         <v>5</v>
@@ -5645,10 +5654,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="359" customHeight="1" ht="18">
       <c r="A359" s="8" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B359" s="9" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="C359" s="7" t="s">
         <v>5</v>
@@ -5656,10 +5665,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="360" customHeight="1" ht="18">
       <c r="A360" s="8" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B360" s="9" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C360" s="7" t="s">
         <v>5</v>
@@ -5667,10 +5676,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="361" customHeight="1" ht="18">
       <c r="A361" s="8" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B361" s="9" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="C361" s="7" t="s">
         <v>5</v>
@@ -5678,10 +5687,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="362" customHeight="1" ht="18">
       <c r="A362" s="8" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B362" s="9" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C362" s="7" t="s">
         <v>5</v>
@@ -5689,10 +5698,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="363" customHeight="1" ht="18">
       <c r="A363" s="8" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B363" s="9" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C363" s="7" t="s">
         <v>5</v>
@@ -5700,10 +5709,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="364" customHeight="1" ht="18">
       <c r="A364" s="8" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B364" s="9" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C364" s="7" t="s">
         <v>5</v>
@@ -5711,10 +5720,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="365" customHeight="1" ht="18">
       <c r="A365" s="8" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B365" s="9" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="C365" s="7" t="s">
         <v>5</v>
@@ -5722,10 +5731,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="366" customHeight="1" ht="18">
       <c r="A366" s="8" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B366" s="9" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C366" s="7" t="s">
         <v>5</v>
@@ -5733,10 +5742,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="367" customHeight="1" ht="18">
       <c r="A367" s="8" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B367" s="9" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="C367" s="7" t="s">
         <v>5</v>
@@ -5744,10 +5753,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="368" customHeight="1" ht="18">
       <c r="A368" s="8" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B368" s="9" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="C368" s="7" t="s">
         <v>5</v>
@@ -5755,10 +5764,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="369" customHeight="1" ht="18">
       <c r="A369" s="8" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B369" s="9" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="C369" s="7" t="s">
         <v>5</v>
@@ -5766,10 +5775,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="370" customHeight="1" ht="18">
       <c r="A370" s="8" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B370" s="9" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="C370" s="7" t="s">
         <v>5</v>
@@ -5777,10 +5786,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="371" customHeight="1" ht="18">
       <c r="A371" s="8" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B371" s="9" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="C371" s="7" t="s">
         <v>5</v>
@@ -5788,10 +5797,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="372" customHeight="1" ht="18">
       <c r="A372" s="8" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B372" s="9" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="C372" s="7" t="s">
         <v>5</v>
@@ -5799,10 +5808,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="373" customHeight="1" ht="18">
       <c r="A373" s="8" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B373" s="9" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C373" s="7" t="s">
         <v>5</v>
@@ -5810,10 +5819,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="374" customHeight="1" ht="18">
       <c r="A374" s="8" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B374" s="9" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="C374" s="7" t="s">
         <v>5</v>
@@ -5821,10 +5830,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="375" customHeight="1" ht="18">
       <c r="A375" s="8" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B375" s="9" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="C375" s="7" t="s">
         <v>5</v>
@@ -5832,10 +5841,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="376" customHeight="1" ht="18">
       <c r="A376" s="8" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B376" s="9" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="C376" s="7" t="s">
         <v>5</v>
@@ -5843,10 +5852,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="377" customHeight="1" ht="18">
       <c r="A377" s="8" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B377" s="9" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="C377" s="7" t="s">
         <v>5</v>
@@ -5854,10 +5863,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="378" customHeight="1" ht="18">
       <c r="A378" s="8" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B378" s="9" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C378" s="7" t="s">
         <v>5</v>
@@ -5865,10 +5874,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="379" customHeight="1" ht="18">
       <c r="A379" s="8" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B379" s="9" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="C379" s="7" t="s">
         <v>5</v>
@@ -5876,10 +5885,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="380" customHeight="1" ht="18">
       <c r="A380" s="8" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B380" s="9" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="C380" s="7" t="s">
         <v>5</v>
@@ -5887,10 +5896,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="381" customHeight="1" ht="18">
       <c r="A381" s="8" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B381" s="9" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="C381" s="7" t="s">
         <v>5</v>
@@ -5898,10 +5907,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="382" customHeight="1" ht="18">
       <c r="A382" s="8" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B382" s="9" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="C382" s="7" t="s">
         <v>5</v>
@@ -5909,10 +5918,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="383" customHeight="1" ht="18">
       <c r="A383" s="8" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B383" s="9" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="C383" s="7" t="s">
         <v>5</v>
@@ -5920,10 +5929,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="384" customHeight="1" ht="18">
       <c r="A384" s="8" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B384" s="9" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="C384" s="7" t="s">
         <v>5</v>
@@ -5931,10 +5940,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="385" customHeight="1" ht="18">
       <c r="A385" s="8" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B385" s="9" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="C385" s="7" t="s">
         <v>5</v>
@@ -5942,10 +5951,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="386" customHeight="1" ht="18">
       <c r="A386" s="8" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B386" s="9" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="C386" s="7" t="s">
         <v>5</v>
@@ -5953,10 +5962,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="387" customHeight="1" ht="18">
       <c r="A387" s="8" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B387" s="9" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="C387" s="7" t="s">
         <v>5</v>
@@ -5964,10 +5973,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="388" customHeight="1" ht="18">
       <c r="A388" s="8" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B388" s="9" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C388" s="7" t="s">
         <v>5</v>
@@ -5975,10 +5984,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="389" customHeight="1" ht="18">
       <c r="A389" s="8" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B389" s="9" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="C389" s="7" t="s">
         <v>5</v>
@@ -5986,10 +5995,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="390" customHeight="1" ht="18">
       <c r="A390" s="8" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B390" s="9" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="C390" s="7" t="s">
         <v>5</v>
@@ -5997,10 +6006,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="391" customHeight="1" ht="18">
       <c r="A391" s="8" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B391" s="9" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="C391" s="7" t="s">
         <v>5</v>
@@ -6008,10 +6017,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="392" customHeight="1" ht="18">
       <c r="A392" s="8" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B392" s="9" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="C392" s="7" t="s">
         <v>5</v>
@@ -6019,10 +6028,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="393" customHeight="1" ht="18">
       <c r="A393" s="8" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B393" s="9" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="C393" s="7" t="s">
         <v>5</v>
@@ -6030,10 +6039,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="394" customHeight="1" ht="18">
       <c r="A394" s="8" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B394" s="9" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="C394" s="7" t="s">
         <v>5</v>
@@ -6041,10 +6050,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="395" customHeight="1" ht="18">
       <c r="A395" s="8" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B395" s="9" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="C395" s="7" t="s">
         <v>5</v>
@@ -6052,10 +6061,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="396" customHeight="1" ht="18">
       <c r="A396" s="8" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B396" s="9" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="C396" s="7" t="s">
         <v>5</v>
@@ -6063,10 +6072,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="397" customHeight="1" ht="18">
       <c r="A397" s="8" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B397" s="9" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="C397" s="7" t="s">
         <v>5</v>
@@ -6074,10 +6083,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="398" customHeight="1" ht="18">
       <c r="A398" s="8" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B398" s="9" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C398" s="7" t="s">
         <v>5</v>
@@ -6085,10 +6094,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="399" customHeight="1" ht="18">
       <c r="A399" s="8" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B399" s="9" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="C399" s="7" t="s">
         <v>5</v>
@@ -6106,10 +6115,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="402" customHeight="1" ht="18">
       <c r="A402" s="8" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="B402" s="9" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="C402" s="7" t="s">
         <v>5</v>
@@ -6117,10 +6126,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="403" customHeight="1" ht="18">
       <c r="A403" s="8" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="B403" s="9" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="C403" s="7" t="s">
         <v>5</v>
@@ -6128,10 +6137,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="404" customHeight="1" ht="18">
       <c r="A404" s="8" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="B404" s="9" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="C404" s="7" t="s">
         <v>5</v>
@@ -6139,10 +6148,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="405" customHeight="1" ht="18">
       <c r="A405" s="8" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="B405" s="9" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C405" s="7" t="s">
         <v>5</v>
@@ -6150,10 +6159,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="406" customHeight="1" ht="18">
       <c r="A406" s="8" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="B406" s="9" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="C406" s="7" t="s">
         <v>5</v>
@@ -6161,10 +6170,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="407" customHeight="1" ht="18">
       <c r="A407" s="8" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="B407" s="9" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="C407" s="7" t="s">
         <v>5</v>
@@ -6182,10 +6191,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="410" customHeight="1" ht="18">
       <c r="A410" s="8" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B410" s="9" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="C410" s="7" t="s">
         <v>5</v>
@@ -6193,10 +6202,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="411" customHeight="1" ht="18">
       <c r="A411" s="8" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B411" s="9" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="C411" s="7" t="s">
         <v>5</v>
@@ -6204,10 +6213,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="412" customHeight="1" ht="18">
       <c r="A412" s="8" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B412" s="9" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="C412" s="7" t="s">
         <v>5</v>
@@ -6215,10 +6224,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="413" customHeight="1" ht="18">
       <c r="A413" s="8" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B413" s="9" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="C413" s="7" t="s">
         <v>5</v>
@@ -6226,10 +6235,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="414" customHeight="1" ht="18">
       <c r="A414" s="8" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B414" s="9" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C414" s="7" t="s">
         <v>5</v>
@@ -6237,10 +6246,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="415" customHeight="1" ht="18">
       <c r="A415" s="8" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B415" s="9" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="C415" s="7" t="s">
         <v>5</v>
@@ -6248,10 +6257,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="416" customHeight="1" ht="18">
       <c r="A416" s="8" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B416" s="9" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C416" s="7" t="s">
         <v>5</v>
@@ -6259,10 +6268,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="417" customHeight="1" ht="18">
       <c r="A417" s="8" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B417" s="9" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C417" s="7" t="s">
         <v>5</v>
@@ -6270,10 +6279,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="418" customHeight="1" ht="18">
       <c r="A418" s="8" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B418" s="9" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="C418" s="7" t="s">
         <v>5</v>
@@ -6281,10 +6290,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="419" customHeight="1" ht="18">
       <c r="A419" s="8" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B419" s="9" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="C419" s="7" t="s">
         <v>5</v>
@@ -6292,10 +6301,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="420" customHeight="1" ht="18">
       <c r="A420" s="8" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B420" s="9" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="C420" s="7" t="s">
         <v>5</v>
@@ -6303,10 +6312,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="421" customHeight="1" ht="18">
       <c r="A421" s="8" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B421" s="9" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="C421" s="7" t="s">
         <v>5</v>
@@ -6314,10 +6323,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="422" customHeight="1" ht="18">
       <c r="A422" s="8" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B422" s="9" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="C422" s="7" t="s">
         <v>5</v>
@@ -6325,10 +6334,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="423" customHeight="1" ht="18">
       <c r="A423" s="8" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B423" s="9" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="C423" s="7" t="s">
         <v>5</v>
@@ -6336,10 +6345,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="424" customHeight="1" ht="18">
       <c r="A424" s="8" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B424" s="9" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="C424" s="7" t="s">
         <v>5</v>
@@ -6347,10 +6356,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="425" customHeight="1" ht="18">
       <c r="A425" s="8" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B425" s="9" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="C425" s="7" t="s">
         <v>5</v>
@@ -6358,10 +6367,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="426" customHeight="1" ht="18">
       <c r="A426" s="8" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B426" s="9" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="C426" s="7" t="s">
         <v>5</v>
@@ -6369,10 +6378,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="427" customHeight="1" ht="18">
       <c r="A427" s="8" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B427" s="9" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="C427" s="7" t="s">
         <v>5</v>
@@ -6380,10 +6389,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="428" customHeight="1" ht="18">
       <c r="A428" s="8" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B428" s="9" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="C428" s="7" t="s">
         <v>5</v>
@@ -6391,10 +6400,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="429" customHeight="1" ht="18">
       <c r="A429" s="8" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B429" s="9" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="C429" s="7" t="s">
         <v>5</v>
@@ -6402,10 +6411,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="430" customHeight="1" ht="18">
       <c r="A430" s="8" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B430" s="9" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="C430" s="7" t="s">
         <v>5</v>
@@ -6413,10 +6422,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="431" customHeight="1" ht="18">
       <c r="A431" s="8" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B431" s="9" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C431" s="7" t="s">
         <v>5</v>
@@ -6424,10 +6433,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="432" customHeight="1" ht="18">
       <c r="A432" s="8" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B432" s="9" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="C432" s="7" t="s">
         <v>5</v>
@@ -6435,10 +6444,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="433" customHeight="1" ht="18">
       <c r="A433" s="8" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B433" s="9" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="C433" s="7" t="s">
         <v>5</v>
@@ -6446,10 +6455,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="434" customHeight="1" ht="18">
       <c r="A434" s="8" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B434" s="9" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="C434" s="7" t="s">
         <v>5</v>
@@ -6457,10 +6466,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="435" customHeight="1" ht="18">
       <c r="A435" s="8" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B435" s="9" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="C435" s="7" t="s">
         <v>5</v>
@@ -6468,10 +6477,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="436" customHeight="1" ht="18">
       <c r="A436" s="8" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B436" s="9" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="C436" s="7" t="s">
         <v>5</v>
@@ -6479,10 +6488,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="437" customHeight="1" ht="18">
       <c r="A437" s="8" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B437" s="9" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="C437" s="7" t="s">
         <v>5</v>
@@ -6490,10 +6499,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="438" customHeight="1" ht="18">
       <c r="A438" s="8" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B438" s="9" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="C438" s="7" t="s">
         <v>5</v>
@@ -6501,10 +6510,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="439" customHeight="1" ht="18">
       <c r="A439" s="8" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B439" s="9" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="C439" s="7" t="s">
         <v>5</v>
@@ -6512,10 +6521,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="440" customHeight="1" ht="18">
       <c r="A440" s="8" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B440" s="9" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="C440" s="7" t="s">
         <v>5</v>
@@ -6523,10 +6532,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="441" customHeight="1" ht="18">
       <c r="A441" s="8" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B441" s="9" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="C441" s="7" t="s">
         <v>5</v>
@@ -6534,10 +6543,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="442" customHeight="1" ht="18">
       <c r="A442" s="8" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B442" s="9" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="C442" s="7" t="s">
         <v>5</v>
@@ -6545,10 +6554,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="443" customHeight="1" ht="18">
       <c r="A443" s="8" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B443" s="9" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="C443" s="7" t="s">
         <v>5</v>
@@ -6556,10 +6565,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="444" customHeight="1" ht="18">
       <c r="A444" s="8" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B444" s="9" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="C444" s="7" t="s">
         <v>5</v>
@@ -6567,10 +6576,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="445" customHeight="1" ht="18">
       <c r="A445" s="8" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B445" s="9" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="C445" s="7" t="s">
         <v>5</v>
@@ -6578,10 +6587,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="446" customHeight="1" ht="18">
       <c r="A446" s="8" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B446" s="9" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="C446" s="7" t="s">
         <v>5</v>
@@ -6589,10 +6598,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="447" customHeight="1" ht="18">
       <c r="A447" s="8" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B447" s="9" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="C447" s="7" t="s">
         <v>5</v>
@@ -6600,10 +6609,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="448" customHeight="1" ht="18">
       <c r="A448" s="8" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B448" s="9" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="C448" s="7" t="s">
         <v>5</v>
@@ -6611,10 +6620,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="449" customHeight="1" ht="18">
       <c r="A449" s="8" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B449" s="9" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="C449" s="7" t="s">
         <v>5</v>
@@ -6622,10 +6631,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="450" customHeight="1" ht="18">
       <c r="A450" s="8" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B450" s="9" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="C450" s="7" t="s">
         <v>5</v>
@@ -6633,10 +6642,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="451" customHeight="1" ht="18">
       <c r="A451" s="8" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B451" s="9" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="C451" s="7" t="s">
         <v>5</v>
@@ -6644,10 +6653,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="452" customHeight="1" ht="18">
       <c r="A452" s="8" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B452" s="9" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="C452" s="7" t="s">
         <v>5</v>
@@ -6655,10 +6664,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="453" customHeight="1" ht="18">
       <c r="A453" s="8" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B453" s="9" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="C453" s="7" t="s">
         <v>5</v>
@@ -6666,10 +6675,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="454" customHeight="1" ht="18">
       <c r="A454" s="8" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B454" s="9" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="C454" s="7" t="s">
         <v>5</v>
@@ -6677,10 +6686,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="455" customHeight="1" ht="18">
       <c r="A455" s="8" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B455" s="9" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="C455" s="7" t="s">
         <v>5</v>
@@ -6688,10 +6697,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="456" customHeight="1" ht="18">
       <c r="A456" s="8" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B456" s="9" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="C456" s="7" t="s">
         <v>5</v>
@@ -6699,10 +6708,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="457" customHeight="1" ht="18">
       <c r="A457" s="8" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B457" s="9" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="C457" s="7" t="s">
         <v>5</v>
@@ -6710,10 +6719,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="458" customHeight="1" ht="18">
       <c r="A458" s="8" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B458" s="9" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="C458" s="7" t="s">
         <v>5</v>
@@ -6721,10 +6730,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="459" customHeight="1" ht="18">
       <c r="A459" s="8" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B459" s="9" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="C459" s="7" t="s">
         <v>5</v>
@@ -6732,10 +6741,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="460" customHeight="1" ht="18">
       <c r="A460" s="8" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B460" s="9" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="C460" s="7" t="s">
         <v>5</v>
@@ -6743,10 +6752,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="461" customHeight="1" ht="18">
       <c r="A461" s="8" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B461" s="9" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="C461" s="7" t="s">
         <v>5</v>
@@ -6754,10 +6763,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="462" customHeight="1" ht="18">
       <c r="A462" s="8" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B462" s="9" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="C462" s="7" t="s">
         <v>5</v>
@@ -6765,10 +6774,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="463" customHeight="1" ht="18">
       <c r="A463" s="8" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B463" s="9" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="C463" s="7" t="s">
         <v>5</v>
@@ -6776,10 +6785,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="464" customHeight="1" ht="18">
       <c r="A464" s="8" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B464" s="9" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="C464" s="7" t="s">
         <v>5</v>
@@ -6787,10 +6796,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="465" customHeight="1" ht="18">
       <c r="A465" s="8" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B465" s="9" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="C465" s="7" t="s">
         <v>5</v>
@@ -6798,10 +6807,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="466" customHeight="1" ht="18">
       <c r="A466" s="8" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B466" s="9" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="C466" s="7" t="s">
         <v>5</v>
@@ -6809,10 +6818,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="467" customHeight="1" ht="18">
       <c r="A467" s="8" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B467" s="9" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="C467" s="7" t="s">
         <v>5</v>
@@ -6820,10 +6829,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="468" customHeight="1" ht="18">
       <c r="A468" s="8" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B468" s="9" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="C468" s="7" t="s">
         <v>5</v>
@@ -6831,10 +6840,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="469" customHeight="1" ht="18">
       <c r="A469" s="8" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B469" s="9" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="C469" s="7" t="s">
         <v>5</v>
@@ -6852,10 +6861,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="472" customHeight="1" ht="18">
       <c r="A472" s="8" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="B472" s="9" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="C472" s="7" t="s">
         <v>5</v>
@@ -6863,10 +6872,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="473" customHeight="1" ht="18">
       <c r="A473" s="8" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="B473" s="9" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C473" s="7" t="s">
         <v>5</v>
@@ -6874,10 +6883,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="474" customHeight="1" ht="18">
       <c r="A474" s="8" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="B474" s="9" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="C474" s="7" t="s">
         <v>5</v>
@@ -6885,10 +6894,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="475" customHeight="1" ht="18">
       <c r="A475" s="8" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="B475" s="9" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="C475" s="7" t="s">
         <v>5</v>
@@ -6896,10 +6905,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="476" customHeight="1" ht="18">
       <c r="A476" s="8" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="B476" s="9" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="C476" s="7" t="s">
         <v>5</v>
@@ -6907,10 +6916,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="477" customHeight="1" ht="18">
       <c r="A477" s="8" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="B477" s="9" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="C477" s="7" t="s">
         <v>5</v>
@@ -6918,10 +6927,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="478" customHeight="1" ht="18">
       <c r="A478" s="8" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="B478" s="9" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="C478" s="7" t="s">
         <v>5</v>
@@ -6929,10 +6938,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="479" customHeight="1" ht="18">
       <c r="A479" s="8" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="B479" s="9" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="C479" s="7" t="s">
         <v>5</v>
@@ -6940,10 +6949,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="480" customHeight="1" ht="18">
       <c r="A480" s="8" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="B480" s="9" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="C480" s="7" t="s">
         <v>5</v>
@@ -6951,10 +6960,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="481" customHeight="1" ht="18">
       <c r="A481" s="8" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="B481" s="9" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="C481" s="7" t="s">
         <v>5</v>

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -1429,7 +1429,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -1448,15 +1448,15 @@
       <family val="2"/>
     </font>
     <font>
-      <b/>
-      <u/>
-      <sz val="16"/>
-      <color rgb="FF000000"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
     <font>
-      <sz val="11"/>
+      <b/>
+      <u/>
+      <sz val="16"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -1509,7 +1509,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1520,17 +1520,14 @@
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="6" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1855,9 +1852,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="11" width="28.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="12" width="123.005" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="11" width="27.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="10" width="28.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="11" width="123.005" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="10" width="27.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="30">
@@ -1867,19 +1864,19 @@
       </c>
       <c r="C1" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="20.25">
       <c r="A2" s="1"/>
       <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
       <c r="A3" s="1"/>
       <c r="B3" s="4"/>
       <c r="C3" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="24.75">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="24">
       <c r="A4" s="5" t="s">
         <v>2</v>
       </c>
@@ -1893,527 +1890,527 @@
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
       <c r="A5" s="1"/>
       <c r="B5" s="4"/>
-      <c r="C5" s="7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="24.75">
-      <c r="A6" s="8" t="s">
+      <c r="C5" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="24">
+      <c r="A6" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="24.75">
-      <c r="A7" s="8" t="s">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="24">
+      <c r="A7" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="24.75">
-      <c r="A8" s="8" t="s">
+      <c r="C7" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="24">
+      <c r="A8" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="24.75">
-      <c r="A9" s="8" t="s">
+      <c r="C8" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="24">
+      <c r="A9" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="24.75">
-      <c r="A10" s="8" t="s">
+      <c r="C9" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="24">
+      <c r="A10" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="24.75">
-      <c r="A11" s="8" t="s">
+      <c r="C10" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="24">
+      <c r="A11" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C11" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="24.75">
-      <c r="A12" s="8" t="s">
+      <c r="A12" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="C12" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="24.75">
-      <c r="A13" s="8" t="s">
+      <c r="A13" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="C13" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="24.75">
-      <c r="A14" s="8" t="s">
+      <c r="A14" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="7" t="s">
+      <c r="C14" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="24.75">
-      <c r="A15" s="8" t="s">
+      <c r="A15" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B15" s="9" t="s">
+      <c r="B15" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C15" s="7" t="s">
+      <c r="C15" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="24.75">
-      <c r="A16" s="8" t="s">
+      <c r="A16" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B16" s="9" t="s">
+      <c r="B16" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="C16" s="7" t="s">
+      <c r="C16" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="24.75">
-      <c r="A17" s="8" t="s">
+      <c r="A17" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B17" s="9" t="s">
+      <c r="B17" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C17" s="7" t="s">
+      <c r="C17" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="24.75">
-      <c r="A18" s="8" t="s">
+      <c r="A18" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B18" s="9" t="s">
+      <c r="B18" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="C18" s="7" t="s">
+      <c r="C18" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="24.75">
-      <c r="A19" s="8" t="s">
+      <c r="A19" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B19" s="9" t="s">
+      <c r="B19" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C19" s="7" t="s">
+      <c r="C19" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="24.75">
-      <c r="A20" s="8" t="s">
+      <c r="A20" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B20" s="9" t="s">
+      <c r="B20" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C20" s="7" t="s">
+      <c r="C20" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="24.75">
-      <c r="A21" s="8" t="s">
+      <c r="A21" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B21" s="9" t="s">
+      <c r="B21" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="C21" s="7" t="s">
+      <c r="C21" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18">
-      <c r="A22" s="8" t="s">
+      <c r="A22" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B22" s="9" t="s">
+      <c r="B22" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="C22" s="7" t="s">
+      <c r="C22" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18">
-      <c r="A23" s="8" t="s">
+      <c r="A23" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B23" s="9" t="s">
+      <c r="B23" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="C23" s="7" t="s">
+      <c r="C23" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18">
-      <c r="A24" s="8" t="s">
+      <c r="A24" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B24" s="9" t="s">
+      <c r="B24" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="C24" s="7" t="s">
+      <c r="C24" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18">
-      <c r="A25" s="8" t="s">
+      <c r="A25" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B25" s="9" t="s">
+      <c r="B25" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="C25" s="7" t="s">
+      <c r="C25" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18">
-      <c r="A26" s="8" t="s">
+      <c r="A26" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B26" s="9" t="s">
+      <c r="B26" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="C26" s="7" t="s">
+      <c r="C26" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18">
-      <c r="A27" s="8" t="s">
+      <c r="A27" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B27" s="9" t="s">
+      <c r="B27" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="C27" s="7" t="s">
+      <c r="C27" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18">
-      <c r="A28" s="8" t="s">
+      <c r="A28" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B28" s="9" t="s">
+      <c r="B28" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="C28" s="7" t="s">
+      <c r="C28" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18">
-      <c r="A29" s="8" t="s">
+      <c r="A29" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B29" s="9" t="s">
+      <c r="B29" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="C29" s="7" t="s">
+      <c r="C29" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18">
-      <c r="A30" s="8" t="s">
+      <c r="A30" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B30" s="9" t="s">
+      <c r="B30" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="C30" s="7" t="s">
+      <c r="C30" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18">
-      <c r="A31" s="8" t="s">
+      <c r="A31" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B31" s="9" t="s">
+      <c r="B31" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="C31" s="7" t="s">
+      <c r="C31" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18">
-      <c r="A32" s="8" t="s">
+      <c r="A32" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B32" s="9" t="s">
+      <c r="B32" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="C32" s="7" t="s">
+      <c r="C32" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18">
-      <c r="A33" s="8" t="s">
+      <c r="A33" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B33" s="9" t="s">
+      <c r="B33" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="C33" s="7" t="s">
+      <c r="C33" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18">
-      <c r="A34" s="8" t="s">
+      <c r="A34" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B34" s="9" t="s">
+      <c r="B34" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="C34" s="7" t="s">
+      <c r="C34" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18">
-      <c r="A35" s="8" t="s">
+      <c r="A35" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B35" s="9" t="s">
+      <c r="B35" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="C35" s="7" t="s">
+      <c r="C35" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="18">
-      <c r="A36" s="8" t="s">
+      <c r="A36" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B36" s="9" t="s">
+      <c r="B36" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="C36" s="7" t="s">
+      <c r="C36" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="18">
-      <c r="A37" s="8" t="s">
+      <c r="A37" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B37" s="9" t="s">
+      <c r="B37" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="C37" s="7" t="s">
+      <c r="C37" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="18">
-      <c r="A38" s="8" t="s">
+      <c r="A38" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B38" s="9" t="s">
+      <c r="B38" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="C38" s="7" t="s">
+      <c r="C38" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="18">
-      <c r="A39" s="8" t="s">
+      <c r="A39" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B39" s="9" t="s">
+      <c r="B39" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="C39" s="7" t="s">
+      <c r="C39" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="18">
-      <c r="A40" s="8" t="s">
+      <c r="A40" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B40" s="9" t="s">
+      <c r="B40" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="C40" s="7" t="s">
+      <c r="C40" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="18">
-      <c r="A41" s="8" t="s">
+      <c r="A41" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B41" s="9" t="s">
+      <c r="B41" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="C41" s="7" t="s">
+      <c r="C41" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="18">
       <c r="A42" s="1"/>
-      <c r="B42" s="10"/>
-      <c r="C42" s="7" t="s">
+      <c r="B42" s="9"/>
+      <c r="C42" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="18">
-      <c r="A43" s="8"/>
-      <c r="B43" s="10"/>
-      <c r="C43" s="7" t="s">
+      <c r="A43" s="7"/>
+      <c r="B43" s="9"/>
+      <c r="C43" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="18">
-      <c r="A44" s="8" t="s">
+      <c r="A44" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="B44" s="9" t="s">
+      <c r="B44" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="C44" s="7" t="s">
+      <c r="C44" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="18">
-      <c r="A45" s="8" t="s">
+      <c r="A45" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="B45" s="9" t="s">
+      <c r="B45" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="C45" s="7" t="s">
+      <c r="C45" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="18">
-      <c r="A46" s="8" t="s">
+      <c r="A46" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="B46" s="9" t="s">
+      <c r="B46" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="C46" s="7" t="s">
+      <c r="C46" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="18">
-      <c r="A47" s="8" t="s">
+      <c r="A47" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="B47" s="9" t="s">
+      <c r="B47" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="C47" s="7" t="s">
+      <c r="C47" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="18">
-      <c r="A48" s="8" t="s">
+      <c r="A48" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="B48" s="9" t="s">
+      <c r="B48" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="C48" s="7" t="s">
+      <c r="C48" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="18">
-      <c r="A49" s="8" t="s">
+      <c r="A49" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="B49" s="9" t="s">
+      <c r="B49" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="C49" s="7" t="s">
+      <c r="C49" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="18">
-      <c r="A50" s="8" t="s">
+      <c r="A50" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="B50" s="9" t="s">
+      <c r="B50" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="C50" s="7" t="s">
+      <c r="C50" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="18">
-      <c r="A51" s="8" t="s">
+      <c r="A51" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="B51" s="9" t="s">
+      <c r="B51" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="C51" s="7" t="s">
+      <c r="C51" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="18">
-      <c r="A52" s="8" t="s">
+      <c r="A52" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="B52" s="9" t="s">
+      <c r="B52" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="C52" s="7" t="s">
+      <c r="C52" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="18">
-      <c r="A53" s="8" t="s">
+      <c r="A53" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="B53" s="9" t="s">
+      <c r="B53" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="C53" s="7" t="s">
+      <c r="C53" s="1" t="s">
         <v>5</v>
       </c>
     </row>
@@ -2423,480 +2420,480 @@
       <c r="C54" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="18">
-      <c r="A55" s="8"/>
-      <c r="B55" s="10"/>
-      <c r="C55" s="7"/>
+      <c r="A55" s="7"/>
+      <c r="B55" s="9"/>
+      <c r="C55" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="18">
-      <c r="A56" s="8" t="s">
+      <c r="A56" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="B56" s="9" t="s">
+      <c r="B56" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="C56" s="7" t="s">
+      <c r="C56" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="18">
-      <c r="A57" s="8" t="s">
+      <c r="A57" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="B57" s="9" t="s">
+      <c r="B57" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="C57" s="7" t="s">
+      <c r="C57" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="18">
-      <c r="A58" s="8" t="s">
+      <c r="A58" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="B58" s="9" t="s">
+      <c r="B58" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="C58" s="7" t="s">
+      <c r="C58" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="18">
-      <c r="A59" s="8" t="s">
+      <c r="A59" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="B59" s="10" t="s">
+      <c r="B59" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="C59" s="7" t="s">
+      <c r="C59" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="18">
-      <c r="A60" s="8" t="s">
+      <c r="A60" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="B60" s="9" t="s">
+      <c r="B60" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="C60" s="7" t="s">
+      <c r="C60" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="18">
-      <c r="A61" s="8" t="s">
+      <c r="A61" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="B61" s="9" t="s">
+      <c r="B61" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="C61" s="7" t="s">
+      <c r="C61" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="18">
-      <c r="A62" s="8" t="s">
+      <c r="A62" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="B62" s="9" t="s">
+      <c r="B62" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="C62" s="7" t="s">
+      <c r="C62" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="18">
-      <c r="A63" s="8" t="s">
+      <c r="A63" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="B63" s="9" t="s">
+      <c r="B63" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="C63" s="7" t="s">
+      <c r="C63" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="64" customHeight="1" ht="18">
-      <c r="A64" s="8" t="s">
+      <c r="A64" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="B64" s="9" t="s">
+      <c r="B64" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="C64" s="7" t="s">
+      <c r="C64" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="65" customHeight="1" ht="18">
-      <c r="A65" s="8" t="s">
+      <c r="A65" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="B65" s="9" t="s">
+      <c r="B65" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="C65" s="7" t="s">
+      <c r="C65" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="66" customHeight="1" ht="18">
-      <c r="A66" s="8" t="s">
+      <c r="A66" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="B66" s="9" t="s">
+      <c r="B66" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="C66" s="7" t="s">
+      <c r="C66" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="67" customHeight="1" ht="18">
-      <c r="A67" s="8" t="s">
+      <c r="A67" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="B67" s="9" t="s">
+      <c r="B67" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="C67" s="7" t="s">
+      <c r="C67" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="68" customHeight="1" ht="18">
-      <c r="A68" s="8" t="s">
+      <c r="A68" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="B68" s="9" t="s">
+      <c r="B68" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="C68" s="7" t="s">
+      <c r="C68" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="69" customHeight="1" ht="18">
-      <c r="A69" s="8" t="s">
+      <c r="A69" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="B69" s="9" t="s">
+      <c r="B69" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="C69" s="7" t="s">
+      <c r="C69" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="70" customHeight="1" ht="18">
-      <c r="A70" s="8" t="s">
+      <c r="A70" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="B70" s="9" t="s">
+      <c r="B70" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="C70" s="7" t="s">
+      <c r="C70" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="71" customHeight="1" ht="18">
-      <c r="A71" s="8" t="s">
+      <c r="A71" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="B71" s="9" t="s">
+      <c r="B71" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="C71" s="7" t="s">
+      <c r="C71" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="72" customHeight="1" ht="18">
-      <c r="A72" s="8" t="s">
+      <c r="A72" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="B72" s="9" t="s">
+      <c r="B72" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="C72" s="7" t="s">
+      <c r="C72" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="73" customHeight="1" ht="18">
-      <c r="A73" s="8" t="s">
+      <c r="A73" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="B73" s="9" t="s">
+      <c r="B73" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="C73" s="7" t="s">
+      <c r="C73" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="74" customHeight="1" ht="18">
-      <c r="A74" s="8" t="s">
+      <c r="A74" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="B74" s="9" t="s">
+      <c r="B74" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="C74" s="7" t="s">
+      <c r="C74" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="75" customHeight="1" ht="18">
-      <c r="A75" s="8" t="s">
+      <c r="A75" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="B75" s="9" t="s">
+      <c r="B75" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="C75" s="7" t="s">
+      <c r="C75" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="76" customHeight="1" ht="18">
-      <c r="A76" s="8" t="s">
+      <c r="A76" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="B76" s="9" t="s">
+      <c r="B76" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="C76" s="7" t="s">
+      <c r="C76" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="77" customHeight="1" ht="18">
-      <c r="A77" s="8" t="s">
+      <c r="A77" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="B77" s="9" t="s">
+      <c r="B77" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="C77" s="7" t="s">
+      <c r="C77" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="78" customHeight="1" ht="18">
-      <c r="A78" s="8" t="s">
+      <c r="A78" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="B78" s="9" t="s">
+      <c r="B78" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="C78" s="7" t="s">
+      <c r="C78" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="79" customHeight="1" ht="18">
-      <c r="A79" s="8" t="s">
+      <c r="A79" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="B79" s="9" t="s">
+      <c r="B79" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="C79" s="7" t="s">
+      <c r="C79" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="80" customHeight="1" ht="18">
-      <c r="A80" s="8" t="s">
+      <c r="A80" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="B80" s="9" t="s">
+      <c r="B80" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="C80" s="7" t="s">
+      <c r="C80" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="81" customHeight="1" ht="18">
-      <c r="A81" s="8" t="s">
+      <c r="A81" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="B81" s="9" t="s">
+      <c r="B81" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="C81" s="7" t="s">
+      <c r="C81" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="82" customHeight="1" ht="18">
-      <c r="A82" s="8" t="s">
+      <c r="A82" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="B82" s="9" t="s">
+      <c r="B82" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="C82" s="7" t="s">
+      <c r="C82" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="83" customHeight="1" ht="18">
-      <c r="A83" s="8" t="s">
+      <c r="A83" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="B83" s="9" t="s">
+      <c r="B83" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="C83" s="7" t="s">
+      <c r="C83" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="84" customHeight="1" ht="18">
-      <c r="A84" s="8" t="s">
+      <c r="A84" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="B84" s="9" t="s">
+      <c r="B84" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="C84" s="7" t="s">
+      <c r="C84" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="85" customHeight="1" ht="18">
-      <c r="A85" s="8" t="s">
+      <c r="A85" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="B85" s="9" t="s">
+      <c r="B85" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="C85" s="7" t="s">
+      <c r="C85" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="86" customHeight="1" ht="18">
-      <c r="A86" s="8" t="s">
+      <c r="A86" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="B86" s="9" t="s">
+      <c r="B86" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="C86" s="7" t="s">
+      <c r="C86" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="87" customHeight="1" ht="18">
-      <c r="A87" s="8" t="s">
+      <c r="A87" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="B87" s="9" t="s">
+      <c r="B87" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="C87" s="7" t="s">
+      <c r="C87" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="88" customHeight="1" ht="18">
-      <c r="A88" s="8" t="s">
+      <c r="A88" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="B88" s="9" t="s">
+      <c r="B88" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="C88" s="7" t="s">
+      <c r="C88" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="89" customHeight="1" ht="18">
-      <c r="A89" s="8" t="s">
+      <c r="A89" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="B89" s="9" t="s">
+      <c r="B89" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="C89" s="7" t="s">
+      <c r="C89" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="90" customHeight="1" ht="18">
-      <c r="A90" s="8" t="s">
+      <c r="A90" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="B90" s="9" t="s">
+      <c r="B90" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="C90" s="7" t="s">
+      <c r="C90" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="91" customHeight="1" ht="18">
-      <c r="A91" s="8" t="s">
+      <c r="A91" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="B91" s="9" t="s">
+      <c r="B91" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="C91" s="7" t="s">
+      <c r="C91" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="92" customHeight="1" ht="18">
-      <c r="A92" s="8" t="s">
+      <c r="A92" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="B92" s="9" t="s">
+      <c r="B92" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="C92" s="7" t="s">
+      <c r="C92" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="93" customHeight="1" ht="18">
-      <c r="A93" s="8" t="s">
+      <c r="A93" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="B93" s="9" t="s">
+      <c r="B93" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="C93" s="7" t="s">
+      <c r="C93" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="94" customHeight="1" ht="18">
-      <c r="A94" s="8" t="s">
+      <c r="A94" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="B94" s="9" t="s">
+      <c r="B94" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="C94" s="7" t="s">
+      <c r="C94" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="95" customHeight="1" ht="18">
-      <c r="A95" s="8" t="s">
+      <c r="A95" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="B95" s="9" t="s">
+      <c r="B95" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="C95" s="7" t="s">
+      <c r="C95" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="96" customHeight="1" ht="18">
-      <c r="A96" s="8" t="s">
+      <c r="A96" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="B96" s="9" t="s">
+      <c r="B96" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="C96" s="7" t="s">
+      <c r="C96" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="97" customHeight="1" ht="18">
-      <c r="A97" s="8" t="s">
+      <c r="A97" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="B97" s="9" t="s">
+      <c r="B97" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="C97" s="7" t="s">
+      <c r="C97" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="98" customHeight="1" ht="18">
-      <c r="A98" s="8" t="s">
+      <c r="A98" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="B98" s="9" t="s">
+      <c r="B98" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="C98" s="7" t="s">
+      <c r="C98" s="1" t="s">
         <v>5</v>
       </c>
     </row>
@@ -2906,403 +2903,403 @@
       <c r="C99" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="100" customHeight="1" ht="18">
-      <c r="A100" s="8"/>
-      <c r="B100" s="10"/>
-      <c r="C100" s="7"/>
+      <c r="A100" s="7"/>
+      <c r="B100" s="9"/>
+      <c r="C100" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="101" customHeight="1" ht="18">
-      <c r="A101" s="8" t="s">
+      <c r="A101" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="B101" s="9" t="s">
+      <c r="B101" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="C101" s="7" t="s">
+      <c r="C101" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="102" customHeight="1" ht="18">
-      <c r="A102" s="8" t="s">
+      <c r="A102" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="B102" s="9" t="s">
+      <c r="B102" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="C102" s="7" t="s">
+      <c r="C102" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="103" customHeight="1" ht="18">
-      <c r="A103" s="8" t="s">
+      <c r="A103" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="B103" s="9" t="s">
+      <c r="B103" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="C103" s="7" t="s">
+      <c r="C103" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="104" customHeight="1" ht="18">
-      <c r="A104" s="8" t="s">
+      <c r="A104" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="B104" s="9" t="s">
+      <c r="B104" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="C104" s="7" t="s">
+      <c r="C104" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="105" customHeight="1" ht="18">
-      <c r="A105" s="8" t="s">
+      <c r="A105" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="B105" s="9" t="s">
+      <c r="B105" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="C105" s="7" t="s">
+      <c r="C105" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="106" customHeight="1" ht="18">
-      <c r="A106" s="8" t="s">
+      <c r="A106" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="B106" s="9" t="s">
+      <c r="B106" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="C106" s="7" t="s">
+      <c r="C106" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="107" customHeight="1" ht="18">
-      <c r="A107" s="8" t="s">
+      <c r="A107" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="B107" s="9" t="s">
+      <c r="B107" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="C107" s="7" t="s">
+      <c r="C107" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="108" customHeight="1" ht="18">
-      <c r="A108" s="8" t="s">
+      <c r="A108" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="B108" s="9" t="s">
+      <c r="B108" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="C108" s="7" t="s">
+      <c r="C108" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="109" customHeight="1" ht="18">
-      <c r="A109" s="8" t="s">
+      <c r="A109" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="B109" s="9" t="s">
+      <c r="B109" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="C109" s="7" t="s">
+      <c r="C109" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="110" customHeight="1" ht="18">
-      <c r="A110" s="8" t="s">
+      <c r="A110" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="B110" s="9" t="s">
+      <c r="B110" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="C110" s="7" t="s">
+      <c r="C110" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="111" customHeight="1" ht="18">
-      <c r="A111" s="8" t="s">
+      <c r="A111" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="B111" s="9" t="s">
+      <c r="B111" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="C111" s="7" t="s">
+      <c r="C111" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="112" customHeight="1" ht="18">
-      <c r="A112" s="8" t="s">
+      <c r="A112" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="B112" s="9" t="s">
+      <c r="B112" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="C112" s="7" t="s">
+      <c r="C112" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="113" customHeight="1" ht="18">
-      <c r="A113" s="8" t="s">
+      <c r="A113" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="B113" s="9" t="s">
+      <c r="B113" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="C113" s="7" t="s">
+      <c r="C113" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="114" customHeight="1" ht="18">
-      <c r="A114" s="8" t="s">
+      <c r="A114" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="B114" s="9" t="s">
+      <c r="B114" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="C114" s="7" t="s">
+      <c r="C114" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="115" customHeight="1" ht="18">
-      <c r="A115" s="8" t="s">
+      <c r="A115" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="B115" s="9" t="s">
+      <c r="B115" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="C115" s="7" t="s">
+      <c r="C115" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="116" customHeight="1" ht="18">
-      <c r="A116" s="8" t="s">
+      <c r="A116" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="B116" s="9" t="s">
+      <c r="B116" s="8" t="s">
         <v>115</v>
       </c>
-      <c r="C116" s="7" t="s">
+      <c r="C116" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="117" customHeight="1" ht="18">
-      <c r="A117" s="8" t="s">
+      <c r="A117" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="B117" s="9" t="s">
+      <c r="B117" s="8" t="s">
         <v>116</v>
       </c>
-      <c r="C117" s="7" t="s">
+      <c r="C117" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="118" customHeight="1" ht="18">
-      <c r="A118" s="8" t="s">
+      <c r="A118" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="B118" s="9" t="s">
+      <c r="B118" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="C118" s="7" t="s">
+      <c r="C118" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="119" customHeight="1" ht="18">
-      <c r="A119" s="8" t="s">
+      <c r="A119" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="B119" s="9" t="s">
+      <c r="B119" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="C119" s="7" t="s">
+      <c r="C119" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="120" customHeight="1" ht="18">
-      <c r="A120" s="8" t="s">
+      <c r="A120" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="B120" s="9" t="s">
+      <c r="B120" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="C120" s="7" t="s">
+      <c r="C120" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="121" customHeight="1" ht="18">
-      <c r="A121" s="8" t="s">
+      <c r="A121" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="B121" s="9" t="s">
+      <c r="B121" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="C121" s="7" t="s">
+      <c r="C121" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="122" customHeight="1" ht="18">
-      <c r="A122" s="8" t="s">
+      <c r="A122" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="B122" s="9" t="s">
+      <c r="B122" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="C122" s="7" t="s">
+      <c r="C122" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="123" customHeight="1" ht="18">
-      <c r="A123" s="8" t="s">
+      <c r="A123" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="B123" s="9" t="s">
+      <c r="B123" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="C123" s="7" t="s">
+      <c r="C123" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="124" customHeight="1" ht="18">
-      <c r="A124" s="8" t="s">
+      <c r="A124" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="B124" s="9" t="s">
+      <c r="B124" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="C124" s="7" t="s">
+      <c r="C124" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="125" customHeight="1" ht="18">
-      <c r="A125" s="8" t="s">
+      <c r="A125" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="B125" s="9" t="s">
+      <c r="B125" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="C125" s="7" t="s">
+      <c r="C125" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="126" customHeight="1" ht="18">
-      <c r="A126" s="8" t="s">
+      <c r="A126" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="B126" s="9" t="s">
+      <c r="B126" s="8" t="s">
         <v>125</v>
       </c>
-      <c r="C126" s="7" t="s">
+      <c r="C126" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="127" customHeight="1" ht="18">
-      <c r="A127" s="8" t="s">
+      <c r="A127" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="B127" s="9" t="s">
+      <c r="B127" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="C127" s="7" t="s">
+      <c r="C127" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="128" customHeight="1" ht="18">
-      <c r="A128" s="8" t="s">
+      <c r="A128" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="B128" s="9" t="s">
+      <c r="B128" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="C128" s="7" t="s">
+      <c r="C128" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="129" customHeight="1" ht="18">
-      <c r="A129" s="8" t="s">
+      <c r="A129" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="B129" s="9" t="s">
+      <c r="B129" s="8" t="s">
         <v>128</v>
       </c>
-      <c r="C129" s="7" t="s">
+      <c r="C129" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="130" customHeight="1" ht="18">
-      <c r="A130" s="8" t="s">
+      <c r="A130" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="B130" s="9" t="s">
+      <c r="B130" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="C130" s="7" t="s">
+      <c r="C130" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="131" customHeight="1" ht="18">
-      <c r="A131" s="8" t="s">
+      <c r="A131" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="B131" s="9" t="s">
+      <c r="B131" s="8" t="s">
         <v>130</v>
       </c>
-      <c r="C131" s="7" t="s">
+      <c r="C131" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="132" customHeight="1" ht="18">
-      <c r="A132" s="8" t="s">
+      <c r="A132" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="B132" s="9" t="s">
+      <c r="B132" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="C132" s="7" t="s">
+      <c r="C132" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="133" customHeight="1" ht="18">
-      <c r="A133" s="8" t="s">
+      <c r="A133" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="B133" s="9" t="s">
+      <c r="B133" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="C133" s="7" t="s">
+      <c r="C133" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="134" customHeight="1" ht="18">
-      <c r="A134" s="8" t="s">
+      <c r="A134" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="B134" s="9" t="s">
+      <c r="B134" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="C134" s="7" t="s">
+      <c r="C134" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="135" customHeight="1" ht="18">
-      <c r="A135" s="8" t="s">
+      <c r="A135" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="B135" s="9" t="s">
+      <c r="B135" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="C135" s="7" t="s">
+      <c r="C135" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="136" customHeight="1" ht="18">
-      <c r="A136" s="8" t="s">
+      <c r="A136" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="B136" s="9" t="s">
+      <c r="B136" s="8" t="s">
         <v>135</v>
       </c>
-      <c r="C136" s="7" t="s">
+      <c r="C136" s="1" t="s">
         <v>5</v>
       </c>
     </row>
@@ -3313,402 +3310,402 @@
     </row>
     <row x14ac:dyDescent="0.25" r="138" customHeight="1" ht="18">
       <c r="A138" s="1"/>
-      <c r="B138" s="10"/>
-      <c r="C138" s="7"/>
+      <c r="B138" s="9"/>
+      <c r="C138" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="139" customHeight="1" ht="18">
-      <c r="A139" s="8" t="s">
+      <c r="A139" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="B139" s="9" t="s">
+      <c r="B139" s="8" t="s">
         <v>137</v>
       </c>
-      <c r="C139" s="7" t="s">
+      <c r="C139" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="140" customHeight="1" ht="18">
-      <c r="A140" s="8" t="s">
+      <c r="A140" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="B140" s="9" t="s">
+      <c r="B140" s="8" t="s">
         <v>138</v>
       </c>
-      <c r="C140" s="7" t="s">
+      <c r="C140" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="141" customHeight="1" ht="18">
-      <c r="A141" s="8" t="s">
+      <c r="A141" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="B141" s="9" t="s">
+      <c r="B141" s="8" t="s">
         <v>139</v>
       </c>
-      <c r="C141" s="7" t="s">
+      <c r="C141" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="142" customHeight="1" ht="18">
-      <c r="A142" s="8" t="s">
+      <c r="A142" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="B142" s="9" t="s">
+      <c r="B142" s="8" t="s">
         <v>140</v>
       </c>
-      <c r="C142" s="7" t="s">
+      <c r="C142" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="143" customHeight="1" ht="18">
-      <c r="A143" s="8" t="s">
+      <c r="A143" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="B143" s="9" t="s">
+      <c r="B143" s="8" t="s">
         <v>141</v>
       </c>
-      <c r="C143" s="7" t="s">
+      <c r="C143" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="144" customHeight="1" ht="18">
-      <c r="A144" s="8" t="s">
+      <c r="A144" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="B144" s="9" t="s">
+      <c r="B144" s="8" t="s">
         <v>142</v>
       </c>
-      <c r="C144" s="7" t="s">
+      <c r="C144" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="145" customHeight="1" ht="18">
-      <c r="A145" s="8" t="s">
+      <c r="A145" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="B145" s="9" t="s">
+      <c r="B145" s="8" t="s">
         <v>143</v>
       </c>
-      <c r="C145" s="7" t="s">
+      <c r="C145" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="146" customHeight="1" ht="18">
-      <c r="A146" s="8" t="s">
+      <c r="A146" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="B146" s="9" t="s">
+      <c r="B146" s="8" t="s">
         <v>144</v>
       </c>
-      <c r="C146" s="7" t="s">
+      <c r="C146" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="147" customHeight="1" ht="18">
-      <c r="A147" s="8" t="s">
+      <c r="A147" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="B147" s="9" t="s">
+      <c r="B147" s="8" t="s">
         <v>145</v>
       </c>
-      <c r="C147" s="7" t="s">
+      <c r="C147" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="148" customHeight="1" ht="18">
-      <c r="A148" s="8" t="s">
+      <c r="A148" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="B148" s="9" t="s">
+      <c r="B148" s="8" t="s">
         <v>146</v>
       </c>
-      <c r="C148" s="7" t="s">
+      <c r="C148" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="149" customHeight="1" ht="18">
-      <c r="A149" s="8" t="s">
+      <c r="A149" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="B149" s="9" t="s">
+      <c r="B149" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="C149" s="7" t="s">
+      <c r="C149" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="150" customHeight="1" ht="18">
-      <c r="A150" s="8" t="s">
+      <c r="A150" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="B150" s="9" t="s">
+      <c r="B150" s="8" t="s">
         <v>148</v>
       </c>
-      <c r="C150" s="7" t="s">
+      <c r="C150" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="151" customHeight="1" ht="18">
-      <c r="A151" s="8" t="s">
+      <c r="A151" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="B151" s="9" t="s">
+      <c r="B151" s="8" t="s">
         <v>149</v>
       </c>
-      <c r="C151" s="7" t="s">
+      <c r="C151" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="152" customHeight="1" ht="18">
-      <c r="A152" s="8" t="s">
+      <c r="A152" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="B152" s="9" t="s">
+      <c r="B152" s="8" t="s">
         <v>150</v>
       </c>
-      <c r="C152" s="7" t="s">
+      <c r="C152" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="153" customHeight="1" ht="18">
-      <c r="A153" s="8" t="s">
+      <c r="A153" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="B153" s="9" t="s">
+      <c r="B153" s="8" t="s">
         <v>151</v>
       </c>
-      <c r="C153" s="7" t="s">
+      <c r="C153" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="154" customHeight="1" ht="18">
-      <c r="A154" s="8" t="s">
+      <c r="A154" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="B154" s="9" t="s">
+      <c r="B154" s="8" t="s">
         <v>152</v>
       </c>
-      <c r="C154" s="7" t="s">
+      <c r="C154" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="155" customHeight="1" ht="18">
-      <c r="A155" s="8" t="s">
+      <c r="A155" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="B155" s="9" t="s">
+      <c r="B155" s="8" t="s">
         <v>153</v>
       </c>
-      <c r="C155" s="7" t="s">
+      <c r="C155" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="156" customHeight="1" ht="18">
-      <c r="A156" s="8" t="s">
+      <c r="A156" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="B156" s="9" t="s">
+      <c r="B156" s="8" t="s">
         <v>154</v>
       </c>
-      <c r="C156" s="7" t="s">
+      <c r="C156" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="157" customHeight="1" ht="18">
-      <c r="A157" s="8" t="s">
+      <c r="A157" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="B157" s="9" t="s">
+      <c r="B157" s="8" t="s">
         <v>155</v>
       </c>
-      <c r="C157" s="7" t="s">
+      <c r="C157" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="158" customHeight="1" ht="18">
-      <c r="A158" s="8" t="s">
+      <c r="A158" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="B158" s="9" t="s">
+      <c r="B158" s="8" t="s">
         <v>156</v>
       </c>
-      <c r="C158" s="7" t="s">
+      <c r="C158" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="159" customHeight="1" ht="18">
-      <c r="A159" s="8" t="s">
+      <c r="A159" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="B159" s="9" t="s">
+      <c r="B159" s="8" t="s">
         <v>157</v>
       </c>
-      <c r="C159" s="7" t="s">
+      <c r="C159" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="160" customHeight="1" ht="18">
-      <c r="A160" s="8" t="s">
+      <c r="A160" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="B160" s="9" t="s">
+      <c r="B160" s="8" t="s">
         <v>158</v>
       </c>
-      <c r="C160" s="7" t="s">
+      <c r="C160" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="161" customHeight="1" ht="18">
-      <c r="A161" s="8" t="s">
+      <c r="A161" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="B161" s="9" t="s">
+      <c r="B161" s="8" t="s">
         <v>159</v>
       </c>
-      <c r="C161" s="7" t="s">
+      <c r="C161" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="162" customHeight="1" ht="18">
-      <c r="A162" s="8" t="s">
+      <c r="A162" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="B162" s="9" t="s">
+      <c r="B162" s="8" t="s">
         <v>160</v>
       </c>
-      <c r="C162" s="7" t="s">
+      <c r="C162" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="163" customHeight="1" ht="18">
-      <c r="A163" s="8" t="s">
+      <c r="A163" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="B163" s="9" t="s">
+      <c r="B163" s="8" t="s">
         <v>161</v>
       </c>
-      <c r="C163" s="7" t="s">
+      <c r="C163" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="164" customHeight="1" ht="18">
-      <c r="A164" s="8" t="s">
+      <c r="A164" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="B164" s="10" t="s">
+      <c r="B164" s="9" t="s">
         <v>162</v>
       </c>
-      <c r="C164" s="7" t="s">
+      <c r="C164" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="165" customHeight="1" ht="18">
-      <c r="A165" s="8" t="s">
+      <c r="A165" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="B165" s="10" t="s">
+      <c r="B165" s="9" t="s">
         <v>163</v>
       </c>
-      <c r="C165" s="7" t="s">
+      <c r="C165" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="166" customHeight="1" ht="18">
-      <c r="A166" s="8" t="s">
+      <c r="A166" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="B166" s="9" t="s">
+      <c r="B166" s="8" t="s">
         <v>164</v>
       </c>
-      <c r="C166" s="7" t="s">
+      <c r="C166" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="167" customHeight="1" ht="18">
-      <c r="A167" s="8" t="s">
+      <c r="A167" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="B167" s="9" t="s">
+      <c r="B167" s="8" t="s">
         <v>165</v>
       </c>
-      <c r="C167" s="7" t="s">
+      <c r="C167" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="168" customHeight="1" ht="18">
-      <c r="A168" s="8" t="s">
+      <c r="A168" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="B168" s="9" t="s">
+      <c r="B168" s="8" t="s">
         <v>166</v>
       </c>
-      <c r="C168" s="7" t="s">
+      <c r="C168" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="169" customHeight="1" ht="18">
-      <c r="A169" s="8" t="s">
+      <c r="A169" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="B169" s="9" t="s">
+      <c r="B169" s="8" t="s">
         <v>167</v>
       </c>
-      <c r="C169" s="7" t="s">
+      <c r="C169" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="170" customHeight="1" ht="18">
-      <c r="A170" s="8" t="s">
+      <c r="A170" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="B170" s="9" t="s">
+      <c r="B170" s="8" t="s">
         <v>168</v>
       </c>
-      <c r="C170" s="7" t="s">
+      <c r="C170" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="171" customHeight="1" ht="18">
-      <c r="A171" s="8" t="s">
+      <c r="A171" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="B171" s="9" t="s">
+      <c r="B171" s="8" t="s">
         <v>169</v>
       </c>
-      <c r="C171" s="7" t="s">
+      <c r="C171" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="172" customHeight="1" ht="18">
-      <c r="A172" s="8" t="s">
+      <c r="A172" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="B172" s="9" t="s">
+      <c r="B172" s="8" t="s">
         <v>170</v>
       </c>
-      <c r="C172" s="7" t="s">
+      <c r="C172" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="173" customHeight="1" ht="18">
-      <c r="A173" s="8" t="s">
+      <c r="A173" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="B173" s="9" t="s">
+      <c r="B173" s="8" t="s">
         <v>171</v>
       </c>
-      <c r="C173" s="7" t="s">
+      <c r="C173" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="174" customHeight="1" ht="18">
-      <c r="A174" s="8" t="s">
+      <c r="A174" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="B174" s="9" t="s">
+      <c r="B174" s="8" t="s">
         <v>172</v>
       </c>
-      <c r="C174" s="7" t="s">
+      <c r="C174" s="1" t="s">
         <v>5</v>
       </c>
     </row>
@@ -3719,3253 +3716,3253 @@
     </row>
     <row x14ac:dyDescent="0.25" r="176" customHeight="1" ht="18">
       <c r="A176" s="1"/>
-      <c r="B176" s="10"/>
-      <c r="C176" s="7"/>
+      <c r="B176" s="9"/>
+      <c r="C176" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="177" customHeight="1" ht="18">
-      <c r="A177" s="8" t="s">
+      <c r="A177" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="B177" s="9" t="s">
+      <c r="B177" s="8" t="s">
         <v>174</v>
       </c>
-      <c r="C177" s="7" t="s">
+      <c r="C177" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="178" customHeight="1" ht="18">
-      <c r="A178" s="8" t="s">
+      <c r="A178" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="B178" s="9" t="s">
+      <c r="B178" s="8" t="s">
         <v>175</v>
       </c>
-      <c r="C178" s="7" t="s">
+      <c r="C178" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="179" customHeight="1" ht="18">
-      <c r="A179" s="8" t="s">
+      <c r="A179" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="B179" s="9" t="s">
+      <c r="B179" s="8" t="s">
         <v>176</v>
       </c>
-      <c r="C179" s="7" t="s">
+      <c r="C179" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="180" customHeight="1" ht="18">
-      <c r="A180" s="8" t="s">
+      <c r="A180" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="B180" s="9" t="s">
+      <c r="B180" s="8" t="s">
         <v>177</v>
       </c>
-      <c r="C180" s="7" t="s">
+      <c r="C180" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="181" customHeight="1" ht="18">
-      <c r="A181" s="8" t="s">
+      <c r="A181" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="B181" s="9" t="s">
+      <c r="B181" s="8" t="s">
         <v>178</v>
       </c>
-      <c r="C181" s="7" t="s">
+      <c r="C181" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="182" customHeight="1" ht="18">
-      <c r="A182" s="8" t="s">
+      <c r="A182" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="B182" s="9" t="s">
+      <c r="B182" s="8" t="s">
         <v>179</v>
       </c>
-      <c r="C182" s="7" t="s">
+      <c r="C182" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="183" customHeight="1" ht="18">
-      <c r="A183" s="8" t="s">
+      <c r="A183" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="B183" s="9" t="s">
+      <c r="B183" s="8" t="s">
         <v>180</v>
       </c>
-      <c r="C183" s="7" t="s">
+      <c r="C183" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="184" customHeight="1" ht="18">
-      <c r="A184" s="8" t="s">
+      <c r="A184" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="B184" s="9" t="s">
+      <c r="B184" s="8" t="s">
         <v>181</v>
       </c>
-      <c r="C184" s="7" t="s">
+      <c r="C184" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="185" customHeight="1" ht="18">
-      <c r="A185" s="8" t="s">
+      <c r="A185" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="B185" s="9" t="s">
+      <c r="B185" s="8" t="s">
         <v>182</v>
       </c>
-      <c r="C185" s="7" t="s">
+      <c r="C185" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="186" customHeight="1" ht="18">
-      <c r="A186" s="8" t="s">
+      <c r="A186" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="B186" s="9" t="s">
+      <c r="B186" s="8" t="s">
         <v>183</v>
       </c>
-      <c r="C186" s="7" t="s">
+      <c r="C186" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="187" customHeight="1" ht="18">
-      <c r="A187" s="8" t="s">
+      <c r="A187" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="B187" s="9" t="s">
+      <c r="B187" s="8" t="s">
         <v>184</v>
       </c>
-      <c r="C187" s="7" t="s">
+      <c r="C187" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="188" customHeight="1" ht="18">
-      <c r="A188" s="8" t="s">
+      <c r="A188" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="B188" s="9" t="s">
+      <c r="B188" s="8" t="s">
         <v>185</v>
       </c>
-      <c r="C188" s="7" t="s">
+      <c r="C188" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="189" customHeight="1" ht="18">
-      <c r="A189" s="8" t="s">
+      <c r="A189" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="B189" s="9" t="s">
+      <c r="B189" s="8" t="s">
         <v>186</v>
       </c>
-      <c r="C189" s="7" t="s">
+      <c r="C189" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="190" customHeight="1" ht="18">
-      <c r="A190" s="8" t="s">
+      <c r="A190" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="B190" s="9" t="s">
+      <c r="B190" s="8" t="s">
         <v>187</v>
       </c>
-      <c r="C190" s="7" t="s">
+      <c r="C190" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="191" customHeight="1" ht="18">
-      <c r="A191" s="8" t="s">
+      <c r="A191" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="B191" s="9" t="s">
+      <c r="B191" s="8" t="s">
         <v>188</v>
       </c>
-      <c r="C191" s="7" t="s">
+      <c r="C191" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="192" customHeight="1" ht="18">
-      <c r="A192" s="8" t="s">
+      <c r="A192" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="B192" s="9" t="s">
+      <c r="B192" s="8" t="s">
         <v>189</v>
       </c>
-      <c r="C192" s="7" t="s">
+      <c r="C192" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="193" customHeight="1" ht="18">
-      <c r="A193" s="8" t="s">
+      <c r="A193" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="B193" s="9" t="s">
+      <c r="B193" s="8" t="s">
         <v>190</v>
       </c>
-      <c r="C193" s="7" t="s">
+      <c r="C193" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="194" customHeight="1" ht="18">
-      <c r="A194" s="8" t="s">
+      <c r="A194" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="B194" s="9" t="s">
+      <c r="B194" s="8" t="s">
         <v>191</v>
       </c>
-      <c r="C194" s="7" t="s">
+      <c r="C194" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="195" customHeight="1" ht="18">
-      <c r="A195" s="8" t="s">
+      <c r="A195" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="B195" s="9" t="s">
+      <c r="B195" s="8" t="s">
         <v>192</v>
       </c>
-      <c r="C195" s="7" t="s">
+      <c r="C195" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="196" customHeight="1" ht="18">
-      <c r="A196" s="8" t="s">
+      <c r="A196" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="B196" s="9" t="s">
+      <c r="B196" s="8" t="s">
         <v>193</v>
       </c>
-      <c r="C196" s="7" t="s">
+      <c r="C196" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="197" customHeight="1" ht="18">
-      <c r="A197" s="8" t="s">
+      <c r="A197" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="B197" s="9" t="s">
+      <c r="B197" s="8" t="s">
         <v>194</v>
       </c>
-      <c r="C197" s="7" t="s">
+      <c r="C197" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="198" customHeight="1" ht="18">
-      <c r="A198" s="8" t="s">
+      <c r="A198" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="B198" s="9" t="s">
+      <c r="B198" s="8" t="s">
         <v>195</v>
       </c>
-      <c r="C198" s="7" t="s">
+      <c r="C198" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="199" customHeight="1" ht="18">
-      <c r="A199" s="8" t="s">
+      <c r="A199" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="B199" s="9" t="s">
+      <c r="B199" s="8" t="s">
         <v>196</v>
       </c>
-      <c r="C199" s="7" t="s">
+      <c r="C199" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="200" customHeight="1" ht="18">
-      <c r="A200" s="8" t="s">
+      <c r="A200" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="B200" s="9" t="s">
+      <c r="B200" s="8" t="s">
         <v>197</v>
       </c>
-      <c r="C200" s="7" t="s">
+      <c r="C200" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="201" customHeight="1" ht="18">
-      <c r="A201" s="8" t="s">
+      <c r="A201" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="B201" s="9" t="s">
+      <c r="B201" s="8" t="s">
         <v>198</v>
       </c>
-      <c r="C201" s="7" t="s">
+      <c r="C201" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="202" customHeight="1" ht="18">
-      <c r="A202" s="8" t="s">
+      <c r="A202" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="B202" s="9" t="s">
+      <c r="B202" s="8" t="s">
         <v>199</v>
       </c>
-      <c r="C202" s="7" t="s">
+      <c r="C202" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="203" customHeight="1" ht="18">
-      <c r="A203" s="8" t="s">
+      <c r="A203" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="B203" s="9" t="s">
+      <c r="B203" s="8" t="s">
         <v>200</v>
       </c>
-      <c r="C203" s="7" t="s">
+      <c r="C203" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="204" customHeight="1" ht="18">
-      <c r="A204" s="8" t="s">
+      <c r="A204" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="B204" s="9" t="s">
+      <c r="B204" s="8" t="s">
         <v>201</v>
       </c>
-      <c r="C204" s="7" t="s">
+      <c r="C204" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="205" customHeight="1" ht="18">
-      <c r="A205" s="8" t="s">
+      <c r="A205" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="B205" s="9" t="s">
+      <c r="B205" s="8" t="s">
         <v>202</v>
       </c>
-      <c r="C205" s="7" t="s">
+      <c r="C205" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="206" customHeight="1" ht="18">
-      <c r="A206" s="8" t="s">
+      <c r="A206" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="B206" s="9" t="s">
+      <c r="B206" s="8" t="s">
         <v>203</v>
       </c>
-      <c r="C206" s="7" t="s">
+      <c r="C206" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="207" customHeight="1" ht="18">
-      <c r="A207" s="8" t="s">
+      <c r="A207" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="B207" s="9" t="s">
+      <c r="B207" s="8" t="s">
         <v>204</v>
       </c>
-      <c r="C207" s="7" t="s">
+      <c r="C207" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="208" customHeight="1" ht="18">
-      <c r="A208" s="8" t="s">
+      <c r="A208" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="B208" s="9" t="s">
+      <c r="B208" s="8" t="s">
         <v>205</v>
       </c>
-      <c r="C208" s="7" t="s">
+      <c r="C208" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="209" customHeight="1" ht="18">
-      <c r="A209" s="8" t="s">
+      <c r="A209" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="B209" s="9" t="s">
+      <c r="B209" s="8" t="s">
         <v>206</v>
       </c>
-      <c r="C209" s="7" t="s">
+      <c r="C209" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="210" customHeight="1" ht="18">
-      <c r="A210" s="8" t="s">
+      <c r="A210" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="B210" s="9" t="s">
+      <c r="B210" s="8" t="s">
         <v>207</v>
       </c>
-      <c r="C210" s="7" t="s">
+      <c r="C210" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="211" customHeight="1" ht="18">
-      <c r="A211" s="8" t="s">
+      <c r="A211" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="B211" s="9" t="s">
+      <c r="B211" s="8" t="s">
         <v>208</v>
       </c>
-      <c r="C211" s="7" t="s">
+      <c r="C211" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="212" customHeight="1" ht="18">
-      <c r="A212" s="8"/>
-      <c r="B212" s="10"/>
-      <c r="C212" s="7"/>
+      <c r="A212" s="7"/>
+      <c r="B212" s="9"/>
+      <c r="C212" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="213" customHeight="1" ht="18">
-      <c r="A213" s="8"/>
-      <c r="B213" s="10"/>
-      <c r="C213" s="7"/>
+      <c r="A213" s="7"/>
+      <c r="B213" s="9"/>
+      <c r="C213" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="214" customHeight="1" ht="18">
-      <c r="A214" s="8" t="s">
+      <c r="A214" s="7" t="s">
         <v>209</v>
       </c>
-      <c r="B214" s="9" t="s">
+      <c r="B214" s="8" t="s">
         <v>210</v>
       </c>
-      <c r="C214" s="7" t="s">
+      <c r="C214" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="215" customHeight="1" ht="18">
-      <c r="A215" s="8" t="s">
+      <c r="A215" s="7" t="s">
         <v>209</v>
       </c>
-      <c r="B215" s="9" t="s">
+      <c r="B215" s="8" t="s">
         <v>211</v>
       </c>
-      <c r="C215" s="7" t="s">
+      <c r="C215" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="216" customHeight="1" ht="18">
-      <c r="A216" s="8" t="s">
+      <c r="A216" s="7" t="s">
         <v>209</v>
       </c>
-      <c r="B216" s="9" t="s">
+      <c r="B216" s="8" t="s">
         <v>212</v>
       </c>
-      <c r="C216" s="7" t="s">
+      <c r="C216" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="217" customHeight="1" ht="18">
-      <c r="A217" s="8" t="s">
+      <c r="A217" s="7" t="s">
         <v>209</v>
       </c>
-      <c r="B217" s="9" t="s">
+      <c r="B217" s="8" t="s">
         <v>213</v>
       </c>
-      <c r="C217" s="7" t="s">
+      <c r="C217" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="218" customHeight="1" ht="18">
-      <c r="A218" s="8" t="s">
+      <c r="A218" s="7" t="s">
         <v>209</v>
       </c>
-      <c r="B218" s="9" t="s">
+      <c r="B218" s="8" t="s">
         <v>214</v>
       </c>
-      <c r="C218" s="7" t="s">
+      <c r="C218" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="219" customHeight="1" ht="18">
-      <c r="A219" s="8" t="s">
+      <c r="A219" s="7" t="s">
         <v>209</v>
       </c>
-      <c r="B219" s="9" t="s">
+      <c r="B219" s="8" t="s">
         <v>215</v>
       </c>
-      <c r="C219" s="7" t="s">
+      <c r="C219" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="220" customHeight="1" ht="18">
-      <c r="A220" s="8" t="s">
+      <c r="A220" s="7" t="s">
         <v>209</v>
       </c>
-      <c r="B220" s="9" t="s">
+      <c r="B220" s="8" t="s">
         <v>216</v>
       </c>
-      <c r="C220" s="7" t="s">
+      <c r="C220" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="221" customHeight="1" ht="18">
-      <c r="A221" s="8" t="s">
+      <c r="A221" s="7" t="s">
         <v>209</v>
       </c>
-      <c r="B221" s="9" t="s">
+      <c r="B221" s="8" t="s">
         <v>217</v>
       </c>
-      <c r="C221" s="7" t="s">
+      <c r="C221" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="222" customHeight="1" ht="18">
-      <c r="A222" s="8" t="s">
+      <c r="A222" s="7" t="s">
         <v>209</v>
       </c>
-      <c r="B222" s="9" t="s">
+      <c r="B222" s="8" t="s">
         <v>218</v>
       </c>
-      <c r="C222" s="7" t="s">
+      <c r="C222" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="223" customHeight="1" ht="18">
-      <c r="A223" s="8" t="s">
+      <c r="A223" s="7" t="s">
         <v>209</v>
       </c>
-      <c r="B223" s="9" t="s">
+      <c r="B223" s="8" t="s">
         <v>219</v>
       </c>
-      <c r="C223" s="7" t="s">
+      <c r="C223" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="224" customHeight="1" ht="18">
-      <c r="A224" s="8" t="s">
+      <c r="A224" s="7" t="s">
         <v>209</v>
       </c>
-      <c r="B224" s="9" t="s">
+      <c r="B224" s="8" t="s">
         <v>220</v>
       </c>
-      <c r="C224" s="7" t="s">
+      <c r="C224" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="225" customHeight="1" ht="18">
-      <c r="A225" s="8" t="s">
+      <c r="A225" s="7" t="s">
         <v>209</v>
       </c>
-      <c r="B225" s="9" t="s">
+      <c r="B225" s="8" t="s">
         <v>221</v>
       </c>
-      <c r="C225" s="7" t="s">
+      <c r="C225" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="226" customHeight="1" ht="18">
-      <c r="A226" s="8" t="s">
+      <c r="A226" s="7" t="s">
         <v>209</v>
       </c>
-      <c r="B226" s="9" t="s">
+      <c r="B226" s="8" t="s">
         <v>222</v>
       </c>
-      <c r="C226" s="7" t="s">
+      <c r="C226" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="227" customHeight="1" ht="18">
-      <c r="A227" s="8" t="s">
+      <c r="A227" s="7" t="s">
         <v>209</v>
       </c>
-      <c r="B227" s="9" t="s">
+      <c r="B227" s="8" t="s">
         <v>223</v>
       </c>
-      <c r="C227" s="7" t="s">
+      <c r="C227" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="228" customHeight="1" ht="18">
-      <c r="A228" s="8" t="s">
+      <c r="A228" s="7" t="s">
         <v>209</v>
       </c>
-      <c r="B228" s="9" t="s">
+      <c r="B228" s="8" t="s">
         <v>224</v>
       </c>
-      <c r="C228" s="7" t="s">
+      <c r="C228" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="229" customHeight="1" ht="18">
-      <c r="A229" s="8" t="s">
+      <c r="A229" s="7" t="s">
         <v>209</v>
       </c>
-      <c r="B229" s="9" t="s">
+      <c r="B229" s="8" t="s">
         <v>225</v>
       </c>
-      <c r="C229" s="7" t="s">
+      <c r="C229" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="230" customHeight="1" ht="18">
-      <c r="A230" s="8" t="s">
+      <c r="A230" s="7" t="s">
         <v>209</v>
       </c>
-      <c r="B230" s="9" t="s">
+      <c r="B230" s="8" t="s">
         <v>226</v>
       </c>
-      <c r="C230" s="7" t="s">
+      <c r="C230" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="231" customHeight="1" ht="18">
-      <c r="A231" s="8" t="s">
+      <c r="A231" s="7" t="s">
         <v>209</v>
       </c>
-      <c r="B231" s="9" t="s">
+      <c r="B231" s="8" t="s">
         <v>227</v>
       </c>
-      <c r="C231" s="7" t="s">
+      <c r="C231" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="232" customHeight="1" ht="18">
-      <c r="A232" s="8" t="s">
+      <c r="A232" s="7" t="s">
         <v>209</v>
       </c>
-      <c r="B232" s="9" t="s">
+      <c r="B232" s="8" t="s">
         <v>228</v>
       </c>
-      <c r="C232" s="7" t="s">
+      <c r="C232" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="233" customHeight="1" ht="18">
-      <c r="A233" s="8" t="s">
+      <c r="A233" s="7" t="s">
         <v>209</v>
       </c>
-      <c r="B233" s="9" t="s">
+      <c r="B233" s="8" t="s">
         <v>229</v>
       </c>
-      <c r="C233" s="7" t="s">
+      <c r="C233" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="234" customHeight="1" ht="18">
-      <c r="A234" s="8" t="s">
+      <c r="A234" s="7" t="s">
         <v>209</v>
       </c>
-      <c r="B234" s="9" t="s">
+      <c r="B234" s="8" t="s">
         <v>230</v>
       </c>
-      <c r="C234" s="7" t="s">
+      <c r="C234" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="235" customHeight="1" ht="18">
-      <c r="A235" s="8" t="s">
+      <c r="A235" s="7" t="s">
         <v>209</v>
       </c>
-      <c r="B235" s="9" t="s">
+      <c r="B235" s="8" t="s">
         <v>231</v>
       </c>
-      <c r="C235" s="7" t="s">
+      <c r="C235" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="236" customHeight="1" ht="18">
       <c r="A236" s="1"/>
-      <c r="B236" s="10"/>
-      <c r="C236" s="7"/>
+      <c r="B236" s="9"/>
+      <c r="C236" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="237" customHeight="1" ht="18">
       <c r="A237" s="1"/>
-      <c r="B237" s="10"/>
-      <c r="C237" s="7"/>
+      <c r="B237" s="9"/>
+      <c r="C237" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="238" customHeight="1" ht="18">
-      <c r="A238" s="8" t="s">
+      <c r="A238" s="7" t="s">
         <v>232</v>
       </c>
-      <c r="B238" s="9" t="s">
+      <c r="B238" s="8" t="s">
         <v>233</v>
       </c>
-      <c r="C238" s="7" t="s">
+      <c r="C238" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="239" customHeight="1" ht="18">
-      <c r="A239" s="8" t="s">
+      <c r="A239" s="7" t="s">
         <v>232</v>
       </c>
-      <c r="B239" s="9" t="s">
+      <c r="B239" s="8" t="s">
         <v>234</v>
       </c>
-      <c r="C239" s="7" t="s">
+      <c r="C239" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="240" customHeight="1" ht="18">
-      <c r="A240" s="8" t="s">
+      <c r="A240" s="7" t="s">
         <v>232</v>
       </c>
-      <c r="B240" s="9" t="s">
+      <c r="B240" s="8" t="s">
         <v>235</v>
       </c>
-      <c r="C240" s="7" t="s">
+      <c r="C240" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="241" customHeight="1" ht="18">
-      <c r="A241" s="8" t="s">
+      <c r="A241" s="7" t="s">
         <v>232</v>
       </c>
-      <c r="B241" s="9" t="s">
+      <c r="B241" s="8" t="s">
         <v>236</v>
       </c>
-      <c r="C241" s="7" t="s">
+      <c r="C241" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="242" customHeight="1" ht="18">
-      <c r="A242" s="8" t="s">
+      <c r="A242" s="7" t="s">
         <v>232</v>
       </c>
-      <c r="B242" s="9" t="s">
+      <c r="B242" s="8" t="s">
         <v>237</v>
       </c>
-      <c r="C242" s="7" t="s">
+      <c r="C242" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="243" customHeight="1" ht="18">
-      <c r="A243" s="8" t="s">
+      <c r="A243" s="7" t="s">
         <v>232</v>
       </c>
-      <c r="B243" s="9" t="s">
+      <c r="B243" s="8" t="s">
         <v>238</v>
       </c>
-      <c r="C243" s="7" t="s">
+      <c r="C243" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="244" customHeight="1" ht="18">
-      <c r="A244" s="8" t="s">
+      <c r="A244" s="7" t="s">
         <v>232</v>
       </c>
-      <c r="B244" s="9" t="s">
+      <c r="B244" s="8" t="s">
         <v>239</v>
       </c>
-      <c r="C244" s="7" t="s">
+      <c r="C244" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="245" customHeight="1" ht="18">
-      <c r="A245" s="8" t="s">
+      <c r="A245" s="7" t="s">
         <v>232</v>
       </c>
-      <c r="B245" s="9" t="s">
+      <c r="B245" s="8" t="s">
         <v>240</v>
       </c>
-      <c r="C245" s="7" t="s">
+      <c r="C245" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="246" customHeight="1" ht="18">
-      <c r="A246" s="8" t="s">
+      <c r="A246" s="7" t="s">
         <v>232</v>
       </c>
-      <c r="B246" s="9" t="s">
+      <c r="B246" s="8" t="s">
         <v>241</v>
       </c>
-      <c r="C246" s="7" t="s">
+      <c r="C246" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="247" customHeight="1" ht="18">
-      <c r="A247" s="8" t="s">
+      <c r="A247" s="7" t="s">
         <v>232</v>
       </c>
-      <c r="B247" s="9" t="s">
+      <c r="B247" s="8" t="s">
         <v>242</v>
       </c>
-      <c r="C247" s="7" t="s">
+      <c r="C247" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="248" customHeight="1" ht="18">
-      <c r="A248" s="8" t="s">
+      <c r="A248" s="7" t="s">
         <v>232</v>
       </c>
-      <c r="B248" s="9" t="s">
+      <c r="B248" s="8" t="s">
         <v>243</v>
       </c>
-      <c r="C248" s="7" t="s">
+      <c r="C248" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="249" customHeight="1" ht="18">
-      <c r="A249" s="8" t="s">
+      <c r="A249" s="7" t="s">
         <v>232</v>
       </c>
-      <c r="B249" s="9" t="s">
+      <c r="B249" s="8" t="s">
         <v>244</v>
       </c>
-      <c r="C249" s="7" t="s">
+      <c r="C249" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="250" customHeight="1" ht="18">
-      <c r="A250" s="8" t="s">
+      <c r="A250" s="7" t="s">
         <v>232</v>
       </c>
-      <c r="B250" s="9" t="s">
+      <c r="B250" s="8" t="s">
         <v>245</v>
       </c>
-      <c r="C250" s="7" t="s">
+      <c r="C250" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="251" customHeight="1" ht="18">
-      <c r="A251" s="8" t="s">
+      <c r="A251" s="7" t="s">
         <v>232</v>
       </c>
-      <c r="B251" s="9" t="s">
+      <c r="B251" s="8" t="s">
         <v>246</v>
       </c>
-      <c r="C251" s="7" t="s">
+      <c r="C251" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="252" customHeight="1" ht="18">
-      <c r="A252" s="8" t="s">
+      <c r="A252" s="7" t="s">
         <v>232</v>
       </c>
-      <c r="B252" s="9" t="s">
+      <c r="B252" s="8" t="s">
         <v>247</v>
       </c>
-      <c r="C252" s="7" t="s">
+      <c r="C252" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="253" customHeight="1" ht="18">
-      <c r="A253" s="8" t="s">
+      <c r="A253" s="7" t="s">
         <v>232</v>
       </c>
-      <c r="B253" s="9" t="s">
+      <c r="B253" s="8" t="s">
         <v>248</v>
       </c>
-      <c r="C253" s="7" t="s">
+      <c r="C253" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="254" customHeight="1" ht="18">
-      <c r="A254" s="8" t="s">
+      <c r="A254" s="7" t="s">
         <v>232</v>
       </c>
-      <c r="B254" s="9" t="s">
+      <c r="B254" s="8" t="s">
         <v>249</v>
       </c>
-      <c r="C254" s="7" t="s">
+      <c r="C254" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="255" customHeight="1" ht="18">
-      <c r="A255" s="8" t="s">
+      <c r="A255" s="7" t="s">
         <v>232</v>
       </c>
-      <c r="B255" s="9" t="s">
+      <c r="B255" s="8" t="s">
         <v>250</v>
       </c>
-      <c r="C255" s="7" t="s">
+      <c r="C255" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="256" customHeight="1" ht="18">
-      <c r="A256" s="8" t="s">
+      <c r="A256" s="7" t="s">
         <v>232</v>
       </c>
-      <c r="B256" s="9" t="s">
+      <c r="B256" s="8" t="s">
         <v>251</v>
       </c>
-      <c r="C256" s="7" t="s">
+      <c r="C256" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="257" customHeight="1" ht="18">
-      <c r="A257" s="8" t="s">
+      <c r="A257" s="7" t="s">
         <v>232</v>
       </c>
-      <c r="B257" s="9" t="s">
+      <c r="B257" s="8" t="s">
         <v>252</v>
       </c>
-      <c r="C257" s="7" t="s">
+      <c r="C257" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="258" customHeight="1" ht="18">
-      <c r="A258" s="8" t="s">
+      <c r="A258" s="7" t="s">
         <v>232</v>
       </c>
-      <c r="B258" s="9" t="s">
+      <c r="B258" s="8" t="s">
         <v>253</v>
       </c>
-      <c r="C258" s="7" t="s">
+      <c r="C258" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="259" customHeight="1" ht="18">
-      <c r="A259" s="8" t="s">
+      <c r="A259" s="7" t="s">
         <v>232</v>
       </c>
-      <c r="B259" s="9" t="s">
+      <c r="B259" s="8" t="s">
         <v>254</v>
       </c>
-      <c r="C259" s="7" t="s">
+      <c r="C259" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="260" customHeight="1" ht="18">
-      <c r="A260" s="8" t="s">
+      <c r="A260" s="7" t="s">
         <v>232</v>
       </c>
-      <c r="B260" s="9" t="s">
+      <c r="B260" s="8" t="s">
         <v>255</v>
       </c>
-      <c r="C260" s="7" t="s">
+      <c r="C260" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="261" customHeight="1" ht="18">
-      <c r="A261" s="8" t="s">
+      <c r="A261" s="7" t="s">
         <v>232</v>
       </c>
-      <c r="B261" s="9" t="s">
+      <c r="B261" s="8" t="s">
         <v>256</v>
       </c>
-      <c r="C261" s="7" t="s">
+      <c r="C261" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="262" customHeight="1" ht="18">
-      <c r="A262" s="8" t="s">
+      <c r="A262" s="7" t="s">
         <v>232</v>
       </c>
-      <c r="B262" s="9" t="s">
+      <c r="B262" s="8" t="s">
         <v>257</v>
       </c>
-      <c r="C262" s="7" t="s">
+      <c r="C262" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="263" customHeight="1" ht="18">
-      <c r="A263" s="8" t="s">
+      <c r="A263" s="7" t="s">
         <v>232</v>
       </c>
-      <c r="B263" s="9" t="s">
+      <c r="B263" s="8" t="s">
         <v>258</v>
       </c>
-      <c r="C263" s="7" t="s">
+      <c r="C263" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="264" customHeight="1" ht="18">
-      <c r="A264" s="8" t="s">
+      <c r="A264" s="7" t="s">
         <v>232</v>
       </c>
-      <c r="B264" s="9" t="s">
+      <c r="B264" s="8" t="s">
         <v>259</v>
       </c>
-      <c r="C264" s="7" t="s">
+      <c r="C264" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="265" customHeight="1" ht="18">
-      <c r="A265" s="8" t="s">
+      <c r="A265" s="7" t="s">
         <v>232</v>
       </c>
-      <c r="B265" s="9" t="s">
+      <c r="B265" s="8" t="s">
         <v>260</v>
       </c>
-      <c r="C265" s="7" t="s">
+      <c r="C265" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="266" customHeight="1" ht="18">
-      <c r="A266" s="8" t="s">
+      <c r="A266" s="7" t="s">
         <v>232</v>
       </c>
-      <c r="B266" s="9" t="s">
+      <c r="B266" s="8" t="s">
         <v>261</v>
       </c>
-      <c r="C266" s="7" t="s">
+      <c r="C266" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="267" customHeight="1" ht="18">
-      <c r="A267" s="8" t="s">
+      <c r="A267" s="7" t="s">
         <v>232</v>
       </c>
-      <c r="B267" s="9" t="s">
+      <c r="B267" s="8" t="s">
         <v>262</v>
       </c>
-      <c r="C267" s="7" t="s">
+      <c r="C267" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="268" customHeight="1" ht="18">
-      <c r="A268" s="8" t="s">
+      <c r="A268" s="7" t="s">
         <v>232</v>
       </c>
-      <c r="B268" s="9" t="s">
+      <c r="B268" s="8" t="s">
         <v>263</v>
       </c>
-      <c r="C268" s="7" t="s">
+      <c r="C268" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="269" customHeight="1" ht="18">
-      <c r="A269" s="8" t="s">
+      <c r="A269" s="7" t="s">
         <v>232</v>
       </c>
-      <c r="B269" s="9" t="s">
+      <c r="B269" s="8" t="s">
         <v>264</v>
       </c>
-      <c r="C269" s="7" t="s">
+      <c r="C269" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="270" customHeight="1" ht="18">
-      <c r="A270" s="8" t="s">
+      <c r="A270" s="7" t="s">
         <v>232</v>
       </c>
-      <c r="B270" s="9" t="s">
+      <c r="B270" s="8" t="s">
         <v>265</v>
       </c>
-      <c r="C270" s="7" t="s">
+      <c r="C270" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="271" customHeight="1" ht="18">
-      <c r="A271" s="8" t="s">
+      <c r="A271" s="7" t="s">
         <v>232</v>
       </c>
-      <c r="B271" s="9" t="s">
+      <c r="B271" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="C271" s="7" t="s">
+      <c r="C271" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="272" customHeight="1" ht="18">
-      <c r="A272" s="8" t="s">
+      <c r="A272" s="7" t="s">
         <v>232</v>
       </c>
-      <c r="B272" s="9" t="s">
+      <c r="B272" s="8" t="s">
         <v>266</v>
       </c>
-      <c r="C272" s="7" t="s">
+      <c r="C272" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="273" customHeight="1" ht="18">
       <c r="A273" s="1"/>
-      <c r="B273" s="10"/>
-      <c r="C273" s="7"/>
+      <c r="B273" s="9"/>
+      <c r="C273" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="274" customHeight="1" ht="18">
       <c r="A274" s="1"/>
-      <c r="B274" s="10"/>
-      <c r="C274" s="7"/>
+      <c r="B274" s="9"/>
+      <c r="C274" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="275" customHeight="1" ht="18">
-      <c r="A275" s="8" t="s">
+      <c r="A275" s="7" t="s">
         <v>267</v>
       </c>
-      <c r="B275" s="9" t="s">
+      <c r="B275" s="8" t="s">
         <v>268</v>
       </c>
-      <c r="C275" s="7" t="s">
+      <c r="C275" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="276" customHeight="1" ht="18">
-      <c r="A276" s="8" t="s">
+      <c r="A276" s="7" t="s">
         <v>267</v>
       </c>
-      <c r="B276" s="9" t="s">
+      <c r="B276" s="8" t="s">
         <v>269</v>
       </c>
-      <c r="C276" s="7" t="s">
+      <c r="C276" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="277" customHeight="1" ht="18">
-      <c r="A277" s="8" t="s">
+      <c r="A277" s="7" t="s">
         <v>267</v>
       </c>
-      <c r="B277" s="9" t="s">
+      <c r="B277" s="8" t="s">
         <v>270</v>
       </c>
-      <c r="C277" s="7" t="s">
+      <c r="C277" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="278" customHeight="1" ht="18">
-      <c r="A278" s="8" t="s">
+      <c r="A278" s="7" t="s">
         <v>267</v>
       </c>
-      <c r="B278" s="9" t="s">
+      <c r="B278" s="8" t="s">
         <v>271</v>
       </c>
-      <c r="C278" s="7" t="s">
+      <c r="C278" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="279" customHeight="1" ht="18">
-      <c r="A279" s="8" t="s">
+      <c r="A279" s="7" t="s">
         <v>267</v>
       </c>
-      <c r="B279" s="9" t="s">
+      <c r="B279" s="8" t="s">
         <v>272</v>
       </c>
-      <c r="C279" s="7" t="s">
+      <c r="C279" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="280" customHeight="1" ht="18">
-      <c r="A280" s="8" t="s">
+      <c r="A280" s="7" t="s">
         <v>267</v>
       </c>
-      <c r="B280" s="9" t="s">
+      <c r="B280" s="8" t="s">
         <v>273</v>
       </c>
-      <c r="C280" s="7" t="s">
+      <c r="C280" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="281" customHeight="1" ht="18">
-      <c r="A281" s="8" t="s">
+      <c r="A281" s="7" t="s">
         <v>267</v>
       </c>
-      <c r="B281" s="9" t="s">
+      <c r="B281" s="8" t="s">
         <v>274</v>
       </c>
-      <c r="C281" s="7" t="s">
+      <c r="C281" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="282" customHeight="1" ht="18">
-      <c r="A282" s="8" t="s">
+      <c r="A282" s="7" t="s">
         <v>267</v>
       </c>
-      <c r="B282" s="9" t="s">
+      <c r="B282" s="8" t="s">
         <v>275</v>
       </c>
-      <c r="C282" s="7" t="s">
+      <c r="C282" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="283" customHeight="1" ht="18">
-      <c r="A283" s="8" t="s">
+      <c r="A283" s="7" t="s">
         <v>267</v>
       </c>
-      <c r="B283" s="9" t="s">
+      <c r="B283" s="8" t="s">
         <v>276</v>
       </c>
-      <c r="C283" s="7" t="s">
+      <c r="C283" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="284" customHeight="1" ht="18">
-      <c r="A284" s="8" t="s">
+      <c r="A284" s="7" t="s">
         <v>267</v>
       </c>
-      <c r="B284" s="9" t="s">
+      <c r="B284" s="8" t="s">
         <v>277</v>
       </c>
-      <c r="C284" s="7" t="s">
+      <c r="C284" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="285" customHeight="1" ht="18">
-      <c r="A285" s="8" t="s">
+      <c r="A285" s="7" t="s">
         <v>267</v>
       </c>
-      <c r="B285" s="9" t="s">
+      <c r="B285" s="8" t="s">
         <v>278</v>
       </c>
-      <c r="C285" s="7" t="s">
+      <c r="C285" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="286" customHeight="1" ht="18">
-      <c r="A286" s="8" t="s">
+      <c r="A286" s="7" t="s">
         <v>267</v>
       </c>
-      <c r="B286" s="9" t="s">
+      <c r="B286" s="8" t="s">
         <v>279</v>
       </c>
-      <c r="C286" s="7" t="s">
+      <c r="C286" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="287" customHeight="1" ht="18">
-      <c r="A287" s="8" t="s">
+      <c r="A287" s="7" t="s">
         <v>267</v>
       </c>
-      <c r="B287" s="9" t="s">
+      <c r="B287" s="8" t="s">
         <v>280</v>
       </c>
-      <c r="C287" s="7" t="s">
+      <c r="C287" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="288" customHeight="1" ht="18">
-      <c r="A288" s="8" t="s">
+      <c r="A288" s="7" t="s">
         <v>267</v>
       </c>
-      <c r="B288" s="9" t="s">
+      <c r="B288" s="8" t="s">
         <v>281</v>
       </c>
-      <c r="C288" s="7" t="s">
+      <c r="C288" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="289" customHeight="1" ht="18">
-      <c r="A289" s="8" t="s">
+      <c r="A289" s="7" t="s">
         <v>267</v>
       </c>
-      <c r="B289" s="9" t="s">
+      <c r="B289" s="8" t="s">
         <v>282</v>
       </c>
-      <c r="C289" s="7" t="s">
+      <c r="C289" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="290" customHeight="1" ht="18">
-      <c r="A290" s="8" t="s">
+      <c r="A290" s="7" t="s">
         <v>267</v>
       </c>
-      <c r="B290" s="9" t="s">
+      <c r="B290" s="8" t="s">
         <v>283</v>
       </c>
-      <c r="C290" s="7" t="s">
+      <c r="C290" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="291" customHeight="1" ht="18">
-      <c r="A291" s="8" t="s">
+      <c r="A291" s="7" t="s">
         <v>267</v>
       </c>
-      <c r="B291" s="9" t="s">
+      <c r="B291" s="8" t="s">
         <v>284</v>
       </c>
-      <c r="C291" s="7" t="s">
+      <c r="C291" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="292" customHeight="1" ht="18">
-      <c r="A292" s="8" t="s">
+      <c r="A292" s="7" t="s">
         <v>267</v>
       </c>
-      <c r="B292" s="9" t="s">
+      <c r="B292" s="8" t="s">
         <v>285</v>
       </c>
-      <c r="C292" s="7" t="s">
+      <c r="C292" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="293" customHeight="1" ht="18">
-      <c r="A293" s="8" t="s">
+      <c r="A293" s="7" t="s">
         <v>267</v>
       </c>
-      <c r="B293" s="9" t="s">
+      <c r="B293" s="8" t="s">
         <v>286</v>
       </c>
-      <c r="C293" s="7" t="s">
+      <c r="C293" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="294" customHeight="1" ht="18">
       <c r="A294" s="1"/>
-      <c r="B294" s="10"/>
-      <c r="C294" s="7"/>
+      <c r="B294" s="9"/>
+      <c r="C294" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="295" customHeight="1" ht="18">
       <c r="A295" s="1"/>
-      <c r="B295" s="10"/>
-      <c r="C295" s="7"/>
+      <c r="B295" s="9"/>
+      <c r="C295" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="296" customHeight="1" ht="18">
-      <c r="A296" s="8" t="s">
+      <c r="A296" s="7" t="s">
         <v>287</v>
       </c>
-      <c r="B296" s="9" t="s">
+      <c r="B296" s="8" t="s">
         <v>288</v>
       </c>
-      <c r="C296" s="7" t="s">
+      <c r="C296" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="297" customHeight="1" ht="18">
-      <c r="A297" s="8" t="s">
+      <c r="A297" s="7" t="s">
         <v>287</v>
       </c>
-      <c r="B297" s="9" t="s">
+      <c r="B297" s="8" t="s">
         <v>289</v>
       </c>
-      <c r="C297" s="7" t="s">
+      <c r="C297" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="298" customHeight="1" ht="18">
-      <c r="A298" s="8" t="s">
+      <c r="A298" s="7" t="s">
         <v>287</v>
       </c>
-      <c r="B298" s="9" t="s">
+      <c r="B298" s="8" t="s">
         <v>290</v>
       </c>
-      <c r="C298" s="7" t="s">
+      <c r="C298" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="299" customHeight="1" ht="18">
-      <c r="A299" s="8" t="s">
+      <c r="A299" s="7" t="s">
         <v>287</v>
       </c>
-      <c r="B299" s="9" t="s">
+      <c r="B299" s="8" t="s">
         <v>291</v>
       </c>
-      <c r="C299" s="7" t="s">
+      <c r="C299" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="300" customHeight="1" ht="18">
-      <c r="A300" s="8" t="s">
+      <c r="A300" s="7" t="s">
         <v>287</v>
       </c>
-      <c r="B300" s="9" t="s">
+      <c r="B300" s="8" t="s">
         <v>292</v>
       </c>
-      <c r="C300" s="7" t="s">
+      <c r="C300" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="301" customHeight="1" ht="18">
-      <c r="A301" s="8" t="s">
+      <c r="A301" s="7" t="s">
         <v>287</v>
       </c>
-      <c r="B301" s="9" t="s">
+      <c r="B301" s="8" t="s">
         <v>293</v>
       </c>
-      <c r="C301" s="7" t="s">
+      <c r="C301" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="302" customHeight="1" ht="18">
-      <c r="A302" s="8" t="s">
+      <c r="A302" s="7" t="s">
         <v>287</v>
       </c>
-      <c r="B302" s="9" t="s">
+      <c r="B302" s="8" t="s">
         <v>294</v>
       </c>
-      <c r="C302" s="7" t="s">
+      <c r="C302" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="303" customHeight="1" ht="18">
-      <c r="A303" s="8" t="s">
+      <c r="A303" s="7" t="s">
         <v>287</v>
       </c>
-      <c r="B303" s="9" t="s">
+      <c r="B303" s="8" t="s">
         <v>295</v>
       </c>
-      <c r="C303" s="7" t="s">
+      <c r="C303" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="304" customHeight="1" ht="18">
-      <c r="A304" s="8" t="s">
+      <c r="A304" s="7" t="s">
         <v>287</v>
       </c>
-      <c r="B304" s="9" t="s">
+      <c r="B304" s="8" t="s">
         <v>296</v>
       </c>
-      <c r="C304" s="7" t="s">
+      <c r="C304" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="305" customHeight="1" ht="18">
-      <c r="A305" s="8" t="s">
+      <c r="A305" s="7" t="s">
         <v>287</v>
       </c>
-      <c r="B305" s="9" t="s">
+      <c r="B305" s="8" t="s">
         <v>297</v>
       </c>
-      <c r="C305" s="7" t="s">
+      <c r="C305" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="306" customHeight="1" ht="18">
-      <c r="A306" s="8" t="s">
+      <c r="A306" s="7" t="s">
         <v>287</v>
       </c>
-      <c r="B306" s="9" t="s">
+      <c r="B306" s="8" t="s">
         <v>298</v>
       </c>
-      <c r="C306" s="7" t="s">
+      <c r="C306" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="307" customHeight="1" ht="18">
-      <c r="A307" s="8" t="s">
+      <c r="A307" s="7" t="s">
         <v>287</v>
       </c>
-      <c r="B307" s="9" t="s">
+      <c r="B307" s="8" t="s">
         <v>299</v>
       </c>
-      <c r="C307" s="7" t="s">
+      <c r="C307" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="308" customHeight="1" ht="18">
-      <c r="A308" s="8" t="s">
+      <c r="A308" s="7" t="s">
         <v>287</v>
       </c>
-      <c r="B308" s="9" t="s">
+      <c r="B308" s="8" t="s">
         <v>300</v>
       </c>
-      <c r="C308" s="7" t="s">
+      <c r="C308" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="309" customHeight="1" ht="18">
-      <c r="A309" s="8" t="s">
+      <c r="A309" s="7" t="s">
         <v>287</v>
       </c>
-      <c r="B309" s="9" t="s">
+      <c r="B309" s="8" t="s">
         <v>301</v>
       </c>
-      <c r="C309" s="7" t="s">
+      <c r="C309" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="310" customHeight="1" ht="18">
-      <c r="A310" s="8" t="s">
+      <c r="A310" s="7" t="s">
         <v>287</v>
       </c>
-      <c r="B310" s="9" t="s">
+      <c r="B310" s="8" t="s">
         <v>302</v>
       </c>
-      <c r="C310" s="7" t="s">
+      <c r="C310" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="311" customHeight="1" ht="18">
-      <c r="A311" s="8" t="s">
+      <c r="A311" s="7" t="s">
         <v>287</v>
       </c>
-      <c r="B311" s="9" t="s">
+      <c r="B311" s="8" t="s">
         <v>303</v>
       </c>
-      <c r="C311" s="7" t="s">
+      <c r="C311" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="312" customHeight="1" ht="18">
-      <c r="A312" s="8" t="s">
+      <c r="A312" s="7" t="s">
         <v>287</v>
       </c>
-      <c r="B312" s="9" t="s">
+      <c r="B312" s="8" t="s">
         <v>304</v>
       </c>
-      <c r="C312" s="7" t="s">
+      <c r="C312" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="313" customHeight="1" ht="18">
-      <c r="A313" s="8" t="s">
+      <c r="A313" s="7" t="s">
         <v>287</v>
       </c>
-      <c r="B313" s="9" t="s">
+      <c r="B313" s="8" t="s">
         <v>305</v>
       </c>
-      <c r="C313" s="7" t="s">
+      <c r="C313" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="314" customHeight="1" ht="18">
-      <c r="A314" s="8" t="s">
+      <c r="A314" s="7" t="s">
         <v>287</v>
       </c>
-      <c r="B314" s="9" t="s">
+      <c r="B314" s="8" t="s">
         <v>306</v>
       </c>
-      <c r="C314" s="7" t="s">
+      <c r="C314" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="315" customHeight="1" ht="18">
-      <c r="A315" s="8" t="s">
+      <c r="A315" s="7" t="s">
         <v>287</v>
       </c>
-      <c r="B315" s="9" t="s">
+      <c r="B315" s="8" t="s">
         <v>307</v>
       </c>
-      <c r="C315" s="7" t="s">
+      <c r="C315" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="316" customHeight="1" ht="18">
-      <c r="A316" s="8" t="s">
+      <c r="A316" s="7" t="s">
         <v>287</v>
       </c>
-      <c r="B316" s="9" t="s">
+      <c r="B316" s="8" t="s">
         <v>308</v>
       </c>
-      <c r="C316" s="7" t="s">
+      <c r="C316" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="317" customHeight="1" ht="18">
-      <c r="A317" s="8" t="s">
+      <c r="A317" s="7" t="s">
         <v>287</v>
       </c>
-      <c r="B317" s="9" t="s">
+      <c r="B317" s="8" t="s">
         <v>309</v>
       </c>
-      <c r="C317" s="7" t="s">
+      <c r="C317" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="318" customHeight="1" ht="18">
-      <c r="A318" s="8" t="s">
+      <c r="A318" s="7" t="s">
         <v>287</v>
       </c>
-      <c r="B318" s="9" t="s">
+      <c r="B318" s="8" t="s">
         <v>310</v>
       </c>
-      <c r="C318" s="7" t="s">
+      <c r="C318" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="319" customHeight="1" ht="18">
-      <c r="A319" s="8" t="s">
+      <c r="A319" s="7" t="s">
         <v>287</v>
       </c>
-      <c r="B319" s="9" t="s">
+      <c r="B319" s="8" t="s">
         <v>311</v>
       </c>
-      <c r="C319" s="7" t="s">
+      <c r="C319" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="320" customHeight="1" ht="18">
-      <c r="A320" s="8" t="s">
+      <c r="A320" s="7" t="s">
         <v>287</v>
       </c>
-      <c r="B320" s="9" t="s">
+      <c r="B320" s="8" t="s">
         <v>312</v>
       </c>
-      <c r="C320" s="7" t="s">
+      <c r="C320" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="321" customHeight="1" ht="18">
-      <c r="A321" s="8" t="s">
+      <c r="A321" s="7" t="s">
         <v>287</v>
       </c>
-      <c r="B321" s="9" t="s">
+      <c r="B321" s="8" t="s">
         <v>313</v>
       </c>
-      <c r="C321" s="7" t="s">
+      <c r="C321" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="322" customHeight="1" ht="18">
-      <c r="A322" s="8" t="s">
+      <c r="A322" s="7" t="s">
         <v>287</v>
       </c>
-      <c r="B322" s="9" t="s">
+      <c r="B322" s="8" t="s">
         <v>314</v>
       </c>
-      <c r="C322" s="7" t="s">
+      <c r="C322" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="323" customHeight="1" ht="18">
-      <c r="A323" s="8" t="s">
+      <c r="A323" s="7" t="s">
         <v>287</v>
       </c>
-      <c r="B323" s="9" t="s">
+      <c r="B323" s="8" t="s">
         <v>315</v>
       </c>
-      <c r="C323" s="7" t="s">
+      <c r="C323" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="324" customHeight="1" ht="18">
-      <c r="A324" s="8" t="s">
+      <c r="A324" s="7" t="s">
         <v>287</v>
       </c>
-      <c r="B324" s="9" t="s">
+      <c r="B324" s="8" t="s">
         <v>316</v>
       </c>
-      <c r="C324" s="7" t="s">
+      <c r="C324" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="325" customHeight="1" ht="18">
-      <c r="A325" s="8" t="s">
+      <c r="A325" s="7" t="s">
         <v>287</v>
       </c>
-      <c r="B325" s="9" t="s">
+      <c r="B325" s="8" t="s">
         <v>317</v>
       </c>
-      <c r="C325" s="7" t="s">
+      <c r="C325" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="326" customHeight="1" ht="18">
-      <c r="A326" s="8" t="s">
+      <c r="A326" s="7" t="s">
         <v>287</v>
       </c>
-      <c r="B326" s="9" t="s">
+      <c r="B326" s="8" t="s">
         <v>318</v>
       </c>
-      <c r="C326" s="7" t="s">
+      <c r="C326" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="327" customHeight="1" ht="18">
-      <c r="A327" s="8" t="s">
+      <c r="A327" s="7" t="s">
         <v>287</v>
       </c>
-      <c r="B327" s="9" t="s">
+      <c r="B327" s="8" t="s">
         <v>319</v>
       </c>
-      <c r="C327" s="7" t="s">
+      <c r="C327" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="328" customHeight="1" ht="18">
-      <c r="A328" s="8" t="s">
+      <c r="A328" s="7" t="s">
         <v>287</v>
       </c>
-      <c r="B328" s="9" t="s">
+      <c r="B328" s="8" t="s">
         <v>320</v>
       </c>
-      <c r="C328" s="7" t="s">
+      <c r="C328" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="329" customHeight="1" ht="18">
-      <c r="A329" s="8" t="s">
+      <c r="A329" s="7" t="s">
         <v>287</v>
       </c>
-      <c r="B329" s="9" t="s">
+      <c r="B329" s="8" t="s">
         <v>321</v>
       </c>
-      <c r="C329" s="7" t="s">
+      <c r="C329" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="330" customHeight="1" ht="18">
-      <c r="A330" s="8" t="s">
+      <c r="A330" s="7" t="s">
         <v>287</v>
       </c>
-      <c r="B330" s="9" t="s">
+      <c r="B330" s="8" t="s">
         <v>322</v>
       </c>
-      <c r="C330" s="7" t="s">
+      <c r="C330" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="331" customHeight="1" ht="18">
-      <c r="A331" s="8" t="s">
+      <c r="A331" s="7" t="s">
         <v>287</v>
       </c>
-      <c r="B331" s="9" t="s">
+      <c r="B331" s="8" t="s">
         <v>323</v>
       </c>
-      <c r="C331" s="7" t="s">
+      <c r="C331" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="332" customHeight="1" ht="18">
-      <c r="A332" s="8" t="s">
+      <c r="A332" s="7" t="s">
         <v>287</v>
       </c>
-      <c r="B332" s="9" t="s">
+      <c r="B332" s="8" t="s">
         <v>324</v>
       </c>
-      <c r="C332" s="7" t="s">
+      <c r="C332" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="333" customHeight="1" ht="18">
-      <c r="A333" s="8" t="s">
+      <c r="A333" s="7" t="s">
         <v>287</v>
       </c>
-      <c r="B333" s="9" t="s">
+      <c r="B333" s="8" t="s">
         <v>325</v>
       </c>
-      <c r="C333" s="7" t="s">
+      <c r="C333" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="334" customHeight="1" ht="18">
       <c r="A334" s="1"/>
-      <c r="B334" s="10"/>
-      <c r="C334" s="7"/>
+      <c r="B334" s="9"/>
+      <c r="C334" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="335" customHeight="1" ht="18">
       <c r="A335" s="1"/>
-      <c r="B335" s="10"/>
-      <c r="C335" s="7"/>
+      <c r="B335" s="9"/>
+      <c r="C335" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="336" customHeight="1" ht="18">
-      <c r="A336" s="8" t="s">
+      <c r="A336" s="7" t="s">
         <v>326</v>
       </c>
-      <c r="B336" s="9" t="s">
+      <c r="B336" s="8" t="s">
         <v>327</v>
       </c>
-      <c r="C336" s="7" t="s">
+      <c r="C336" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="337" customHeight="1" ht="18">
-      <c r="A337" s="8" t="s">
+      <c r="A337" s="7" t="s">
         <v>326</v>
       </c>
-      <c r="B337" s="9" t="s">
+      <c r="B337" s="8" t="s">
         <v>328</v>
       </c>
-      <c r="C337" s="7" t="s">
+      <c r="C337" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="338" customHeight="1" ht="18">
-      <c r="A338" s="8" t="s">
+      <c r="A338" s="7" t="s">
         <v>326</v>
       </c>
-      <c r="B338" s="9" t="s">
+      <c r="B338" s="8" t="s">
         <v>329</v>
       </c>
-      <c r="C338" s="7" t="s">
+      <c r="C338" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="339" customHeight="1" ht="18">
-      <c r="A339" s="8" t="s">
+      <c r="A339" s="7" t="s">
         <v>326</v>
       </c>
-      <c r="B339" s="9" t="s">
+      <c r="B339" s="8" t="s">
         <v>330</v>
       </c>
-      <c r="C339" s="7" t="s">
+      <c r="C339" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="340" customHeight="1" ht="18">
-      <c r="A340" s="8" t="s">
+      <c r="A340" s="7" t="s">
         <v>326</v>
       </c>
-      <c r="B340" s="9" t="s">
+      <c r="B340" s="8" t="s">
         <v>331</v>
       </c>
-      <c r="C340" s="7" t="s">
+      <c r="C340" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="341" customHeight="1" ht="18">
-      <c r="A341" s="8" t="s">
+      <c r="A341" s="7" t="s">
         <v>326</v>
       </c>
-      <c r="B341" s="9" t="s">
+      <c r="B341" s="8" t="s">
         <v>332</v>
       </c>
-      <c r="C341" s="7" t="s">
+      <c r="C341" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="342" customHeight="1" ht="18">
-      <c r="A342" s="8" t="s">
+      <c r="A342" s="7" t="s">
         <v>326</v>
       </c>
-      <c r="B342" s="9" t="s">
+      <c r="B342" s="8" t="s">
         <v>333</v>
       </c>
-      <c r="C342" s="7" t="s">
+      <c r="C342" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="343" customHeight="1" ht="18">
-      <c r="A343" s="8" t="s">
+      <c r="A343" s="7" t="s">
         <v>326</v>
       </c>
-      <c r="B343" s="9" t="s">
+      <c r="B343" s="8" t="s">
         <v>334</v>
       </c>
-      <c r="C343" s="7" t="s">
+      <c r="C343" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="344" customHeight="1" ht="18">
-      <c r="A344" s="8" t="s">
+      <c r="A344" s="7" t="s">
         <v>326</v>
       </c>
-      <c r="B344" s="9" t="s">
+      <c r="B344" s="8" t="s">
         <v>335</v>
       </c>
-      <c r="C344" s="7" t="s">
+      <c r="C344" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="345" customHeight="1" ht="18">
-      <c r="A345" s="8" t="s">
+      <c r="A345" s="7" t="s">
         <v>326</v>
       </c>
-      <c r="B345" s="9" t="s">
+      <c r="B345" s="8" t="s">
         <v>336</v>
       </c>
-      <c r="C345" s="7" t="s">
+      <c r="C345" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="346" customHeight="1" ht="18">
-      <c r="A346" s="8" t="s">
+      <c r="A346" s="7" t="s">
         <v>326</v>
       </c>
-      <c r="B346" s="9" t="s">
+      <c r="B346" s="8" t="s">
         <v>337</v>
       </c>
-      <c r="C346" s="7" t="s">
+      <c r="C346" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="347" customHeight="1" ht="18">
-      <c r="A347" s="8" t="s">
+      <c r="A347" s="7" t="s">
         <v>326</v>
       </c>
-      <c r="B347" s="9" t="s">
+      <c r="B347" s="8" t="s">
         <v>338</v>
       </c>
-      <c r="C347" s="7" t="s">
+      <c r="C347" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="348" customHeight="1" ht="18">
-      <c r="A348" s="8" t="s">
+      <c r="A348" s="7" t="s">
         <v>326</v>
       </c>
-      <c r="B348" s="9" t="s">
+      <c r="B348" s="8" t="s">
         <v>339</v>
       </c>
-      <c r="C348" s="7" t="s">
+      <c r="C348" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="349" customHeight="1" ht="18">
-      <c r="A349" s="8" t="s">
+      <c r="A349" s="7" t="s">
         <v>326</v>
       </c>
-      <c r="B349" s="9" t="s">
+      <c r="B349" s="8" t="s">
         <v>340</v>
       </c>
-      <c r="C349" s="7" t="s">
+      <c r="C349" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="350" customHeight="1" ht="18">
-      <c r="A350" s="8" t="s">
+      <c r="A350" s="7" t="s">
         <v>326</v>
       </c>
-      <c r="B350" s="9" t="s">
+      <c r="B350" s="8" t="s">
         <v>341</v>
       </c>
-      <c r="C350" s="7" t="s">
+      <c r="C350" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="351" customHeight="1" ht="18">
-      <c r="A351" s="8" t="s">
+      <c r="A351" s="7" t="s">
         <v>326</v>
       </c>
-      <c r="B351" s="9" t="s">
+      <c r="B351" s="8" t="s">
         <v>342</v>
       </c>
-      <c r="C351" s="7" t="s">
+      <c r="C351" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="352" customHeight="1" ht="18">
-      <c r="A352" s="8" t="s">
+      <c r="A352" s="7" t="s">
         <v>326</v>
       </c>
-      <c r="B352" s="9" t="s">
+      <c r="B352" s="8" t="s">
         <v>343</v>
       </c>
-      <c r="C352" s="7" t="s">
+      <c r="C352" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="353" customHeight="1" ht="18">
-      <c r="A353" s="8" t="s">
+      <c r="A353" s="7" t="s">
         <v>326</v>
       </c>
-      <c r="B353" s="9" t="s">
+      <c r="B353" s="8" t="s">
         <v>344</v>
       </c>
-      <c r="C353" s="7" t="s">
+      <c r="C353" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="354" customHeight="1" ht="18">
       <c r="A354" s="1"/>
-      <c r="B354" s="10"/>
-      <c r="C354" s="7"/>
+      <c r="B354" s="9"/>
+      <c r="C354" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="355" customHeight="1" ht="18">
       <c r="A355" s="1"/>
-      <c r="B355" s="10"/>
-      <c r="C355" s="7"/>
+      <c r="B355" s="9"/>
+      <c r="C355" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="356" customHeight="1" ht="18">
-      <c r="A356" s="8" t="s">
+      <c r="A356" s="7" t="s">
         <v>345</v>
       </c>
-      <c r="B356" s="9" t="s">
+      <c r="B356" s="8" t="s">
         <v>346</v>
       </c>
-      <c r="C356" s="7" t="s">
+      <c r="C356" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="357" customHeight="1" ht="18">
-      <c r="A357" s="8" t="s">
+      <c r="A357" s="7" t="s">
         <v>345</v>
       </c>
-      <c r="B357" s="9" t="s">
+      <c r="B357" s="8" t="s">
         <v>347</v>
       </c>
-      <c r="C357" s="7" t="s">
+      <c r="C357" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="358" customHeight="1" ht="18">
-      <c r="A358" s="8" t="s">
+      <c r="A358" s="7" t="s">
         <v>345</v>
       </c>
-      <c r="B358" s="9" t="s">
+      <c r="B358" s="8" t="s">
         <v>348</v>
       </c>
-      <c r="C358" s="7" t="s">
+      <c r="C358" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="359" customHeight="1" ht="18">
-      <c r="A359" s="8" t="s">
+      <c r="A359" s="7" t="s">
         <v>345</v>
       </c>
-      <c r="B359" s="9" t="s">
+      <c r="B359" s="8" t="s">
         <v>349</v>
       </c>
-      <c r="C359" s="7" t="s">
+      <c r="C359" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="360" customHeight="1" ht="18">
-      <c r="A360" s="8" t="s">
+      <c r="A360" s="7" t="s">
         <v>345</v>
       </c>
-      <c r="B360" s="9" t="s">
+      <c r="B360" s="8" t="s">
         <v>350</v>
       </c>
-      <c r="C360" s="7" t="s">
+      <c r="C360" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="361" customHeight="1" ht="18">
-      <c r="A361" s="8" t="s">
+      <c r="A361" s="7" t="s">
         <v>345</v>
       </c>
-      <c r="B361" s="9" t="s">
+      <c r="B361" s="8" t="s">
         <v>351</v>
       </c>
-      <c r="C361" s="7" t="s">
+      <c r="C361" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="362" customHeight="1" ht="18">
-      <c r="A362" s="8" t="s">
+      <c r="A362" s="7" t="s">
         <v>345</v>
       </c>
-      <c r="B362" s="9" t="s">
+      <c r="B362" s="8" t="s">
         <v>352</v>
       </c>
-      <c r="C362" s="7" t="s">
+      <c r="C362" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="363" customHeight="1" ht="18">
-      <c r="A363" s="8" t="s">
+      <c r="A363" s="7" t="s">
         <v>345</v>
       </c>
-      <c r="B363" s="9" t="s">
+      <c r="B363" s="8" t="s">
         <v>353</v>
       </c>
-      <c r="C363" s="7" t="s">
+      <c r="C363" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="364" customHeight="1" ht="18">
-      <c r="A364" s="8" t="s">
+      <c r="A364" s="7" t="s">
         <v>345</v>
       </c>
-      <c r="B364" s="9" t="s">
+      <c r="B364" s="8" t="s">
         <v>354</v>
       </c>
-      <c r="C364" s="7" t="s">
+      <c r="C364" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="365" customHeight="1" ht="18">
-      <c r="A365" s="8" t="s">
+      <c r="A365" s="7" t="s">
         <v>345</v>
       </c>
-      <c r="B365" s="9" t="s">
+      <c r="B365" s="8" t="s">
         <v>355</v>
       </c>
-      <c r="C365" s="7" t="s">
+      <c r="C365" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="366" customHeight="1" ht="18">
-      <c r="A366" s="8" t="s">
+      <c r="A366" s="7" t="s">
         <v>345</v>
       </c>
-      <c r="B366" s="9" t="s">
+      <c r="B366" s="8" t="s">
         <v>356</v>
       </c>
-      <c r="C366" s="7" t="s">
+      <c r="C366" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="367" customHeight="1" ht="18">
-      <c r="A367" s="8" t="s">
+      <c r="A367" s="7" t="s">
         <v>345</v>
       </c>
-      <c r="B367" s="9" t="s">
+      <c r="B367" s="8" t="s">
         <v>357</v>
       </c>
-      <c r="C367" s="7" t="s">
+      <c r="C367" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="368" customHeight="1" ht="18">
-      <c r="A368" s="8" t="s">
+      <c r="A368" s="7" t="s">
         <v>345</v>
       </c>
-      <c r="B368" s="9" t="s">
+      <c r="B368" s="8" t="s">
         <v>358</v>
       </c>
-      <c r="C368" s="7" t="s">
+      <c r="C368" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="369" customHeight="1" ht="18">
-      <c r="A369" s="8" t="s">
+      <c r="A369" s="7" t="s">
         <v>345</v>
       </c>
-      <c r="B369" s="9" t="s">
+      <c r="B369" s="8" t="s">
         <v>359</v>
       </c>
-      <c r="C369" s="7" t="s">
+      <c r="C369" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="370" customHeight="1" ht="18">
-      <c r="A370" s="8" t="s">
+      <c r="A370" s="7" t="s">
         <v>345</v>
       </c>
-      <c r="B370" s="9" t="s">
+      <c r="B370" s="8" t="s">
         <v>360</v>
       </c>
-      <c r="C370" s="7" t="s">
+      <c r="C370" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="371" customHeight="1" ht="18">
-      <c r="A371" s="8" t="s">
+      <c r="A371" s="7" t="s">
         <v>345</v>
       </c>
-      <c r="B371" s="9" t="s">
+      <c r="B371" s="8" t="s">
         <v>361</v>
       </c>
-      <c r="C371" s="7" t="s">
+      <c r="C371" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="372" customHeight="1" ht="18">
-      <c r="A372" s="8" t="s">
+      <c r="A372" s="7" t="s">
         <v>345</v>
       </c>
-      <c r="B372" s="9" t="s">
+      <c r="B372" s="8" t="s">
         <v>362</v>
       </c>
-      <c r="C372" s="7" t="s">
+      <c r="C372" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="373" customHeight="1" ht="18">
-      <c r="A373" s="8" t="s">
+      <c r="A373" s="7" t="s">
         <v>345</v>
       </c>
-      <c r="B373" s="9" t="s">
+      <c r="B373" s="8" t="s">
         <v>363</v>
       </c>
-      <c r="C373" s="7" t="s">
+      <c r="C373" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="374" customHeight="1" ht="18">
-      <c r="A374" s="8" t="s">
+      <c r="A374" s="7" t="s">
         <v>345</v>
       </c>
-      <c r="B374" s="9" t="s">
+      <c r="B374" s="8" t="s">
         <v>364</v>
       </c>
-      <c r="C374" s="7" t="s">
+      <c r="C374" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="375" customHeight="1" ht="18">
-      <c r="A375" s="8" t="s">
+      <c r="A375" s="7" t="s">
         <v>345</v>
       </c>
-      <c r="B375" s="9" t="s">
+      <c r="B375" s="8" t="s">
         <v>365</v>
       </c>
-      <c r="C375" s="7" t="s">
+      <c r="C375" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="376" customHeight="1" ht="18">
-      <c r="A376" s="8" t="s">
+      <c r="A376" s="7" t="s">
         <v>345</v>
       </c>
-      <c r="B376" s="9" t="s">
+      <c r="B376" s="8" t="s">
         <v>366</v>
       </c>
-      <c r="C376" s="7" t="s">
+      <c r="C376" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="377" customHeight="1" ht="18">
-      <c r="A377" s="8" t="s">
+      <c r="A377" s="7" t="s">
         <v>345</v>
       </c>
-      <c r="B377" s="9" t="s">
+      <c r="B377" s="8" t="s">
         <v>367</v>
       </c>
-      <c r="C377" s="7" t="s">
+      <c r="C377" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="378" customHeight="1" ht="18">
-      <c r="A378" s="8" t="s">
+      <c r="A378" s="7" t="s">
         <v>345</v>
       </c>
-      <c r="B378" s="9" t="s">
+      <c r="B378" s="8" t="s">
         <v>368</v>
       </c>
-      <c r="C378" s="7" t="s">
+      <c r="C378" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="379" customHeight="1" ht="18">
-      <c r="A379" s="8" t="s">
+      <c r="A379" s="7" t="s">
         <v>345</v>
       </c>
-      <c r="B379" s="9" t="s">
+      <c r="B379" s="8" t="s">
         <v>369</v>
       </c>
-      <c r="C379" s="7" t="s">
+      <c r="C379" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="380" customHeight="1" ht="18">
-      <c r="A380" s="8" t="s">
+      <c r="A380" s="7" t="s">
         <v>345</v>
       </c>
-      <c r="B380" s="9" t="s">
+      <c r="B380" s="8" t="s">
         <v>370</v>
       </c>
-      <c r="C380" s="7" t="s">
+      <c r="C380" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="381" customHeight="1" ht="18">
-      <c r="A381" s="8" t="s">
+      <c r="A381" s="7" t="s">
         <v>345</v>
       </c>
-      <c r="B381" s="9" t="s">
+      <c r="B381" s="8" t="s">
         <v>371</v>
       </c>
-      <c r="C381" s="7" t="s">
+      <c r="C381" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="382" customHeight="1" ht="18">
-      <c r="A382" s="8" t="s">
+      <c r="A382" s="7" t="s">
         <v>345</v>
       </c>
-      <c r="B382" s="9" t="s">
+      <c r="B382" s="8" t="s">
         <v>372</v>
       </c>
-      <c r="C382" s="7" t="s">
+      <c r="C382" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="383" customHeight="1" ht="18">
-      <c r="A383" s="8" t="s">
+      <c r="A383" s="7" t="s">
         <v>345</v>
       </c>
-      <c r="B383" s="9" t="s">
+      <c r="B383" s="8" t="s">
         <v>373</v>
       </c>
-      <c r="C383" s="7" t="s">
+      <c r="C383" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="384" customHeight="1" ht="18">
-      <c r="A384" s="8" t="s">
+      <c r="A384" s="7" t="s">
         <v>345</v>
       </c>
-      <c r="B384" s="9" t="s">
+      <c r="B384" s="8" t="s">
         <v>374</v>
       </c>
-      <c r="C384" s="7" t="s">
+      <c r="C384" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="385" customHeight="1" ht="18">
-      <c r="A385" s="8" t="s">
+      <c r="A385" s="7" t="s">
         <v>345</v>
       </c>
-      <c r="B385" s="9" t="s">
+      <c r="B385" s="8" t="s">
         <v>375</v>
       </c>
-      <c r="C385" s="7" t="s">
+      <c r="C385" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="386" customHeight="1" ht="18">
-      <c r="A386" s="8" t="s">
+      <c r="A386" s="7" t="s">
         <v>345</v>
       </c>
-      <c r="B386" s="9" t="s">
+      <c r="B386" s="8" t="s">
         <v>376</v>
       </c>
-      <c r="C386" s="7" t="s">
+      <c r="C386" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="387" customHeight="1" ht="18">
-      <c r="A387" s="8" t="s">
+      <c r="A387" s="7" t="s">
         <v>345</v>
       </c>
-      <c r="B387" s="9" t="s">
+      <c r="B387" s="8" t="s">
         <v>377</v>
       </c>
-      <c r="C387" s="7" t="s">
+      <c r="C387" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="388" customHeight="1" ht="18">
-      <c r="A388" s="8" t="s">
+      <c r="A388" s="7" t="s">
         <v>345</v>
       </c>
-      <c r="B388" s="9" t="s">
+      <c r="B388" s="8" t="s">
         <v>378</v>
       </c>
-      <c r="C388" s="7" t="s">
+      <c r="C388" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="389" customHeight="1" ht="18">
-      <c r="A389" s="8" t="s">
+      <c r="A389" s="7" t="s">
         <v>345</v>
       </c>
-      <c r="B389" s="9" t="s">
+      <c r="B389" s="8" t="s">
         <v>379</v>
       </c>
-      <c r="C389" s="7" t="s">
+      <c r="C389" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="390" customHeight="1" ht="18">
-      <c r="A390" s="8" t="s">
+      <c r="A390" s="7" t="s">
         <v>345</v>
       </c>
-      <c r="B390" s="9" t="s">
+      <c r="B390" s="8" t="s">
         <v>379</v>
       </c>
-      <c r="C390" s="7" t="s">
+      <c r="C390" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="391" customHeight="1" ht="18">
-      <c r="A391" s="8" t="s">
+      <c r="A391" s="7" t="s">
         <v>345</v>
       </c>
-      <c r="B391" s="9" t="s">
+      <c r="B391" s="8" t="s">
         <v>380</v>
       </c>
-      <c r="C391" s="7" t="s">
+      <c r="C391" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="392" customHeight="1" ht="18">
-      <c r="A392" s="8" t="s">
+      <c r="A392" s="7" t="s">
         <v>345</v>
       </c>
-      <c r="B392" s="9" t="s">
+      <c r="B392" s="8" t="s">
         <v>381</v>
       </c>
-      <c r="C392" s="7" t="s">
+      <c r="C392" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="393" customHeight="1" ht="18">
-      <c r="A393" s="8" t="s">
+      <c r="A393" s="7" t="s">
         <v>345</v>
       </c>
-      <c r="B393" s="9" t="s">
+      <c r="B393" s="8" t="s">
         <v>382</v>
       </c>
-      <c r="C393" s="7" t="s">
+      <c r="C393" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="394" customHeight="1" ht="18">
-      <c r="A394" s="8" t="s">
+      <c r="A394" s="7" t="s">
         <v>345</v>
       </c>
-      <c r="B394" s="9" t="s">
+      <c r="B394" s="8" t="s">
         <v>383</v>
       </c>
-      <c r="C394" s="7" t="s">
+      <c r="C394" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="395" customHeight="1" ht="18">
-      <c r="A395" s="8" t="s">
+      <c r="A395" s="7" t="s">
         <v>345</v>
       </c>
-      <c r="B395" s="9" t="s">
+      <c r="B395" s="8" t="s">
         <v>384</v>
       </c>
-      <c r="C395" s="7" t="s">
+      <c r="C395" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="396" customHeight="1" ht="18">
-      <c r="A396" s="8" t="s">
+      <c r="A396" s="7" t="s">
         <v>345</v>
       </c>
-      <c r="B396" s="9" t="s">
+      <c r="B396" s="8" t="s">
         <v>385</v>
       </c>
-      <c r="C396" s="7" t="s">
+      <c r="C396" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="397" customHeight="1" ht="18">
-      <c r="A397" s="8" t="s">
+      <c r="A397" s="7" t="s">
         <v>345</v>
       </c>
-      <c r="B397" s="9" t="s">
+      <c r="B397" s="8" t="s">
         <v>386</v>
       </c>
-      <c r="C397" s="7" t="s">
+      <c r="C397" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="398" customHeight="1" ht="18">
-      <c r="A398" s="8" t="s">
+      <c r="A398" s="7" t="s">
         <v>345</v>
       </c>
-      <c r="B398" s="9" t="s">
+      <c r="B398" s="8" t="s">
         <v>387</v>
       </c>
-      <c r="C398" s="7" t="s">
+      <c r="C398" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="399" customHeight="1" ht="18">
-      <c r="A399" s="8" t="s">
+      <c r="A399" s="7" t="s">
         <v>345</v>
       </c>
-      <c r="B399" s="9" t="s">
+      <c r="B399" s="8" t="s">
         <v>388</v>
       </c>
-      <c r="C399" s="7" t="s">
+      <c r="C399" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="400" customHeight="1" ht="18">
       <c r="A400" s="1"/>
-      <c r="B400" s="10"/>
-      <c r="C400" s="7"/>
+      <c r="B400" s="9"/>
+      <c r="C400" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="401" customHeight="1" ht="18">
       <c r="A401" s="1"/>
-      <c r="B401" s="10"/>
-      <c r="C401" s="7"/>
+      <c r="B401" s="9"/>
+      <c r="C401" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="402" customHeight="1" ht="18">
-      <c r="A402" s="8" t="s">
+      <c r="A402" s="7" t="s">
         <v>389</v>
       </c>
-      <c r="B402" s="9" t="s">
+      <c r="B402" s="8" t="s">
         <v>390</v>
       </c>
-      <c r="C402" s="7" t="s">
+      <c r="C402" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="403" customHeight="1" ht="18">
-      <c r="A403" s="8" t="s">
+      <c r="A403" s="7" t="s">
         <v>389</v>
       </c>
-      <c r="B403" s="9" t="s">
+      <c r="B403" s="8" t="s">
         <v>391</v>
       </c>
-      <c r="C403" s="7" t="s">
+      <c r="C403" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="404" customHeight="1" ht="18">
-      <c r="A404" s="8" t="s">
+      <c r="A404" s="7" t="s">
         <v>389</v>
       </c>
-      <c r="B404" s="9" t="s">
+      <c r="B404" s="8" t="s">
         <v>392</v>
       </c>
-      <c r="C404" s="7" t="s">
+      <c r="C404" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="405" customHeight="1" ht="18">
-      <c r="A405" s="8" t="s">
+      <c r="A405" s="7" t="s">
         <v>389</v>
       </c>
-      <c r="B405" s="9" t="s">
+      <c r="B405" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="C405" s="7" t="s">
+      <c r="C405" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="406" customHeight="1" ht="18">
-      <c r="A406" s="8" t="s">
+      <c r="A406" s="7" t="s">
         <v>389</v>
       </c>
-      <c r="B406" s="9" t="s">
+      <c r="B406" s="8" t="s">
         <v>393</v>
       </c>
-      <c r="C406" s="7" t="s">
+      <c r="C406" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="407" customHeight="1" ht="18">
-      <c r="A407" s="8" t="s">
+      <c r="A407" s="7" t="s">
         <v>389</v>
       </c>
-      <c r="B407" s="9" t="s">
+      <c r="B407" s="8" t="s">
         <v>394</v>
       </c>
-      <c r="C407" s="7" t="s">
+      <c r="C407" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="408" customHeight="1" ht="18">
       <c r="A408" s="1"/>
-      <c r="B408" s="10"/>
-      <c r="C408" s="7"/>
+      <c r="B408" s="9"/>
+      <c r="C408" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="409" customHeight="1" ht="18">
       <c r="A409" s="1"/>
-      <c r="B409" s="10"/>
-      <c r="C409" s="7"/>
+      <c r="B409" s="9"/>
+      <c r="C409" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="410" customHeight="1" ht="18">
-      <c r="A410" s="8" t="s">
+      <c r="A410" s="7" t="s">
         <v>395</v>
       </c>
-      <c r="B410" s="9" t="s">
+      <c r="B410" s="8" t="s">
         <v>396</v>
       </c>
-      <c r="C410" s="7" t="s">
+      <c r="C410" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="411" customHeight="1" ht="18">
-      <c r="A411" s="8" t="s">
+      <c r="A411" s="7" t="s">
         <v>395</v>
       </c>
-      <c r="B411" s="9" t="s">
+      <c r="B411" s="8" t="s">
         <v>397</v>
       </c>
-      <c r="C411" s="7" t="s">
+      <c r="C411" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="412" customHeight="1" ht="18">
-      <c r="A412" s="8" t="s">
+      <c r="A412" s="7" t="s">
         <v>395</v>
       </c>
-      <c r="B412" s="9" t="s">
+      <c r="B412" s="8" t="s">
         <v>398</v>
       </c>
-      <c r="C412" s="7" t="s">
+      <c r="C412" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="413" customHeight="1" ht="18">
-      <c r="A413" s="8" t="s">
+      <c r="A413" s="7" t="s">
         <v>395</v>
       </c>
-      <c r="B413" s="9" t="s">
+      <c r="B413" s="8" t="s">
         <v>399</v>
       </c>
-      <c r="C413" s="7" t="s">
+      <c r="C413" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="414" customHeight="1" ht="18">
-      <c r="A414" s="8" t="s">
+      <c r="A414" s="7" t="s">
         <v>395</v>
       </c>
-      <c r="B414" s="9" t="s">
+      <c r="B414" s="8" t="s">
         <v>400</v>
       </c>
-      <c r="C414" s="7" t="s">
+      <c r="C414" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="415" customHeight="1" ht="18">
-      <c r="A415" s="8" t="s">
+      <c r="A415" s="7" t="s">
         <v>395</v>
       </c>
-      <c r="B415" s="9" t="s">
+      <c r="B415" s="8" t="s">
         <v>401</v>
       </c>
-      <c r="C415" s="7" t="s">
+      <c r="C415" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="416" customHeight="1" ht="18">
-      <c r="A416" s="8" t="s">
+      <c r="A416" s="7" t="s">
         <v>395</v>
       </c>
-      <c r="B416" s="9" t="s">
+      <c r="B416" s="8" t="s">
         <v>402</v>
       </c>
-      <c r="C416" s="7" t="s">
+      <c r="C416" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="417" customHeight="1" ht="18">
-      <c r="A417" s="8" t="s">
+      <c r="A417" s="7" t="s">
         <v>395</v>
       </c>
-      <c r="B417" s="9" t="s">
+      <c r="B417" s="8" t="s">
         <v>275</v>
       </c>
-      <c r="C417" s="7" t="s">
+      <c r="C417" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="418" customHeight="1" ht="18">
-      <c r="A418" s="8" t="s">
+      <c r="A418" s="7" t="s">
         <v>395</v>
       </c>
-      <c r="B418" s="9" t="s">
+      <c r="B418" s="8" t="s">
         <v>403</v>
       </c>
-      <c r="C418" s="7" t="s">
+      <c r="C418" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="419" customHeight="1" ht="18">
-      <c r="A419" s="8" t="s">
+      <c r="A419" s="7" t="s">
         <v>395</v>
       </c>
-      <c r="B419" s="9" t="s">
+      <c r="B419" s="8" t="s">
         <v>404</v>
       </c>
-      <c r="C419" s="7" t="s">
+      <c r="C419" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="420" customHeight="1" ht="18">
-      <c r="A420" s="8" t="s">
+      <c r="A420" s="7" t="s">
         <v>395</v>
       </c>
-      <c r="B420" s="9" t="s">
+      <c r="B420" s="8" t="s">
         <v>405</v>
       </c>
-      <c r="C420" s="7" t="s">
+      <c r="C420" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="421" customHeight="1" ht="18">
-      <c r="A421" s="8" t="s">
+      <c r="A421" s="7" t="s">
         <v>395</v>
       </c>
-      <c r="B421" s="9" t="s">
+      <c r="B421" s="8" t="s">
         <v>406</v>
       </c>
-      <c r="C421" s="7" t="s">
+      <c r="C421" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="422" customHeight="1" ht="18">
-      <c r="A422" s="8" t="s">
+      <c r="A422" s="7" t="s">
         <v>395</v>
       </c>
-      <c r="B422" s="9" t="s">
+      <c r="B422" s="8" t="s">
         <v>407</v>
       </c>
-      <c r="C422" s="7" t="s">
+      <c r="C422" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="423" customHeight="1" ht="18">
-      <c r="A423" s="8" t="s">
+      <c r="A423" s="7" t="s">
         <v>395</v>
       </c>
-      <c r="B423" s="9" t="s">
+      <c r="B423" s="8" t="s">
         <v>408</v>
       </c>
-      <c r="C423" s="7" t="s">
+      <c r="C423" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="424" customHeight="1" ht="18">
-      <c r="A424" s="8" t="s">
+      <c r="A424" s="7" t="s">
         <v>395</v>
       </c>
-      <c r="B424" s="9" t="s">
+      <c r="B424" s="8" t="s">
         <v>409</v>
       </c>
-      <c r="C424" s="7" t="s">
+      <c r="C424" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="425" customHeight="1" ht="18">
-      <c r="A425" s="8" t="s">
+      <c r="A425" s="7" t="s">
         <v>395</v>
       </c>
-      <c r="B425" s="9" t="s">
+      <c r="B425" s="8" t="s">
         <v>410</v>
       </c>
-      <c r="C425" s="7" t="s">
+      <c r="C425" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="426" customHeight="1" ht="18">
-      <c r="A426" s="8" t="s">
+      <c r="A426" s="7" t="s">
         <v>395</v>
       </c>
-      <c r="B426" s="9" t="s">
+      <c r="B426" s="8" t="s">
         <v>411</v>
       </c>
-      <c r="C426" s="7" t="s">
+      <c r="C426" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="427" customHeight="1" ht="18">
-      <c r="A427" s="8" t="s">
+      <c r="A427" s="7" t="s">
         <v>395</v>
       </c>
-      <c r="B427" s="9" t="s">
+      <c r="B427" s="8" t="s">
         <v>412</v>
       </c>
-      <c r="C427" s="7" t="s">
+      <c r="C427" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="428" customHeight="1" ht="18">
-      <c r="A428" s="8" t="s">
+      <c r="A428" s="7" t="s">
         <v>395</v>
       </c>
-      <c r="B428" s="9" t="s">
+      <c r="B428" s="8" t="s">
         <v>413</v>
       </c>
-      <c r="C428" s="7" t="s">
+      <c r="C428" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="429" customHeight="1" ht="18">
-      <c r="A429" s="8" t="s">
+      <c r="A429" s="7" t="s">
         <v>395</v>
       </c>
-      <c r="B429" s="9" t="s">
+      <c r="B429" s="8" t="s">
         <v>414</v>
       </c>
-      <c r="C429" s="7" t="s">
+      <c r="C429" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="430" customHeight="1" ht="18">
-      <c r="A430" s="8" t="s">
+      <c r="A430" s="7" t="s">
         <v>395</v>
       </c>
-      <c r="B430" s="9" t="s">
+      <c r="B430" s="8" t="s">
         <v>415</v>
       </c>
-      <c r="C430" s="7" t="s">
+      <c r="C430" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="431" customHeight="1" ht="18">
-      <c r="A431" s="8" t="s">
+      <c r="A431" s="7" t="s">
         <v>395</v>
       </c>
-      <c r="B431" s="9" t="s">
+      <c r="B431" s="8" t="s">
         <v>416</v>
       </c>
-      <c r="C431" s="7" t="s">
+      <c r="C431" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="432" customHeight="1" ht="18">
-      <c r="A432" s="8" t="s">
+      <c r="A432" s="7" t="s">
         <v>395</v>
       </c>
-      <c r="B432" s="9" t="s">
+      <c r="B432" s="8" t="s">
         <v>417</v>
       </c>
-      <c r="C432" s="7" t="s">
+      <c r="C432" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="433" customHeight="1" ht="18">
-      <c r="A433" s="8" t="s">
+      <c r="A433" s="7" t="s">
         <v>395</v>
       </c>
-      <c r="B433" s="9" t="s">
+      <c r="B433" s="8" t="s">
         <v>418</v>
       </c>
-      <c r="C433" s="7" t="s">
+      <c r="C433" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="434" customHeight="1" ht="18">
-      <c r="A434" s="8" t="s">
+      <c r="A434" s="7" t="s">
         <v>395</v>
       </c>
-      <c r="B434" s="9" t="s">
+      <c r="B434" s="8" t="s">
         <v>419</v>
       </c>
-      <c r="C434" s="7" t="s">
+      <c r="C434" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="435" customHeight="1" ht="18">
-      <c r="A435" s="8" t="s">
+      <c r="A435" s="7" t="s">
         <v>395</v>
       </c>
-      <c r="B435" s="9" t="s">
+      <c r="B435" s="8" t="s">
         <v>420</v>
       </c>
-      <c r="C435" s="7" t="s">
+      <c r="C435" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="436" customHeight="1" ht="18">
-      <c r="A436" s="8" t="s">
+      <c r="A436" s="7" t="s">
         <v>395</v>
       </c>
-      <c r="B436" s="9" t="s">
+      <c r="B436" s="8" t="s">
         <v>421</v>
       </c>
-      <c r="C436" s="7" t="s">
+      <c r="C436" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="437" customHeight="1" ht="18">
-      <c r="A437" s="8" t="s">
+      <c r="A437" s="7" t="s">
         <v>395</v>
       </c>
-      <c r="B437" s="9" t="s">
+      <c r="B437" s="8" t="s">
         <v>422</v>
       </c>
-      <c r="C437" s="7" t="s">
+      <c r="C437" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="438" customHeight="1" ht="18">
-      <c r="A438" s="8" t="s">
+      <c r="A438" s="7" t="s">
         <v>395</v>
       </c>
-      <c r="B438" s="9" t="s">
+      <c r="B438" s="8" t="s">
         <v>423</v>
       </c>
-      <c r="C438" s="7" t="s">
+      <c r="C438" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="439" customHeight="1" ht="18">
-      <c r="A439" s="8" t="s">
+      <c r="A439" s="7" t="s">
         <v>395</v>
       </c>
-      <c r="B439" s="9" t="s">
+      <c r="B439" s="8" t="s">
         <v>424</v>
       </c>
-      <c r="C439" s="7" t="s">
+      <c r="C439" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="440" customHeight="1" ht="18">
-      <c r="A440" s="8" t="s">
+      <c r="A440" s="7" t="s">
         <v>395</v>
       </c>
-      <c r="B440" s="9" t="s">
+      <c r="B440" s="8" t="s">
         <v>425</v>
       </c>
-      <c r="C440" s="7" t="s">
+      <c r="C440" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="441" customHeight="1" ht="18">
-      <c r="A441" s="8" t="s">
+      <c r="A441" s="7" t="s">
         <v>395</v>
       </c>
-      <c r="B441" s="9" t="s">
+      <c r="B441" s="8" t="s">
         <v>426</v>
       </c>
-      <c r="C441" s="7" t="s">
+      <c r="C441" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="442" customHeight="1" ht="18">
-      <c r="A442" s="8" t="s">
+      <c r="A442" s="7" t="s">
         <v>395</v>
       </c>
-      <c r="B442" s="9" t="s">
+      <c r="B442" s="8" t="s">
         <v>427</v>
       </c>
-      <c r="C442" s="7" t="s">
+      <c r="C442" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="443" customHeight="1" ht="18">
-      <c r="A443" s="8" t="s">
+      <c r="A443" s="7" t="s">
         <v>395</v>
       </c>
-      <c r="B443" s="9" t="s">
+      <c r="B443" s="8" t="s">
         <v>428</v>
       </c>
-      <c r="C443" s="7" t="s">
+      <c r="C443" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="444" customHeight="1" ht="18">
-      <c r="A444" s="8" t="s">
+      <c r="A444" s="7" t="s">
         <v>395</v>
       </c>
-      <c r="B444" s="9" t="s">
+      <c r="B444" s="8" t="s">
         <v>429</v>
       </c>
-      <c r="C444" s="7" t="s">
+      <c r="C444" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="445" customHeight="1" ht="18">
-      <c r="A445" s="8" t="s">
+      <c r="A445" s="7" t="s">
         <v>395</v>
       </c>
-      <c r="B445" s="9" t="s">
+      <c r="B445" s="8" t="s">
         <v>430</v>
       </c>
-      <c r="C445" s="7" t="s">
+      <c r="C445" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="446" customHeight="1" ht="18">
-      <c r="A446" s="8" t="s">
+      <c r="A446" s="7" t="s">
         <v>395</v>
       </c>
-      <c r="B446" s="9" t="s">
+      <c r="B446" s="8" t="s">
         <v>431</v>
       </c>
-      <c r="C446" s="7" t="s">
+      <c r="C446" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="447" customHeight="1" ht="18">
-      <c r="A447" s="8" t="s">
+      <c r="A447" s="7" t="s">
         <v>395</v>
       </c>
-      <c r="B447" s="9" t="s">
+      <c r="B447" s="8" t="s">
         <v>432</v>
       </c>
-      <c r="C447" s="7" t="s">
+      <c r="C447" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="448" customHeight="1" ht="18">
-      <c r="A448" s="8" t="s">
+      <c r="A448" s="7" t="s">
         <v>395</v>
       </c>
-      <c r="B448" s="9" t="s">
+      <c r="B448" s="8" t="s">
         <v>433</v>
       </c>
-      <c r="C448" s="7" t="s">
+      <c r="C448" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="449" customHeight="1" ht="18">
-      <c r="A449" s="8" t="s">
+      <c r="A449" s="7" t="s">
         <v>395</v>
       </c>
-      <c r="B449" s="9" t="s">
+      <c r="B449" s="8" t="s">
         <v>434</v>
       </c>
-      <c r="C449" s="7" t="s">
+      <c r="C449" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="450" customHeight="1" ht="18">
-      <c r="A450" s="8" t="s">
+      <c r="A450" s="7" t="s">
         <v>395</v>
       </c>
-      <c r="B450" s="9" t="s">
+      <c r="B450" s="8" t="s">
         <v>435</v>
       </c>
-      <c r="C450" s="7" t="s">
+      <c r="C450" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="451" customHeight="1" ht="18">
-      <c r="A451" s="8" t="s">
+      <c r="A451" s="7" t="s">
         <v>395</v>
       </c>
-      <c r="B451" s="9" t="s">
+      <c r="B451" s="8" t="s">
         <v>436</v>
       </c>
-      <c r="C451" s="7" t="s">
+      <c r="C451" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="452" customHeight="1" ht="18">
-      <c r="A452" s="8" t="s">
+      <c r="A452" s="7" t="s">
         <v>395</v>
       </c>
-      <c r="B452" s="9" t="s">
+      <c r="B452" s="8" t="s">
         <v>437</v>
       </c>
-      <c r="C452" s="7" t="s">
+      <c r="C452" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="453" customHeight="1" ht="18">
-      <c r="A453" s="8" t="s">
+      <c r="A453" s="7" t="s">
         <v>395</v>
       </c>
-      <c r="B453" s="9" t="s">
+      <c r="B453" s="8" t="s">
         <v>438</v>
       </c>
-      <c r="C453" s="7" t="s">
+      <c r="C453" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="454" customHeight="1" ht="18">
-      <c r="A454" s="8" t="s">
+      <c r="A454" s="7" t="s">
         <v>395</v>
       </c>
-      <c r="B454" s="9" t="s">
+      <c r="B454" s="8" t="s">
         <v>439</v>
       </c>
-      <c r="C454" s="7" t="s">
+      <c r="C454" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="455" customHeight="1" ht="18">
-      <c r="A455" s="8" t="s">
+      <c r="A455" s="7" t="s">
         <v>395</v>
       </c>
-      <c r="B455" s="9" t="s">
+      <c r="B455" s="8" t="s">
         <v>440</v>
       </c>
-      <c r="C455" s="7" t="s">
+      <c r="C455" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="456" customHeight="1" ht="18">
-      <c r="A456" s="8" t="s">
+      <c r="A456" s="7" t="s">
         <v>395</v>
       </c>
-      <c r="B456" s="9" t="s">
+      <c r="B456" s="8" t="s">
         <v>441</v>
       </c>
-      <c r="C456" s="7" t="s">
+      <c r="C456" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="457" customHeight="1" ht="18">
-      <c r="A457" s="8" t="s">
+      <c r="A457" s="7" t="s">
         <v>395</v>
       </c>
-      <c r="B457" s="9" t="s">
+      <c r="B457" s="8" t="s">
         <v>442</v>
       </c>
-      <c r="C457" s="7" t="s">
+      <c r="C457" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="458" customHeight="1" ht="18">
-      <c r="A458" s="8" t="s">
+      <c r="A458" s="7" t="s">
         <v>395</v>
       </c>
-      <c r="B458" s="9" t="s">
+      <c r="B458" s="8" t="s">
         <v>443</v>
       </c>
-      <c r="C458" s="7" t="s">
+      <c r="C458" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="459" customHeight="1" ht="18">
-      <c r="A459" s="8" t="s">
+      <c r="A459" s="7" t="s">
         <v>395</v>
       </c>
-      <c r="B459" s="9" t="s">
+      <c r="B459" s="8" t="s">
         <v>444</v>
       </c>
-      <c r="C459" s="7" t="s">
+      <c r="C459" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="460" customHeight="1" ht="18">
-      <c r="A460" s="8" t="s">
+      <c r="A460" s="7" t="s">
         <v>395</v>
       </c>
-      <c r="B460" s="9" t="s">
+      <c r="B460" s="8" t="s">
         <v>445</v>
       </c>
-      <c r="C460" s="7" t="s">
+      <c r="C460" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="461" customHeight="1" ht="18">
-      <c r="A461" s="8" t="s">
+      <c r="A461" s="7" t="s">
         <v>395</v>
       </c>
-      <c r="B461" s="9" t="s">
+      <c r="B461" s="8" t="s">
         <v>446</v>
       </c>
-      <c r="C461" s="7" t="s">
+      <c r="C461" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="462" customHeight="1" ht="18">
-      <c r="A462" s="8" t="s">
+      <c r="A462" s="7" t="s">
         <v>395</v>
       </c>
-      <c r="B462" s="9" t="s">
+      <c r="B462" s="8" t="s">
         <v>447</v>
       </c>
-      <c r="C462" s="7" t="s">
+      <c r="C462" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="463" customHeight="1" ht="18">
-      <c r="A463" s="8" t="s">
+      <c r="A463" s="7" t="s">
         <v>395</v>
       </c>
-      <c r="B463" s="9" t="s">
+      <c r="B463" s="8" t="s">
         <v>448</v>
       </c>
-      <c r="C463" s="7" t="s">
+      <c r="C463" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="464" customHeight="1" ht="18">
-      <c r="A464" s="8" t="s">
+      <c r="A464" s="7" t="s">
         <v>395</v>
       </c>
-      <c r="B464" s="9" t="s">
+      <c r="B464" s="8" t="s">
         <v>449</v>
       </c>
-      <c r="C464" s="7" t="s">
+      <c r="C464" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="465" customHeight="1" ht="18">
-      <c r="A465" s="8" t="s">
+      <c r="A465" s="7" t="s">
         <v>395</v>
       </c>
-      <c r="B465" s="9" t="s">
+      <c r="B465" s="8" t="s">
         <v>450</v>
       </c>
-      <c r="C465" s="7" t="s">
+      <c r="C465" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="466" customHeight="1" ht="18">
-      <c r="A466" s="8" t="s">
+      <c r="A466" s="7" t="s">
         <v>395</v>
       </c>
-      <c r="B466" s="9" t="s">
+      <c r="B466" s="8" t="s">
         <v>451</v>
       </c>
-      <c r="C466" s="7" t="s">
+      <c r="C466" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="467" customHeight="1" ht="18">
-      <c r="A467" s="8" t="s">
+      <c r="A467" s="7" t="s">
         <v>395</v>
       </c>
-      <c r="B467" s="9" t="s">
+      <c r="B467" s="8" t="s">
         <v>452</v>
       </c>
-      <c r="C467" s="7" t="s">
+      <c r="C467" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="468" customHeight="1" ht="18">
-      <c r="A468" s="8" t="s">
+      <c r="A468" s="7" t="s">
         <v>395</v>
       </c>
-      <c r="B468" s="9" t="s">
+      <c r="B468" s="8" t="s">
         <v>453</v>
       </c>
-      <c r="C468" s="7" t="s">
+      <c r="C468" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="469" customHeight="1" ht="18">
-      <c r="A469" s="8" t="s">
+      <c r="A469" s="7" t="s">
         <v>395</v>
       </c>
-      <c r="B469" s="9" t="s">
+      <c r="B469" s="8" t="s">
         <v>454</v>
       </c>
-      <c r="C469" s="7" t="s">
+      <c r="C469" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="470" customHeight="1" ht="18">
       <c r="A470" s="1"/>
-      <c r="B470" s="10"/>
-      <c r="C470" s="7"/>
+      <c r="B470" s="9"/>
+      <c r="C470" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="471" customHeight="1" ht="18">
-      <c r="A471" s="8"/>
-      <c r="B471" s="10"/>
-      <c r="C471" s="7"/>
+      <c r="A471" s="7"/>
+      <c r="B471" s="9"/>
+      <c r="C471" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="472" customHeight="1" ht="18">
-      <c r="A472" s="8" t="s">
+      <c r="A472" s="7" t="s">
         <v>455</v>
       </c>
-      <c r="B472" s="9" t="s">
+      <c r="B472" s="8" t="s">
         <v>456</v>
       </c>
-      <c r="C472" s="7" t="s">
+      <c r="C472" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="473" customHeight="1" ht="18">
-      <c r="A473" s="8" t="s">
+      <c r="A473" s="7" t="s">
         <v>455</v>
       </c>
-      <c r="B473" s="9" t="s">
+      <c r="B473" s="8" t="s">
         <v>457</v>
       </c>
-      <c r="C473" s="7" t="s">
+      <c r="C473" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="474" customHeight="1" ht="18">
-      <c r="A474" s="8" t="s">
+      <c r="A474" s="7" t="s">
         <v>455</v>
       </c>
-      <c r="B474" s="9" t="s">
+      <c r="B474" s="8" t="s">
         <v>458</v>
       </c>
-      <c r="C474" s="7" t="s">
+      <c r="C474" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="475" customHeight="1" ht="18">
-      <c r="A475" s="8" t="s">
+      <c r="A475" s="7" t="s">
         <v>455</v>
       </c>
-      <c r="B475" s="9" t="s">
+      <c r="B475" s="8" t="s">
         <v>459</v>
       </c>
-      <c r="C475" s="7" t="s">
+      <c r="C475" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="476" customHeight="1" ht="18">
-      <c r="A476" s="8" t="s">
+      <c r="A476" s="7" t="s">
         <v>455</v>
       </c>
-      <c r="B476" s="9" t="s">
+      <c r="B476" s="8" t="s">
         <v>460</v>
       </c>
-      <c r="C476" s="7" t="s">
+      <c r="C476" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="477" customHeight="1" ht="18">
-      <c r="A477" s="8" t="s">
+      <c r="A477" s="7" t="s">
         <v>455</v>
       </c>
-      <c r="B477" s="9" t="s">
+      <c r="B477" s="8" t="s">
         <v>461</v>
       </c>
-      <c r="C477" s="7" t="s">
+      <c r="C477" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="478" customHeight="1" ht="18">
-      <c r="A478" s="8" t="s">
+      <c r="A478" s="7" t="s">
         <v>455</v>
       </c>
-      <c r="B478" s="9" t="s">
+      <c r="B478" s="8" t="s">
         <v>462</v>
       </c>
-      <c r="C478" s="7" t="s">
+      <c r="C478" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="479" customHeight="1" ht="18">
-      <c r="A479" s="8" t="s">
+      <c r="A479" s="7" t="s">
         <v>455</v>
       </c>
-      <c r="B479" s="9" t="s">
+      <c r="B479" s="8" t="s">
         <v>463</v>
       </c>
-      <c r="C479" s="7" t="s">
+      <c r="C479" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="480" customHeight="1" ht="18">
-      <c r="A480" s="8" t="s">
+      <c r="A480" s="7" t="s">
         <v>455</v>
       </c>
-      <c r="B480" s="9" t="s">
+      <c r="B480" s="8" t="s">
         <v>464</v>
       </c>
-      <c r="C480" s="7" t="s">
+      <c r="C480" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="481" customHeight="1" ht="18">
-      <c r="A481" s="8" t="s">
+      <c r="A481" s="7" t="s">
         <v>455</v>
       </c>
-      <c r="B481" s="9" t="s">
+      <c r="B481" s="8" t="s">
         <v>465</v>
       </c>
-      <c r="C481" s="7" t="s">
+      <c r="C481" s="1" t="s">
         <v>5</v>
       </c>
     </row>

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1352" uniqueCount="466">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1352" uniqueCount="467">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -47,6 +47,9 @@
   </si>
   <si>
     <t xml:space="preserve">Find the "Kth" max and min element of an array </t>
+  </si>
+  <si>
+    <t>Done only using brute force</t>
   </si>
   <si>
     <t>Given an array which consists of only 0, 1 and 2. Sort the array without using any sorting algo</t>
@@ -1419,7 +1422,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1444,12 +1447,6 @@
       <u/>
       <sz val="12"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -1520,22 +1517,22 @@
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="6" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="6" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="7" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="8" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -1924,7 +1921,7 @@
         <v>10</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="24">
@@ -1932,7 +1929,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>5</v>
@@ -1943,7 +1940,7 @@
         <v>6</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>5</v>
@@ -1954,7 +1951,7 @@
         <v>6</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>5</v>
@@ -1965,7 +1962,7 @@
         <v>6</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>5</v>
@@ -1976,7 +1973,7 @@
         <v>6</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>5</v>
@@ -1987,7 +1984,7 @@
         <v>6</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>5</v>
@@ -1998,7 +1995,7 @@
         <v>6</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>5</v>
@@ -2009,7 +2006,7 @@
         <v>6</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>5</v>
@@ -2020,7 +2017,7 @@
         <v>6</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>5</v>
@@ -2031,7 +2028,7 @@
         <v>6</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>5</v>
@@ -2042,7 +2039,7 @@
         <v>6</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>5</v>
@@ -2053,7 +2050,7 @@
         <v>6</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>5</v>
@@ -2064,7 +2061,7 @@
         <v>6</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>5</v>
@@ -2075,7 +2072,7 @@
         <v>6</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>5</v>
@@ -2086,7 +2083,7 @@
         <v>6</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>5</v>
@@ -2097,7 +2094,7 @@
         <v>6</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>5</v>
@@ -2108,7 +2105,7 @@
         <v>6</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>5</v>
@@ -2119,7 +2116,7 @@
         <v>6</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>5</v>
@@ -2130,7 +2127,7 @@
         <v>6</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>5</v>
@@ -2141,7 +2138,7 @@
         <v>6</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>5</v>
@@ -2152,7 +2149,7 @@
         <v>6</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>5</v>
@@ -2163,7 +2160,7 @@
         <v>6</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>5</v>
@@ -2174,7 +2171,7 @@
         <v>6</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>5</v>
@@ -2185,7 +2182,7 @@
         <v>6</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>5</v>
@@ -2196,7 +2193,7 @@
         <v>6</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>5</v>
@@ -2207,7 +2204,7 @@
         <v>6</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>5</v>
@@ -2218,7 +2215,7 @@
         <v>6</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>5</v>
@@ -2229,7 +2226,7 @@
         <v>6</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>5</v>
@@ -2240,7 +2237,7 @@
         <v>6</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>5</v>
@@ -2251,7 +2248,7 @@
         <v>6</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>5</v>
@@ -2262,7 +2259,7 @@
         <v>6</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>5</v>
@@ -2273,7 +2270,7 @@
         <v>6</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>5</v>
@@ -2284,7 +2281,7 @@
         <v>6</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>5</v>
@@ -2306,10 +2303,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="18">
       <c r="A44" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>5</v>
@@ -2317,10 +2314,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="18">
       <c r="A45" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B45" s="8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>5</v>
@@ -2328,10 +2325,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="18">
       <c r="A46" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B46" s="8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>5</v>
@@ -2339,10 +2336,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="18">
       <c r="A47" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B47" s="8" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>5</v>
@@ -2350,10 +2347,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="18">
       <c r="A48" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B48" s="8" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>5</v>
@@ -2361,10 +2358,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="18">
       <c r="A49" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B49" s="8" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>5</v>
@@ -2372,10 +2369,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="18">
       <c r="A50" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B50" s="8" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>5</v>
@@ -2383,10 +2380,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="18">
       <c r="A51" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B51" s="8" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>5</v>
@@ -2394,10 +2391,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="18">
       <c r="A52" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B52" s="8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>5</v>
@@ -2405,10 +2402,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="18">
       <c r="A53" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B53" s="8" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>5</v>
@@ -2426,10 +2423,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="18">
       <c r="A56" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B56" s="8" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>5</v>
@@ -2437,10 +2434,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="18">
       <c r="A57" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B57" s="8" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>5</v>
@@ -2448,10 +2445,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="18">
       <c r="A58" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B58" s="8" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>5</v>
@@ -2459,10 +2456,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="18">
       <c r="A59" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B59" s="9" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>5</v>
@@ -2470,10 +2467,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="18">
       <c r="A60" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B60" s="8" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>5</v>
@@ -2481,10 +2478,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="18">
       <c r="A61" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B61" s="8" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>5</v>
@@ -2492,10 +2489,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="18">
       <c r="A62" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B62" s="8" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C62" s="1" t="s">
         <v>5</v>
@@ -2503,10 +2500,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="18">
       <c r="A63" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B63" s="8" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C63" s="1" t="s">
         <v>5</v>
@@ -2514,10 +2511,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="64" customHeight="1" ht="18">
       <c r="A64" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B64" s="8" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C64" s="1" t="s">
         <v>5</v>
@@ -2525,10 +2522,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="65" customHeight="1" ht="18">
       <c r="A65" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B65" s="8" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C65" s="1" t="s">
         <v>5</v>
@@ -2536,10 +2533,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="66" customHeight="1" ht="18">
       <c r="A66" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B66" s="8" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C66" s="1" t="s">
         <v>5</v>
@@ -2547,10 +2544,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="67" customHeight="1" ht="18">
       <c r="A67" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B67" s="8" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C67" s="1" t="s">
         <v>5</v>
@@ -2558,10 +2555,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="68" customHeight="1" ht="18">
       <c r="A68" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B68" s="8" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C68" s="1" t="s">
         <v>5</v>
@@ -2569,10 +2566,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="69" customHeight="1" ht="18">
       <c r="A69" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B69" s="8" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C69" s="1" t="s">
         <v>5</v>
@@ -2580,10 +2577,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="70" customHeight="1" ht="18">
       <c r="A70" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B70" s="8" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C70" s="1" t="s">
         <v>5</v>
@@ -2591,10 +2588,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="71" customHeight="1" ht="18">
       <c r="A71" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B71" s="8" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C71" s="1" t="s">
         <v>5</v>
@@ -2602,10 +2599,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="72" customHeight="1" ht="18">
       <c r="A72" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B72" s="8" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C72" s="1" t="s">
         <v>5</v>
@@ -2613,10 +2610,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="73" customHeight="1" ht="18">
       <c r="A73" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B73" s="8" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C73" s="1" t="s">
         <v>5</v>
@@ -2624,10 +2621,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="74" customHeight="1" ht="18">
       <c r="A74" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B74" s="8" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C74" s="1" t="s">
         <v>5</v>
@@ -2635,10 +2632,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="75" customHeight="1" ht="18">
       <c r="A75" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B75" s="8" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C75" s="1" t="s">
         <v>5</v>
@@ -2646,10 +2643,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="76" customHeight="1" ht="18">
       <c r="A76" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B76" s="8" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C76" s="1" t="s">
         <v>5</v>
@@ -2657,10 +2654,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="77" customHeight="1" ht="18">
       <c r="A77" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B77" s="8" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C77" s="1" t="s">
         <v>5</v>
@@ -2668,10 +2665,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="78" customHeight="1" ht="18">
       <c r="A78" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B78" s="8" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C78" s="1" t="s">
         <v>5</v>
@@ -2679,10 +2676,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="79" customHeight="1" ht="18">
       <c r="A79" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B79" s="8" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C79" s="1" t="s">
         <v>5</v>
@@ -2690,10 +2687,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="80" customHeight="1" ht="18">
       <c r="A80" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B80" s="8" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C80" s="1" t="s">
         <v>5</v>
@@ -2701,10 +2698,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="81" customHeight="1" ht="18">
       <c r="A81" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B81" s="8" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C81" s="1" t="s">
         <v>5</v>
@@ -2712,10 +2709,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="82" customHeight="1" ht="18">
       <c r="A82" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B82" s="8" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C82" s="1" t="s">
         <v>5</v>
@@ -2723,10 +2720,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="83" customHeight="1" ht="18">
       <c r="A83" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B83" s="8" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C83" s="1" t="s">
         <v>5</v>
@@ -2734,10 +2731,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="84" customHeight="1" ht="18">
       <c r="A84" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B84" s="8" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C84" s="1" t="s">
         <v>5</v>
@@ -2745,10 +2742,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="85" customHeight="1" ht="18">
       <c r="A85" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B85" s="8" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C85" s="1" t="s">
         <v>5</v>
@@ -2756,10 +2753,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="86" customHeight="1" ht="18">
       <c r="A86" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B86" s="8" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C86" s="1" t="s">
         <v>5</v>
@@ -2767,10 +2764,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="87" customHeight="1" ht="18">
       <c r="A87" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B87" s="8" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C87" s="1" t="s">
         <v>5</v>
@@ -2778,10 +2775,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="88" customHeight="1" ht="18">
       <c r="A88" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B88" s="8" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C88" s="1" t="s">
         <v>5</v>
@@ -2789,10 +2786,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="89" customHeight="1" ht="18">
       <c r="A89" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B89" s="8" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C89" s="1" t="s">
         <v>5</v>
@@ -2800,10 +2797,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="90" customHeight="1" ht="18">
       <c r="A90" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B90" s="8" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C90" s="1" t="s">
         <v>5</v>
@@ -2811,10 +2808,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="91" customHeight="1" ht="18">
       <c r="A91" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B91" s="8" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C91" s="1" t="s">
         <v>5</v>
@@ -2822,10 +2819,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="92" customHeight="1" ht="18">
       <c r="A92" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B92" s="8" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C92" s="1" t="s">
         <v>5</v>
@@ -2833,10 +2830,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="93" customHeight="1" ht="18">
       <c r="A93" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B93" s="8" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C93" s="1" t="s">
         <v>5</v>
@@ -2844,10 +2841,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="94" customHeight="1" ht="18">
       <c r="A94" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B94" s="8" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C94" s="1" t="s">
         <v>5</v>
@@ -2855,10 +2852,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="95" customHeight="1" ht="18">
       <c r="A95" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B95" s="8" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C95" s="1" t="s">
         <v>5</v>
@@ -2866,10 +2863,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="96" customHeight="1" ht="18">
       <c r="A96" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B96" s="8" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C96" s="1" t="s">
         <v>5</v>
@@ -2877,10 +2874,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="97" customHeight="1" ht="18">
       <c r="A97" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B97" s="8" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C97" s="1" t="s">
         <v>5</v>
@@ -2888,10 +2885,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="98" customHeight="1" ht="18">
       <c r="A98" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B98" s="8" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C98" s="1" t="s">
         <v>5</v>
@@ -2909,10 +2906,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="101" customHeight="1" ht="18">
       <c r="A101" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B101" s="8" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C101" s="1" t="s">
         <v>5</v>
@@ -2920,10 +2917,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="102" customHeight="1" ht="18">
       <c r="A102" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B102" s="8" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C102" s="1" t="s">
         <v>5</v>
@@ -2931,10 +2928,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="103" customHeight="1" ht="18">
       <c r="A103" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B103" s="8" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C103" s="1" t="s">
         <v>5</v>
@@ -2942,10 +2939,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="104" customHeight="1" ht="18">
       <c r="A104" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B104" s="8" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C104" s="1" t="s">
         <v>5</v>
@@ -2953,10 +2950,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="105" customHeight="1" ht="18">
       <c r="A105" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B105" s="8" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C105" s="1" t="s">
         <v>5</v>
@@ -2964,10 +2961,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="106" customHeight="1" ht="18">
       <c r="A106" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B106" s="8" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C106" s="1" t="s">
         <v>5</v>
@@ -2975,10 +2972,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="107" customHeight="1" ht="18">
       <c r="A107" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B107" s="8" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C107" s="1" t="s">
         <v>5</v>
@@ -2986,10 +2983,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="108" customHeight="1" ht="18">
       <c r="A108" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B108" s="8" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C108" s="1" t="s">
         <v>5</v>
@@ -2997,10 +2994,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="109" customHeight="1" ht="18">
       <c r="A109" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B109" s="8" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C109" s="1" t="s">
         <v>5</v>
@@ -3008,10 +3005,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="110" customHeight="1" ht="18">
       <c r="A110" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B110" s="8" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C110" s="1" t="s">
         <v>5</v>
@@ -3019,10 +3016,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="111" customHeight="1" ht="18">
       <c r="A111" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B111" s="8" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C111" s="1" t="s">
         <v>5</v>
@@ -3030,10 +3027,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="112" customHeight="1" ht="18">
       <c r="A112" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B112" s="8" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C112" s="1" t="s">
         <v>5</v>
@@ -3041,10 +3038,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="113" customHeight="1" ht="18">
       <c r="A113" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B113" s="8" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C113" s="1" t="s">
         <v>5</v>
@@ -3052,10 +3049,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="114" customHeight="1" ht="18">
       <c r="A114" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B114" s="8" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C114" s="1" t="s">
         <v>5</v>
@@ -3063,10 +3060,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="115" customHeight="1" ht="18">
       <c r="A115" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B115" s="8" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C115" s="1" t="s">
         <v>5</v>
@@ -3074,10 +3071,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="116" customHeight="1" ht="18">
       <c r="A116" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B116" s="8" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C116" s="1" t="s">
         <v>5</v>
@@ -3085,10 +3082,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="117" customHeight="1" ht="18">
       <c r="A117" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B117" s="8" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C117" s="1" t="s">
         <v>5</v>
@@ -3096,10 +3093,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="118" customHeight="1" ht="18">
       <c r="A118" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B118" s="8" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C118" s="1" t="s">
         <v>5</v>
@@ -3107,10 +3104,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="119" customHeight="1" ht="18">
       <c r="A119" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B119" s="8" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C119" s="1" t="s">
         <v>5</v>
@@ -3118,10 +3115,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="120" customHeight="1" ht="18">
       <c r="A120" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B120" s="8" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C120" s="1" t="s">
         <v>5</v>
@@ -3129,10 +3126,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="121" customHeight="1" ht="18">
       <c r="A121" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B121" s="8" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C121" s="1" t="s">
         <v>5</v>
@@ -3140,10 +3137,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="122" customHeight="1" ht="18">
       <c r="A122" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B122" s="8" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C122" s="1" t="s">
         <v>5</v>
@@ -3151,10 +3148,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="123" customHeight="1" ht="18">
       <c r="A123" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B123" s="8" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C123" s="1" t="s">
         <v>5</v>
@@ -3162,10 +3159,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="124" customHeight="1" ht="18">
       <c r="A124" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B124" s="8" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C124" s="1" t="s">
         <v>5</v>
@@ -3173,10 +3170,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="125" customHeight="1" ht="18">
       <c r="A125" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B125" s="8" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C125" s="1" t="s">
         <v>5</v>
@@ -3184,10 +3181,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="126" customHeight="1" ht="18">
       <c r="A126" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B126" s="8" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C126" s="1" t="s">
         <v>5</v>
@@ -3195,10 +3192,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="127" customHeight="1" ht="18">
       <c r="A127" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B127" s="8" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C127" s="1" t="s">
         <v>5</v>
@@ -3206,10 +3203,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="128" customHeight="1" ht="18">
       <c r="A128" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B128" s="8" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C128" s="1" t="s">
         <v>5</v>
@@ -3217,10 +3214,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="129" customHeight="1" ht="18">
       <c r="A129" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B129" s="8" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C129" s="1" t="s">
         <v>5</v>
@@ -3228,10 +3225,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="130" customHeight="1" ht="18">
       <c r="A130" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B130" s="8" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C130" s="1" t="s">
         <v>5</v>
@@ -3239,10 +3236,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="131" customHeight="1" ht="18">
       <c r="A131" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B131" s="8" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C131" s="1" t="s">
         <v>5</v>
@@ -3250,10 +3247,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="132" customHeight="1" ht="18">
       <c r="A132" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B132" s="8" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C132" s="1" t="s">
         <v>5</v>
@@ -3261,10 +3258,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="133" customHeight="1" ht="18">
       <c r="A133" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B133" s="8" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C133" s="1" t="s">
         <v>5</v>
@@ -3272,10 +3269,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="134" customHeight="1" ht="18">
       <c r="A134" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B134" s="8" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C134" s="1" t="s">
         <v>5</v>
@@ -3283,10 +3280,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="135" customHeight="1" ht="18">
       <c r="A135" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B135" s="8" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C135" s="1" t="s">
         <v>5</v>
@@ -3294,10 +3291,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="136" customHeight="1" ht="18">
       <c r="A136" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B136" s="8" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C136" s="1" t="s">
         <v>5</v>
@@ -3315,10 +3312,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="139" customHeight="1" ht="18">
       <c r="A139" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B139" s="8" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C139" s="1" t="s">
         <v>5</v>
@@ -3326,10 +3323,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="140" customHeight="1" ht="18">
       <c r="A140" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B140" s="8" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C140" s="1" t="s">
         <v>5</v>
@@ -3337,10 +3334,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="141" customHeight="1" ht="18">
       <c r="A141" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B141" s="8" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C141" s="1" t="s">
         <v>5</v>
@@ -3348,10 +3345,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="142" customHeight="1" ht="18">
       <c r="A142" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B142" s="8" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C142" s="1" t="s">
         <v>5</v>
@@ -3359,10 +3356,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="143" customHeight="1" ht="18">
       <c r="A143" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B143" s="8" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C143" s="1" t="s">
         <v>5</v>
@@ -3370,10 +3367,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="144" customHeight="1" ht="18">
       <c r="A144" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B144" s="8" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C144" s="1" t="s">
         <v>5</v>
@@ -3381,10 +3378,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="145" customHeight="1" ht="18">
       <c r="A145" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B145" s="8" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C145" s="1" t="s">
         <v>5</v>
@@ -3392,10 +3389,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="146" customHeight="1" ht="18">
       <c r="A146" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B146" s="8" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C146" s="1" t="s">
         <v>5</v>
@@ -3403,10 +3400,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="147" customHeight="1" ht="18">
       <c r="A147" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B147" s="8" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C147" s="1" t="s">
         <v>5</v>
@@ -3414,10 +3411,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="148" customHeight="1" ht="18">
       <c r="A148" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B148" s="8" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C148" s="1" t="s">
         <v>5</v>
@@ -3425,10 +3422,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="149" customHeight="1" ht="18">
       <c r="A149" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B149" s="8" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C149" s="1" t="s">
         <v>5</v>
@@ -3436,10 +3433,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="150" customHeight="1" ht="18">
       <c r="A150" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B150" s="8" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C150" s="1" t="s">
         <v>5</v>
@@ -3447,10 +3444,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="151" customHeight="1" ht="18">
       <c r="A151" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B151" s="8" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C151" s="1" t="s">
         <v>5</v>
@@ -3458,10 +3455,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="152" customHeight="1" ht="18">
       <c r="A152" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B152" s="8" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C152" s="1" t="s">
         <v>5</v>
@@ -3469,10 +3466,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="153" customHeight="1" ht="18">
       <c r="A153" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B153" s="8" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C153" s="1" t="s">
         <v>5</v>
@@ -3480,10 +3477,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="154" customHeight="1" ht="18">
       <c r="A154" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B154" s="8" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C154" s="1" t="s">
         <v>5</v>
@@ -3491,10 +3488,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="155" customHeight="1" ht="18">
       <c r="A155" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B155" s="8" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C155" s="1" t="s">
         <v>5</v>
@@ -3502,10 +3499,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="156" customHeight="1" ht="18">
       <c r="A156" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B156" s="8" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C156" s="1" t="s">
         <v>5</v>
@@ -3513,10 +3510,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="157" customHeight="1" ht="18">
       <c r="A157" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B157" s="8" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C157" s="1" t="s">
         <v>5</v>
@@ -3524,10 +3521,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="158" customHeight="1" ht="18">
       <c r="A158" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B158" s="8" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C158" s="1" t="s">
         <v>5</v>
@@ -3535,10 +3532,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="159" customHeight="1" ht="18">
       <c r="A159" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B159" s="8" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C159" s="1" t="s">
         <v>5</v>
@@ -3546,10 +3543,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="160" customHeight="1" ht="18">
       <c r="A160" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B160" s="8" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C160" s="1" t="s">
         <v>5</v>
@@ -3557,10 +3554,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="161" customHeight="1" ht="18">
       <c r="A161" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B161" s="8" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C161" s="1" t="s">
         <v>5</v>
@@ -3568,10 +3565,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="162" customHeight="1" ht="18">
       <c r="A162" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B162" s="8" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C162" s="1" t="s">
         <v>5</v>
@@ -3579,10 +3576,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="163" customHeight="1" ht="18">
       <c r="A163" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B163" s="8" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C163" s="1" t="s">
         <v>5</v>
@@ -3590,10 +3587,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="164" customHeight="1" ht="18">
       <c r="A164" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B164" s="9" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C164" s="1" t="s">
         <v>5</v>
@@ -3601,10 +3598,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="165" customHeight="1" ht="18">
       <c r="A165" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B165" s="9" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C165" s="1" t="s">
         <v>5</v>
@@ -3612,10 +3609,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="166" customHeight="1" ht="18">
       <c r="A166" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B166" s="8" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C166" s="1" t="s">
         <v>5</v>
@@ -3623,10 +3620,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="167" customHeight="1" ht="18">
       <c r="A167" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B167" s="8" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C167" s="1" t="s">
         <v>5</v>
@@ -3634,10 +3631,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="168" customHeight="1" ht="18">
       <c r="A168" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B168" s="8" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C168" s="1" t="s">
         <v>5</v>
@@ -3645,10 +3642,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="169" customHeight="1" ht="18">
       <c r="A169" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B169" s="8" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C169" s="1" t="s">
         <v>5</v>
@@ -3656,10 +3653,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="170" customHeight="1" ht="18">
       <c r="A170" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B170" s="8" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C170" s="1" t="s">
         <v>5</v>
@@ -3667,10 +3664,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="171" customHeight="1" ht="18">
       <c r="A171" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B171" s="8" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C171" s="1" t="s">
         <v>5</v>
@@ -3678,10 +3675,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="172" customHeight="1" ht="18">
       <c r="A172" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B172" s="8" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C172" s="1" t="s">
         <v>5</v>
@@ -3689,10 +3686,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="173" customHeight="1" ht="18">
       <c r="A173" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B173" s="8" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C173" s="1" t="s">
         <v>5</v>
@@ -3700,10 +3697,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="174" customHeight="1" ht="18">
       <c r="A174" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B174" s="8" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C174" s="1" t="s">
         <v>5</v>
@@ -3721,10 +3718,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="177" customHeight="1" ht="18">
       <c r="A177" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B177" s="8" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C177" s="1" t="s">
         <v>5</v>
@@ -3732,10 +3729,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="178" customHeight="1" ht="18">
       <c r="A178" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B178" s="8" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C178" s="1" t="s">
         <v>5</v>
@@ -3743,10 +3740,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="179" customHeight="1" ht="18">
       <c r="A179" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B179" s="8" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C179" s="1" t="s">
         <v>5</v>
@@ -3754,10 +3751,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="180" customHeight="1" ht="18">
       <c r="A180" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B180" s="8" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C180" s="1" t="s">
         <v>5</v>
@@ -3765,10 +3762,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="181" customHeight="1" ht="18">
       <c r="A181" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B181" s="8" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C181" s="1" t="s">
         <v>5</v>
@@ -3776,10 +3773,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="182" customHeight="1" ht="18">
       <c r="A182" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B182" s="8" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C182" s="1" t="s">
         <v>5</v>
@@ -3787,10 +3784,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="183" customHeight="1" ht="18">
       <c r="A183" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B183" s="8" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C183" s="1" t="s">
         <v>5</v>
@@ -3798,10 +3795,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="184" customHeight="1" ht="18">
       <c r="A184" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B184" s="8" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C184" s="1" t="s">
         <v>5</v>
@@ -3809,10 +3806,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="185" customHeight="1" ht="18">
       <c r="A185" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B185" s="8" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C185" s="1" t="s">
         <v>5</v>
@@ -3820,10 +3817,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="186" customHeight="1" ht="18">
       <c r="A186" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B186" s="8" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C186" s="1" t="s">
         <v>5</v>
@@ -3831,10 +3828,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="187" customHeight="1" ht="18">
       <c r="A187" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B187" s="8" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C187" s="1" t="s">
         <v>5</v>
@@ -3842,10 +3839,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="188" customHeight="1" ht="18">
       <c r="A188" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B188" s="8" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C188" s="1" t="s">
         <v>5</v>
@@ -3853,10 +3850,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="189" customHeight="1" ht="18">
       <c r="A189" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B189" s="8" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C189" s="1" t="s">
         <v>5</v>
@@ -3864,10 +3861,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="190" customHeight="1" ht="18">
       <c r="A190" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B190" s="8" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C190" s="1" t="s">
         <v>5</v>
@@ -3875,10 +3872,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="191" customHeight="1" ht="18">
       <c r="A191" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B191" s="8" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C191" s="1" t="s">
         <v>5</v>
@@ -3886,10 +3883,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="192" customHeight="1" ht="18">
       <c r="A192" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B192" s="8" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C192" s="1" t="s">
         <v>5</v>
@@ -3897,10 +3894,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="193" customHeight="1" ht="18">
       <c r="A193" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B193" s="8" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C193" s="1" t="s">
         <v>5</v>
@@ -3908,10 +3905,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="194" customHeight="1" ht="18">
       <c r="A194" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B194" s="8" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C194" s="1" t="s">
         <v>5</v>
@@ -3919,10 +3916,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="195" customHeight="1" ht="18">
       <c r="A195" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B195" s="8" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C195" s="1" t="s">
         <v>5</v>
@@ -3930,10 +3927,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="196" customHeight="1" ht="18">
       <c r="A196" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B196" s="8" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C196" s="1" t="s">
         <v>5</v>
@@ -3941,10 +3938,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="197" customHeight="1" ht="18">
       <c r="A197" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B197" s="8" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C197" s="1" t="s">
         <v>5</v>
@@ -3952,10 +3949,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="198" customHeight="1" ht="18">
       <c r="A198" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B198" s="8" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C198" s="1" t="s">
         <v>5</v>
@@ -3963,10 +3960,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="199" customHeight="1" ht="18">
       <c r="A199" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B199" s="8" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C199" s="1" t="s">
         <v>5</v>
@@ -3974,10 +3971,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="200" customHeight="1" ht="18">
       <c r="A200" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B200" s="8" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C200" s="1" t="s">
         <v>5</v>
@@ -3985,10 +3982,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="201" customHeight="1" ht="18">
       <c r="A201" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B201" s="8" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C201" s="1" t="s">
         <v>5</v>
@@ -3996,10 +3993,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="202" customHeight="1" ht="18">
       <c r="A202" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B202" s="8" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C202" s="1" t="s">
         <v>5</v>
@@ -4007,10 +4004,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="203" customHeight="1" ht="18">
       <c r="A203" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B203" s="8" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C203" s="1" t="s">
         <v>5</v>
@@ -4018,10 +4015,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="204" customHeight="1" ht="18">
       <c r="A204" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B204" s="8" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C204" s="1" t="s">
         <v>5</v>
@@ -4029,10 +4026,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="205" customHeight="1" ht="18">
       <c r="A205" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B205" s="8" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C205" s="1" t="s">
         <v>5</v>
@@ -4040,10 +4037,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="206" customHeight="1" ht="18">
       <c r="A206" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B206" s="8" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C206" s="1" t="s">
         <v>5</v>
@@ -4051,10 +4048,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="207" customHeight="1" ht="18">
       <c r="A207" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B207" s="8" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C207" s="1" t="s">
         <v>5</v>
@@ -4062,10 +4059,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="208" customHeight="1" ht="18">
       <c r="A208" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B208" s="8" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C208" s="1" t="s">
         <v>5</v>
@@ -4073,10 +4070,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="209" customHeight="1" ht="18">
       <c r="A209" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B209" s="8" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C209" s="1" t="s">
         <v>5</v>
@@ -4084,10 +4081,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="210" customHeight="1" ht="18">
       <c r="A210" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B210" s="8" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C210" s="1" t="s">
         <v>5</v>
@@ -4095,10 +4092,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="211" customHeight="1" ht="18">
       <c r="A211" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B211" s="8" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C211" s="1" t="s">
         <v>5</v>
@@ -4116,10 +4113,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="214" customHeight="1" ht="18">
       <c r="A214" s="7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B214" s="8" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C214" s="1" t="s">
         <v>5</v>
@@ -4127,10 +4124,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="215" customHeight="1" ht="18">
       <c r="A215" s="7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B215" s="8" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C215" s="1" t="s">
         <v>5</v>
@@ -4138,10 +4135,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="216" customHeight="1" ht="18">
       <c r="A216" s="7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B216" s="8" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C216" s="1" t="s">
         <v>5</v>
@@ -4149,10 +4146,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="217" customHeight="1" ht="18">
       <c r="A217" s="7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B217" s="8" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C217" s="1" t="s">
         <v>5</v>
@@ -4160,10 +4157,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="218" customHeight="1" ht="18">
       <c r="A218" s="7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B218" s="8" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C218" s="1" t="s">
         <v>5</v>
@@ -4171,10 +4168,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="219" customHeight="1" ht="18">
       <c r="A219" s="7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B219" s="8" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C219" s="1" t="s">
         <v>5</v>
@@ -4182,10 +4179,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="220" customHeight="1" ht="18">
       <c r="A220" s="7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B220" s="8" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C220" s="1" t="s">
         <v>5</v>
@@ -4193,10 +4190,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="221" customHeight="1" ht="18">
       <c r="A221" s="7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B221" s="8" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C221" s="1" t="s">
         <v>5</v>
@@ -4204,10 +4201,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="222" customHeight="1" ht="18">
       <c r="A222" s="7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B222" s="8" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C222" s="1" t="s">
         <v>5</v>
@@ -4215,10 +4212,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="223" customHeight="1" ht="18">
       <c r="A223" s="7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B223" s="8" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C223" s="1" t="s">
         <v>5</v>
@@ -4226,10 +4223,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="224" customHeight="1" ht="18">
       <c r="A224" s="7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B224" s="8" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C224" s="1" t="s">
         <v>5</v>
@@ -4237,10 +4234,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="225" customHeight="1" ht="18">
       <c r="A225" s="7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B225" s="8" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C225" s="1" t="s">
         <v>5</v>
@@ -4248,10 +4245,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="226" customHeight="1" ht="18">
       <c r="A226" s="7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B226" s="8" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C226" s="1" t="s">
         <v>5</v>
@@ -4259,10 +4256,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="227" customHeight="1" ht="18">
       <c r="A227" s="7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B227" s="8" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C227" s="1" t="s">
         <v>5</v>
@@ -4270,10 +4267,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="228" customHeight="1" ht="18">
       <c r="A228" s="7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B228" s="8" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C228" s="1" t="s">
         <v>5</v>
@@ -4281,10 +4278,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="229" customHeight="1" ht="18">
       <c r="A229" s="7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B229" s="8" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C229" s="1" t="s">
         <v>5</v>
@@ -4292,10 +4289,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="230" customHeight="1" ht="18">
       <c r="A230" s="7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B230" s="8" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C230" s="1" t="s">
         <v>5</v>
@@ -4303,10 +4300,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="231" customHeight="1" ht="18">
       <c r="A231" s="7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B231" s="8" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C231" s="1" t="s">
         <v>5</v>
@@ -4314,10 +4311,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="232" customHeight="1" ht="18">
       <c r="A232" s="7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B232" s="8" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C232" s="1" t="s">
         <v>5</v>
@@ -4325,10 +4322,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="233" customHeight="1" ht="18">
       <c r="A233" s="7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B233" s="8" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C233" s="1" t="s">
         <v>5</v>
@@ -4336,10 +4333,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="234" customHeight="1" ht="18">
       <c r="A234" s="7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B234" s="8" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C234" s="1" t="s">
         <v>5</v>
@@ -4347,10 +4344,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="235" customHeight="1" ht="18">
       <c r="A235" s="7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B235" s="8" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C235" s="1" t="s">
         <v>5</v>
@@ -4368,10 +4365,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="238" customHeight="1" ht="18">
       <c r="A238" s="7" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B238" s="8" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C238" s="1" t="s">
         <v>5</v>
@@ -4379,10 +4376,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="239" customHeight="1" ht="18">
       <c r="A239" s="7" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B239" s="8" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C239" s="1" t="s">
         <v>5</v>
@@ -4390,10 +4387,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="240" customHeight="1" ht="18">
       <c r="A240" s="7" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B240" s="8" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C240" s="1" t="s">
         <v>5</v>
@@ -4401,10 +4398,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="241" customHeight="1" ht="18">
       <c r="A241" s="7" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B241" s="8" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C241" s="1" t="s">
         <v>5</v>
@@ -4412,10 +4409,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="242" customHeight="1" ht="18">
       <c r="A242" s="7" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B242" s="8" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C242" s="1" t="s">
         <v>5</v>
@@ -4423,10 +4420,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="243" customHeight="1" ht="18">
       <c r="A243" s="7" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B243" s="8" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C243" s="1" t="s">
         <v>5</v>
@@ -4434,10 +4431,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="244" customHeight="1" ht="18">
       <c r="A244" s="7" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B244" s="8" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C244" s="1" t="s">
         <v>5</v>
@@ -4445,10 +4442,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="245" customHeight="1" ht="18">
       <c r="A245" s="7" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B245" s="8" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C245" s="1" t="s">
         <v>5</v>
@@ -4456,10 +4453,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="246" customHeight="1" ht="18">
       <c r="A246" s="7" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B246" s="8" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C246" s="1" t="s">
         <v>5</v>
@@ -4467,10 +4464,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="247" customHeight="1" ht="18">
       <c r="A247" s="7" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B247" s="8" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C247" s="1" t="s">
         <v>5</v>
@@ -4478,10 +4475,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="248" customHeight="1" ht="18">
       <c r="A248" s="7" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B248" s="8" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C248" s="1" t="s">
         <v>5</v>
@@ -4489,10 +4486,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="249" customHeight="1" ht="18">
       <c r="A249" s="7" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B249" s="8" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C249" s="1" t="s">
         <v>5</v>
@@ -4500,10 +4497,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="250" customHeight="1" ht="18">
       <c r="A250" s="7" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B250" s="8" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C250" s="1" t="s">
         <v>5</v>
@@ -4511,10 +4508,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="251" customHeight="1" ht="18">
       <c r="A251" s="7" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B251" s="8" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C251" s="1" t="s">
         <v>5</v>
@@ -4522,10 +4519,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="252" customHeight="1" ht="18">
       <c r="A252" s="7" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B252" s="8" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C252" s="1" t="s">
         <v>5</v>
@@ -4533,10 +4530,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="253" customHeight="1" ht="18">
       <c r="A253" s="7" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B253" s="8" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C253" s="1" t="s">
         <v>5</v>
@@ -4544,10 +4541,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="254" customHeight="1" ht="18">
       <c r="A254" s="7" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B254" s="8" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C254" s="1" t="s">
         <v>5</v>
@@ -4555,10 +4552,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="255" customHeight="1" ht="18">
       <c r="A255" s="7" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B255" s="8" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C255" s="1" t="s">
         <v>5</v>
@@ -4566,10 +4563,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="256" customHeight="1" ht="18">
       <c r="A256" s="7" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B256" s="8" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C256" s="1" t="s">
         <v>5</v>
@@ -4577,10 +4574,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="257" customHeight="1" ht="18">
       <c r="A257" s="7" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B257" s="8" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C257" s="1" t="s">
         <v>5</v>
@@ -4588,10 +4585,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="258" customHeight="1" ht="18">
       <c r="A258" s="7" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B258" s="8" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C258" s="1" t="s">
         <v>5</v>
@@ -4599,10 +4596,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="259" customHeight="1" ht="18">
       <c r="A259" s="7" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B259" s="8" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C259" s="1" t="s">
         <v>5</v>
@@ -4610,10 +4607,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="260" customHeight="1" ht="18">
       <c r="A260" s="7" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B260" s="8" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C260" s="1" t="s">
         <v>5</v>
@@ -4621,10 +4618,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="261" customHeight="1" ht="18">
       <c r="A261" s="7" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B261" s="8" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C261" s="1" t="s">
         <v>5</v>
@@ -4632,10 +4629,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="262" customHeight="1" ht="18">
       <c r="A262" s="7" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B262" s="8" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C262" s="1" t="s">
         <v>5</v>
@@ -4643,10 +4640,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="263" customHeight="1" ht="18">
       <c r="A263" s="7" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B263" s="8" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C263" s="1" t="s">
         <v>5</v>
@@ -4654,10 +4651,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="264" customHeight="1" ht="18">
       <c r="A264" s="7" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B264" s="8" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C264" s="1" t="s">
         <v>5</v>
@@ -4665,10 +4662,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="265" customHeight="1" ht="18">
       <c r="A265" s="7" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B265" s="8" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C265" s="1" t="s">
         <v>5</v>
@@ -4676,10 +4673,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="266" customHeight="1" ht="18">
       <c r="A266" s="7" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B266" s="8" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C266" s="1" t="s">
         <v>5</v>
@@ -4687,10 +4684,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="267" customHeight="1" ht="18">
       <c r="A267" s="7" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B267" s="8" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C267" s="1" t="s">
         <v>5</v>
@@ -4698,10 +4695,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="268" customHeight="1" ht="18">
       <c r="A268" s="7" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B268" s="8" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C268" s="1" t="s">
         <v>5</v>
@@ -4709,10 +4706,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="269" customHeight="1" ht="18">
       <c r="A269" s="7" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B269" s="8" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C269" s="1" t="s">
         <v>5</v>
@@ -4720,10 +4717,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="270" customHeight="1" ht="18">
       <c r="A270" s="7" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B270" s="8" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C270" s="1" t="s">
         <v>5</v>
@@ -4731,10 +4728,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="271" customHeight="1" ht="18">
       <c r="A271" s="7" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B271" s="8" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C271" s="1" t="s">
         <v>5</v>
@@ -4742,10 +4739,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="272" customHeight="1" ht="18">
       <c r="A272" s="7" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B272" s="8" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C272" s="1" t="s">
         <v>5</v>
@@ -4763,10 +4760,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="275" customHeight="1" ht="18">
       <c r="A275" s="7" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B275" s="8" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C275" s="1" t="s">
         <v>5</v>
@@ -4774,10 +4771,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="276" customHeight="1" ht="18">
       <c r="A276" s="7" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B276" s="8" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C276" s="1" t="s">
         <v>5</v>
@@ -4785,10 +4782,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="277" customHeight="1" ht="18">
       <c r="A277" s="7" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B277" s="8" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C277" s="1" t="s">
         <v>5</v>
@@ -4796,10 +4793,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="278" customHeight="1" ht="18">
       <c r="A278" s="7" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B278" s="8" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C278" s="1" t="s">
         <v>5</v>
@@ -4807,10 +4804,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="279" customHeight="1" ht="18">
       <c r="A279" s="7" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B279" s="8" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C279" s="1" t="s">
         <v>5</v>
@@ -4818,10 +4815,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="280" customHeight="1" ht="18">
       <c r="A280" s="7" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B280" s="8" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C280" s="1" t="s">
         <v>5</v>
@@ -4829,10 +4826,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="281" customHeight="1" ht="18">
       <c r="A281" s="7" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B281" s="8" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C281" s="1" t="s">
         <v>5</v>
@@ -4840,10 +4837,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="282" customHeight="1" ht="18">
       <c r="A282" s="7" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B282" s="8" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C282" s="1" t="s">
         <v>5</v>
@@ -4851,10 +4848,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="283" customHeight="1" ht="18">
       <c r="A283" s="7" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B283" s="8" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C283" s="1" t="s">
         <v>5</v>
@@ -4862,10 +4859,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="284" customHeight="1" ht="18">
       <c r="A284" s="7" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B284" s="8" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C284" s="1" t="s">
         <v>5</v>
@@ -4873,10 +4870,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="285" customHeight="1" ht="18">
       <c r="A285" s="7" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B285" s="8" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C285" s="1" t="s">
         <v>5</v>
@@ -4884,10 +4881,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="286" customHeight="1" ht="18">
       <c r="A286" s="7" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B286" s="8" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C286" s="1" t="s">
         <v>5</v>
@@ -4895,10 +4892,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="287" customHeight="1" ht="18">
       <c r="A287" s="7" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B287" s="8" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C287" s="1" t="s">
         <v>5</v>
@@ -4906,10 +4903,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="288" customHeight="1" ht="18">
       <c r="A288" s="7" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B288" s="8" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C288" s="1" t="s">
         <v>5</v>
@@ -4917,10 +4914,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="289" customHeight="1" ht="18">
       <c r="A289" s="7" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B289" s="8" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C289" s="1" t="s">
         <v>5</v>
@@ -4928,10 +4925,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="290" customHeight="1" ht="18">
       <c r="A290" s="7" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B290" s="8" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C290" s="1" t="s">
         <v>5</v>
@@ -4939,10 +4936,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="291" customHeight="1" ht="18">
       <c r="A291" s="7" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B291" s="8" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C291" s="1" t="s">
         <v>5</v>
@@ -4950,10 +4947,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="292" customHeight="1" ht="18">
       <c r="A292" s="7" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B292" s="8" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C292" s="1" t="s">
         <v>5</v>
@@ -4961,10 +4958,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="293" customHeight="1" ht="18">
       <c r="A293" s="7" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B293" s="8" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C293" s="1" t="s">
         <v>5</v>
@@ -4982,10 +4979,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="296" customHeight="1" ht="18">
       <c r="A296" s="7" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B296" s="8" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C296" s="1" t="s">
         <v>5</v>
@@ -4993,10 +4990,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="297" customHeight="1" ht="18">
       <c r="A297" s="7" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B297" s="8" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C297" s="1" t="s">
         <v>5</v>
@@ -5004,10 +5001,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="298" customHeight="1" ht="18">
       <c r="A298" s="7" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B298" s="8" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C298" s="1" t="s">
         <v>5</v>
@@ -5015,10 +5012,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="299" customHeight="1" ht="18">
       <c r="A299" s="7" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B299" s="8" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C299" s="1" t="s">
         <v>5</v>
@@ -5026,10 +5023,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="300" customHeight="1" ht="18">
       <c r="A300" s="7" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B300" s="8" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C300" s="1" t="s">
         <v>5</v>
@@ -5037,10 +5034,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="301" customHeight="1" ht="18">
       <c r="A301" s="7" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B301" s="8" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C301" s="1" t="s">
         <v>5</v>
@@ -5048,10 +5045,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="302" customHeight="1" ht="18">
       <c r="A302" s="7" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B302" s="8" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C302" s="1" t="s">
         <v>5</v>
@@ -5059,10 +5056,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="303" customHeight="1" ht="18">
       <c r="A303" s="7" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B303" s="8" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C303" s="1" t="s">
         <v>5</v>
@@ -5070,10 +5067,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="304" customHeight="1" ht="18">
       <c r="A304" s="7" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B304" s="8" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C304" s="1" t="s">
         <v>5</v>
@@ -5081,10 +5078,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="305" customHeight="1" ht="18">
       <c r="A305" s="7" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B305" s="8" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="C305" s="1" t="s">
         <v>5</v>
@@ -5092,10 +5089,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="306" customHeight="1" ht="18">
       <c r="A306" s="7" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B306" s="8" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C306" s="1" t="s">
         <v>5</v>
@@ -5103,10 +5100,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="307" customHeight="1" ht="18">
       <c r="A307" s="7" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B307" s="8" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C307" s="1" t="s">
         <v>5</v>
@@ -5114,10 +5111,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="308" customHeight="1" ht="18">
       <c r="A308" s="7" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B308" s="8" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C308" s="1" t="s">
         <v>5</v>
@@ -5125,10 +5122,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="309" customHeight="1" ht="18">
       <c r="A309" s="7" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B309" s="8" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C309" s="1" t="s">
         <v>5</v>
@@ -5136,10 +5133,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="310" customHeight="1" ht="18">
       <c r="A310" s="7" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B310" s="8" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C310" s="1" t="s">
         <v>5</v>
@@ -5147,10 +5144,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="311" customHeight="1" ht="18">
       <c r="A311" s="7" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B311" s="8" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C311" s="1" t="s">
         <v>5</v>
@@ -5158,10 +5155,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="312" customHeight="1" ht="18">
       <c r="A312" s="7" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B312" s="8" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C312" s="1" t="s">
         <v>5</v>
@@ -5169,10 +5166,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="313" customHeight="1" ht="18">
       <c r="A313" s="7" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B313" s="8" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C313" s="1" t="s">
         <v>5</v>
@@ -5180,10 +5177,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="314" customHeight="1" ht="18">
       <c r="A314" s="7" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B314" s="8" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C314" s="1" t="s">
         <v>5</v>
@@ -5191,10 +5188,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="315" customHeight="1" ht="18">
       <c r="A315" s="7" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B315" s="8" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="C315" s="1" t="s">
         <v>5</v>
@@ -5202,10 +5199,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="316" customHeight="1" ht="18">
       <c r="A316" s="7" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B316" s="8" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C316" s="1" t="s">
         <v>5</v>
@@ -5213,10 +5210,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="317" customHeight="1" ht="18">
       <c r="A317" s="7" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B317" s="8" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="C317" s="1" t="s">
         <v>5</v>
@@ -5224,10 +5221,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="318" customHeight="1" ht="18">
       <c r="A318" s="7" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B318" s="8" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C318" s="1" t="s">
         <v>5</v>
@@ -5235,10 +5232,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="319" customHeight="1" ht="18">
       <c r="A319" s="7" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B319" s="8" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C319" s="1" t="s">
         <v>5</v>
@@ -5246,10 +5243,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="320" customHeight="1" ht="18">
       <c r="A320" s="7" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B320" s="8" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="C320" s="1" t="s">
         <v>5</v>
@@ -5257,10 +5254,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="321" customHeight="1" ht="18">
       <c r="A321" s="7" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B321" s="8" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="C321" s="1" t="s">
         <v>5</v>
@@ -5268,10 +5265,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="322" customHeight="1" ht="18">
       <c r="A322" s="7" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B322" s="8" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C322" s="1" t="s">
         <v>5</v>
@@ -5279,10 +5276,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="323" customHeight="1" ht="18">
       <c r="A323" s="7" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B323" s="8" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="C323" s="1" t="s">
         <v>5</v>
@@ -5290,10 +5287,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="324" customHeight="1" ht="18">
       <c r="A324" s="7" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B324" s="8" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="C324" s="1" t="s">
         <v>5</v>
@@ -5301,10 +5298,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="325" customHeight="1" ht="18">
       <c r="A325" s="7" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B325" s="8" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C325" s="1" t="s">
         <v>5</v>
@@ -5312,10 +5309,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="326" customHeight="1" ht="18">
       <c r="A326" s="7" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B326" s="8" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C326" s="1" t="s">
         <v>5</v>
@@ -5323,10 +5320,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="327" customHeight="1" ht="18">
       <c r="A327" s="7" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B327" s="8" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="C327" s="1" t="s">
         <v>5</v>
@@ -5334,10 +5331,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="328" customHeight="1" ht="18">
       <c r="A328" s="7" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B328" s="8" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C328" s="1" t="s">
         <v>5</v>
@@ -5345,10 +5342,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="329" customHeight="1" ht="18">
       <c r="A329" s="7" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B329" s="8" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C329" s="1" t="s">
         <v>5</v>
@@ -5356,10 +5353,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="330" customHeight="1" ht="18">
       <c r="A330" s="7" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B330" s="8" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="C330" s="1" t="s">
         <v>5</v>
@@ -5367,10 +5364,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="331" customHeight="1" ht="18">
       <c r="A331" s="7" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B331" s="8" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="C331" s="1" t="s">
         <v>5</v>
@@ -5378,10 +5375,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="332" customHeight="1" ht="18">
       <c r="A332" s="7" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B332" s="8" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C332" s="1" t="s">
         <v>5</v>
@@ -5389,10 +5386,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="333" customHeight="1" ht="18">
       <c r="A333" s="7" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B333" s="8" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="C333" s="1" t="s">
         <v>5</v>
@@ -5410,10 +5407,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="336" customHeight="1" ht="18">
       <c r="A336" s="7" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B336" s="8" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="C336" s="1" t="s">
         <v>5</v>
@@ -5421,10 +5418,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="337" customHeight="1" ht="18">
       <c r="A337" s="7" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B337" s="8" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C337" s="1" t="s">
         <v>5</v>
@@ -5432,10 +5429,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="338" customHeight="1" ht="18">
       <c r="A338" s="7" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B338" s="8" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="C338" s="1" t="s">
         <v>5</v>
@@ -5443,10 +5440,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="339" customHeight="1" ht="18">
       <c r="A339" s="7" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B339" s="8" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="C339" s="1" t="s">
         <v>5</v>
@@ -5454,10 +5451,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="340" customHeight="1" ht="18">
       <c r="A340" s="7" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B340" s="8" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="C340" s="1" t="s">
         <v>5</v>
@@ -5465,10 +5462,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="341" customHeight="1" ht="18">
       <c r="A341" s="7" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B341" s="8" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C341" s="1" t="s">
         <v>5</v>
@@ -5476,10 +5473,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="342" customHeight="1" ht="18">
       <c r="A342" s="7" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B342" s="8" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C342" s="1" t="s">
         <v>5</v>
@@ -5487,10 +5484,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="343" customHeight="1" ht="18">
       <c r="A343" s="7" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B343" s="8" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="C343" s="1" t="s">
         <v>5</v>
@@ -5498,10 +5495,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="344" customHeight="1" ht="18">
       <c r="A344" s="7" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B344" s="8" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C344" s="1" t="s">
         <v>5</v>
@@ -5509,10 +5506,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="345" customHeight="1" ht="18">
       <c r="A345" s="7" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B345" s="8" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="C345" s="1" t="s">
         <v>5</v>
@@ -5520,10 +5517,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="346" customHeight="1" ht="18">
       <c r="A346" s="7" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B346" s="8" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="C346" s="1" t="s">
         <v>5</v>
@@ -5531,10 +5528,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="347" customHeight="1" ht="18">
       <c r="A347" s="7" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B347" s="8" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="C347" s="1" t="s">
         <v>5</v>
@@ -5542,10 +5539,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="348" customHeight="1" ht="18">
       <c r="A348" s="7" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B348" s="8" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="C348" s="1" t="s">
         <v>5</v>
@@ -5553,10 +5550,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="349" customHeight="1" ht="18">
       <c r="A349" s="7" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B349" s="8" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="C349" s="1" t="s">
         <v>5</v>
@@ -5564,10 +5561,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="350" customHeight="1" ht="18">
       <c r="A350" s="7" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B350" s="8" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="C350" s="1" t="s">
         <v>5</v>
@@ -5575,10 +5572,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="351" customHeight="1" ht="18">
       <c r="A351" s="7" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B351" s="8" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="C351" s="1" t="s">
         <v>5</v>
@@ -5586,10 +5583,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="352" customHeight="1" ht="18">
       <c r="A352" s="7" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B352" s="8" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="C352" s="1" t="s">
         <v>5</v>
@@ -5597,10 +5594,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="353" customHeight="1" ht="18">
       <c r="A353" s="7" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B353" s="8" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="C353" s="1" t="s">
         <v>5</v>
@@ -5618,10 +5615,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="356" customHeight="1" ht="18">
       <c r="A356" s="7" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B356" s="8" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="C356" s="1" t="s">
         <v>5</v>
@@ -5629,10 +5626,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="357" customHeight="1" ht="18">
       <c r="A357" s="7" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B357" s="8" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="C357" s="1" t="s">
         <v>5</v>
@@ -5640,10 +5637,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="358" customHeight="1" ht="18">
       <c r="A358" s="7" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B358" s="8" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="C358" s="1" t="s">
         <v>5</v>
@@ -5651,10 +5648,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="359" customHeight="1" ht="18">
       <c r="A359" s="7" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B359" s="8" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C359" s="1" t="s">
         <v>5</v>
@@ -5662,10 +5659,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="360" customHeight="1" ht="18">
       <c r="A360" s="7" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B360" s="8" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="C360" s="1" t="s">
         <v>5</v>
@@ -5673,10 +5670,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="361" customHeight="1" ht="18">
       <c r="A361" s="7" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B361" s="8" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C361" s="1" t="s">
         <v>5</v>
@@ -5684,10 +5681,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="362" customHeight="1" ht="18">
       <c r="A362" s="7" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B362" s="8" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C362" s="1" t="s">
         <v>5</v>
@@ -5695,10 +5692,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="363" customHeight="1" ht="18">
       <c r="A363" s="7" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B363" s="8" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C363" s="1" t="s">
         <v>5</v>
@@ -5706,10 +5703,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="364" customHeight="1" ht="18">
       <c r="A364" s="7" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B364" s="8" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="C364" s="1" t="s">
         <v>5</v>
@@ -5717,10 +5714,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="365" customHeight="1" ht="18">
       <c r="A365" s="7" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B365" s="8" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C365" s="1" t="s">
         <v>5</v>
@@ -5728,10 +5725,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="366" customHeight="1" ht="18">
       <c r="A366" s="7" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B366" s="8" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="C366" s="1" t="s">
         <v>5</v>
@@ -5739,10 +5736,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="367" customHeight="1" ht="18">
       <c r="A367" s="7" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B367" s="8" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="C367" s="1" t="s">
         <v>5</v>
@@ -5750,10 +5747,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="368" customHeight="1" ht="18">
       <c r="A368" s="7" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B368" s="8" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="C368" s="1" t="s">
         <v>5</v>
@@ -5761,10 +5758,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="369" customHeight="1" ht="18">
       <c r="A369" s="7" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B369" s="8" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="C369" s="1" t="s">
         <v>5</v>
@@ -5772,10 +5769,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="370" customHeight="1" ht="18">
       <c r="A370" s="7" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B370" s="8" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="C370" s="1" t="s">
         <v>5</v>
@@ -5783,10 +5780,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="371" customHeight="1" ht="18">
       <c r="A371" s="7" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B371" s="8" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="C371" s="1" t="s">
         <v>5</v>
@@ -5794,10 +5791,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="372" customHeight="1" ht="18">
       <c r="A372" s="7" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B372" s="8" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C372" s="1" t="s">
         <v>5</v>
@@ -5805,10 +5802,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="373" customHeight="1" ht="18">
       <c r="A373" s="7" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B373" s="8" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="C373" s="1" t="s">
         <v>5</v>
@@ -5816,10 +5813,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="374" customHeight="1" ht="18">
       <c r="A374" s="7" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B374" s="8" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="C374" s="1" t="s">
         <v>5</v>
@@ -5827,10 +5824,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="375" customHeight="1" ht="18">
       <c r="A375" s="7" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B375" s="8" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="C375" s="1" t="s">
         <v>5</v>
@@ -5838,10 +5835,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="376" customHeight="1" ht="18">
       <c r="A376" s="7" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B376" s="8" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="C376" s="1" t="s">
         <v>5</v>
@@ -5849,10 +5846,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="377" customHeight="1" ht="18">
       <c r="A377" s="7" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B377" s="8" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C377" s="1" t="s">
         <v>5</v>
@@ -5860,10 +5857,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="378" customHeight="1" ht="18">
       <c r="A378" s="7" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B378" s="8" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="C378" s="1" t="s">
         <v>5</v>
@@ -5871,10 +5868,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="379" customHeight="1" ht="18">
       <c r="A379" s="7" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B379" s="8" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="C379" s="1" t="s">
         <v>5</v>
@@ -5882,10 +5879,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="380" customHeight="1" ht="18">
       <c r="A380" s="7" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B380" s="8" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="C380" s="1" t="s">
         <v>5</v>
@@ -5893,10 +5890,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="381" customHeight="1" ht="18">
       <c r="A381" s="7" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B381" s="8" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="C381" s="1" t="s">
         <v>5</v>
@@ -5904,10 +5901,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="382" customHeight="1" ht="18">
       <c r="A382" s="7" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B382" s="8" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="C382" s="1" t="s">
         <v>5</v>
@@ -5915,10 +5912,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="383" customHeight="1" ht="18">
       <c r="A383" s="7" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B383" s="8" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="C383" s="1" t="s">
         <v>5</v>
@@ -5926,10 +5923,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="384" customHeight="1" ht="18">
       <c r="A384" s="7" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B384" s="8" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="C384" s="1" t="s">
         <v>5</v>
@@ -5937,10 +5934,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="385" customHeight="1" ht="18">
       <c r="A385" s="7" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B385" s="8" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="C385" s="1" t="s">
         <v>5</v>
@@ -5948,10 +5945,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="386" customHeight="1" ht="18">
       <c r="A386" s="7" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B386" s="8" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="C386" s="1" t="s">
         <v>5</v>
@@ -5959,10 +5956,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="387" customHeight="1" ht="18">
       <c r="A387" s="7" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B387" s="8" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C387" s="1" t="s">
         <v>5</v>
@@ -5970,10 +5967,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="388" customHeight="1" ht="18">
       <c r="A388" s="7" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B388" s="8" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="C388" s="1" t="s">
         <v>5</v>
@@ -5981,10 +5978,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="389" customHeight="1" ht="18">
       <c r="A389" s="7" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B389" s="8" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="C389" s="1" t="s">
         <v>5</v>
@@ -5992,10 +5989,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="390" customHeight="1" ht="18">
       <c r="A390" s="7" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B390" s="8" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="C390" s="1" t="s">
         <v>5</v>
@@ -6003,10 +6000,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="391" customHeight="1" ht="18">
       <c r="A391" s="7" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B391" s="8" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="C391" s="1" t="s">
         <v>5</v>
@@ -6014,10 +6011,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="392" customHeight="1" ht="18">
       <c r="A392" s="7" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B392" s="8" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="C392" s="1" t="s">
         <v>5</v>
@@ -6025,10 +6022,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="393" customHeight="1" ht="18">
       <c r="A393" s="7" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B393" s="8" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="C393" s="1" t="s">
         <v>5</v>
@@ -6036,10 +6033,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="394" customHeight="1" ht="18">
       <c r="A394" s="7" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B394" s="8" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="C394" s="1" t="s">
         <v>5</v>
@@ -6047,10 +6044,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="395" customHeight="1" ht="18">
       <c r="A395" s="7" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B395" s="8" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="C395" s="1" t="s">
         <v>5</v>
@@ -6058,10 +6055,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="396" customHeight="1" ht="18">
       <c r="A396" s="7" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B396" s="8" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="C396" s="1" t="s">
         <v>5</v>
@@ -6069,10 +6066,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="397" customHeight="1" ht="18">
       <c r="A397" s="7" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B397" s="8" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C397" s="1" t="s">
         <v>5</v>
@@ -6080,10 +6077,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="398" customHeight="1" ht="18">
       <c r="A398" s="7" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B398" s="8" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="C398" s="1" t="s">
         <v>5</v>
@@ -6091,10 +6088,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="399" customHeight="1" ht="18">
       <c r="A399" s="7" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B399" s="8" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="C399" s="1" t="s">
         <v>5</v>
@@ -6112,10 +6109,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="402" customHeight="1" ht="18">
       <c r="A402" s="7" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="B402" s="8" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="C402" s="1" t="s">
         <v>5</v>
@@ -6123,10 +6120,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="403" customHeight="1" ht="18">
       <c r="A403" s="7" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="B403" s="8" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="C403" s="1" t="s">
         <v>5</v>
@@ -6134,10 +6131,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="404" customHeight="1" ht="18">
       <c r="A404" s="7" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="B404" s="8" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="C404" s="1" t="s">
         <v>5</v>
@@ -6145,10 +6142,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="405" customHeight="1" ht="18">
       <c r="A405" s="7" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="B405" s="8" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C405" s="1" t="s">
         <v>5</v>
@@ -6156,10 +6153,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="406" customHeight="1" ht="18">
       <c r="A406" s="7" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="B406" s="8" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="C406" s="1" t="s">
         <v>5</v>
@@ -6167,10 +6164,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="407" customHeight="1" ht="18">
       <c r="A407" s="7" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="B407" s="8" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="C407" s="1" t="s">
         <v>5</v>
@@ -6188,10 +6185,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="410" customHeight="1" ht="18">
       <c r="A410" s="7" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B410" s="8" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="C410" s="1" t="s">
         <v>5</v>
@@ -6199,10 +6196,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="411" customHeight="1" ht="18">
       <c r="A411" s="7" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B411" s="8" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="C411" s="1" t="s">
         <v>5</v>
@@ -6210,10 +6207,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="412" customHeight="1" ht="18">
       <c r="A412" s="7" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B412" s="8" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="C412" s="1" t="s">
         <v>5</v>
@@ -6221,10 +6218,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="413" customHeight="1" ht="18">
       <c r="A413" s="7" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B413" s="8" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C413" s="1" t="s">
         <v>5</v>
@@ -6232,10 +6229,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="414" customHeight="1" ht="18">
       <c r="A414" s="7" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B414" s="8" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="C414" s="1" t="s">
         <v>5</v>
@@ -6243,10 +6240,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="415" customHeight="1" ht="18">
       <c r="A415" s="7" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B415" s="8" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C415" s="1" t="s">
         <v>5</v>
@@ -6254,10 +6251,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="416" customHeight="1" ht="18">
       <c r="A416" s="7" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B416" s="8" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="C416" s="1" t="s">
         <v>5</v>
@@ -6265,10 +6262,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="417" customHeight="1" ht="18">
       <c r="A417" s="7" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B417" s="8" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C417" s="1" t="s">
         <v>5</v>
@@ -6276,10 +6273,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="418" customHeight="1" ht="18">
       <c r="A418" s="7" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B418" s="8" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="C418" s="1" t="s">
         <v>5</v>
@@ -6287,10 +6284,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="419" customHeight="1" ht="18">
       <c r="A419" s="7" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B419" s="8" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="C419" s="1" t="s">
         <v>5</v>
@@ -6298,10 +6295,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="420" customHeight="1" ht="18">
       <c r="A420" s="7" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B420" s="8" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="C420" s="1" t="s">
         <v>5</v>
@@ -6309,10 +6306,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="421" customHeight="1" ht="18">
       <c r="A421" s="7" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B421" s="8" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="C421" s="1" t="s">
         <v>5</v>
@@ -6320,10 +6317,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="422" customHeight="1" ht="18">
       <c r="A422" s="7" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B422" s="8" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="C422" s="1" t="s">
         <v>5</v>
@@ -6331,10 +6328,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="423" customHeight="1" ht="18">
       <c r="A423" s="7" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B423" s="8" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="C423" s="1" t="s">
         <v>5</v>
@@ -6342,10 +6339,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="424" customHeight="1" ht="18">
       <c r="A424" s="7" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B424" s="8" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="C424" s="1" t="s">
         <v>5</v>
@@ -6353,10 +6350,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="425" customHeight="1" ht="18">
       <c r="A425" s="7" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B425" s="8" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="C425" s="1" t="s">
         <v>5</v>
@@ -6364,10 +6361,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="426" customHeight="1" ht="18">
       <c r="A426" s="7" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B426" s="8" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="C426" s="1" t="s">
         <v>5</v>
@@ -6375,10 +6372,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="427" customHeight="1" ht="18">
       <c r="A427" s="7" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B427" s="8" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="C427" s="1" t="s">
         <v>5</v>
@@ -6386,10 +6383,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="428" customHeight="1" ht="18">
       <c r="A428" s="7" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B428" s="8" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="C428" s="1" t="s">
         <v>5</v>
@@ -6397,10 +6394,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="429" customHeight="1" ht="18">
       <c r="A429" s="7" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B429" s="8" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="C429" s="1" t="s">
         <v>5</v>
@@ -6408,10 +6405,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="430" customHeight="1" ht="18">
       <c r="A430" s="7" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B430" s="8" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C430" s="1" t="s">
         <v>5</v>
@@ -6419,10 +6416,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="431" customHeight="1" ht="18">
       <c r="A431" s="7" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B431" s="8" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="C431" s="1" t="s">
         <v>5</v>
@@ -6430,10 +6427,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="432" customHeight="1" ht="18">
       <c r="A432" s="7" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B432" s="8" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="C432" s="1" t="s">
         <v>5</v>
@@ -6441,10 +6438,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="433" customHeight="1" ht="18">
       <c r="A433" s="7" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B433" s="8" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="C433" s="1" t="s">
         <v>5</v>
@@ -6452,10 +6449,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="434" customHeight="1" ht="18">
       <c r="A434" s="7" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B434" s="8" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="C434" s="1" t="s">
         <v>5</v>
@@ -6463,10 +6460,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="435" customHeight="1" ht="18">
       <c r="A435" s="7" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B435" s="8" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="C435" s="1" t="s">
         <v>5</v>
@@ -6474,10 +6471,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="436" customHeight="1" ht="18">
       <c r="A436" s="7" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B436" s="8" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="C436" s="1" t="s">
         <v>5</v>
@@ -6485,10 +6482,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="437" customHeight="1" ht="18">
       <c r="A437" s="7" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B437" s="8" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="C437" s="1" t="s">
         <v>5</v>
@@ -6496,10 +6493,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="438" customHeight="1" ht="18">
       <c r="A438" s="7" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B438" s="8" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="C438" s="1" t="s">
         <v>5</v>
@@ -6507,10 +6504,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="439" customHeight="1" ht="18">
       <c r="A439" s="7" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B439" s="8" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="C439" s="1" t="s">
         <v>5</v>
@@ -6518,10 +6515,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="440" customHeight="1" ht="18">
       <c r="A440" s="7" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B440" s="8" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="C440" s="1" t="s">
         <v>5</v>
@@ -6529,10 +6526,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="441" customHeight="1" ht="18">
       <c r="A441" s="7" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B441" s="8" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="C441" s="1" t="s">
         <v>5</v>
@@ -6540,10 +6537,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="442" customHeight="1" ht="18">
       <c r="A442" s="7" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B442" s="8" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="C442" s="1" t="s">
         <v>5</v>
@@ -6551,10 +6548,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="443" customHeight="1" ht="18">
       <c r="A443" s="7" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B443" s="8" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="C443" s="1" t="s">
         <v>5</v>
@@ -6562,10 +6559,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="444" customHeight="1" ht="18">
       <c r="A444" s="7" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B444" s="8" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="C444" s="1" t="s">
         <v>5</v>
@@ -6573,10 +6570,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="445" customHeight="1" ht="18">
       <c r="A445" s="7" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B445" s="8" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="C445" s="1" t="s">
         <v>5</v>
@@ -6584,10 +6581,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="446" customHeight="1" ht="18">
       <c r="A446" s="7" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B446" s="8" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="C446" s="1" t="s">
         <v>5</v>
@@ -6595,10 +6592,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="447" customHeight="1" ht="18">
       <c r="A447" s="7" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B447" s="8" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="C447" s="1" t="s">
         <v>5</v>
@@ -6606,10 +6603,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="448" customHeight="1" ht="18">
       <c r="A448" s="7" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B448" s="8" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="C448" s="1" t="s">
         <v>5</v>
@@ -6617,10 +6614,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="449" customHeight="1" ht="18">
       <c r="A449" s="7" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B449" s="8" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="C449" s="1" t="s">
         <v>5</v>
@@ -6628,10 +6625,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="450" customHeight="1" ht="18">
       <c r="A450" s="7" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B450" s="8" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="C450" s="1" t="s">
         <v>5</v>
@@ -6639,10 +6636,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="451" customHeight="1" ht="18">
       <c r="A451" s="7" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B451" s="8" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="C451" s="1" t="s">
         <v>5</v>
@@ -6650,10 +6647,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="452" customHeight="1" ht="18">
       <c r="A452" s="7" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B452" s="8" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="C452" s="1" t="s">
         <v>5</v>
@@ -6661,10 +6658,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="453" customHeight="1" ht="18">
       <c r="A453" s="7" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B453" s="8" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="C453" s="1" t="s">
         <v>5</v>
@@ -6672,10 +6669,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="454" customHeight="1" ht="18">
       <c r="A454" s="7" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B454" s="8" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="C454" s="1" t="s">
         <v>5</v>
@@ -6683,10 +6680,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="455" customHeight="1" ht="18">
       <c r="A455" s="7" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B455" s="8" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="C455" s="1" t="s">
         <v>5</v>
@@ -6694,10 +6691,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="456" customHeight="1" ht="18">
       <c r="A456" s="7" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B456" s="8" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="C456" s="1" t="s">
         <v>5</v>
@@ -6705,10 +6702,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="457" customHeight="1" ht="18">
       <c r="A457" s="7" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B457" s="8" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="C457" s="1" t="s">
         <v>5</v>
@@ -6716,10 +6713,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="458" customHeight="1" ht="18">
       <c r="A458" s="7" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B458" s="8" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="C458" s="1" t="s">
         <v>5</v>
@@ -6727,10 +6724,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="459" customHeight="1" ht="18">
       <c r="A459" s="7" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B459" s="8" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="C459" s="1" t="s">
         <v>5</v>
@@ -6738,10 +6735,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="460" customHeight="1" ht="18">
       <c r="A460" s="7" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B460" s="8" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="C460" s="1" t="s">
         <v>5</v>
@@ -6749,10 +6746,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="461" customHeight="1" ht="18">
       <c r="A461" s="7" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B461" s="8" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="C461" s="1" t="s">
         <v>5</v>
@@ -6760,10 +6757,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="462" customHeight="1" ht="18">
       <c r="A462" s="7" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B462" s="8" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="C462" s="1" t="s">
         <v>5</v>
@@ -6771,10 +6768,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="463" customHeight="1" ht="18">
       <c r="A463" s="7" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B463" s="8" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="C463" s="1" t="s">
         <v>5</v>
@@ -6782,10 +6779,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="464" customHeight="1" ht="18">
       <c r="A464" s="7" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B464" s="8" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="C464" s="1" t="s">
         <v>5</v>
@@ -6793,10 +6790,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="465" customHeight="1" ht="18">
       <c r="A465" s="7" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B465" s="8" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="C465" s="1" t="s">
         <v>5</v>
@@ -6804,10 +6801,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="466" customHeight="1" ht="18">
       <c r="A466" s="7" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B466" s="8" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="C466" s="1" t="s">
         <v>5</v>
@@ -6815,10 +6812,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="467" customHeight="1" ht="18">
       <c r="A467" s="7" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B467" s="8" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="C467" s="1" t="s">
         <v>5</v>
@@ -6826,10 +6823,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="468" customHeight="1" ht="18">
       <c r="A468" s="7" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B468" s="8" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="C468" s="1" t="s">
         <v>5</v>
@@ -6837,10 +6834,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="469" customHeight="1" ht="18">
       <c r="A469" s="7" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B469" s="8" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="C469" s="1" t="s">
         <v>5</v>
@@ -6858,10 +6855,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="472" customHeight="1" ht="18">
       <c r="A472" s="7" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="B472" s="8" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C472" s="1" t="s">
         <v>5</v>
@@ -6869,10 +6866,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="473" customHeight="1" ht="18">
       <c r="A473" s="7" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="B473" s="8" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="C473" s="1" t="s">
         <v>5</v>
@@ -6880,10 +6877,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="474" customHeight="1" ht="18">
       <c r="A474" s="7" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="B474" s="8" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="C474" s="1" t="s">
         <v>5</v>
@@ -6891,10 +6888,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="475" customHeight="1" ht="18">
       <c r="A475" s="7" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="B475" s="8" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="C475" s="1" t="s">
         <v>5</v>
@@ -6902,10 +6899,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="476" customHeight="1" ht="18">
       <c r="A476" s="7" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="B476" s="8" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="C476" s="1" t="s">
         <v>5</v>
@@ -6913,10 +6910,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="477" customHeight="1" ht="18">
       <c r="A477" s="7" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="B477" s="8" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="C477" s="1" t="s">
         <v>5</v>
@@ -6924,10 +6921,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="478" customHeight="1" ht="18">
       <c r="A478" s="7" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="B478" s="8" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="C478" s="1" t="s">
         <v>5</v>
@@ -6935,10 +6932,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="479" customHeight="1" ht="18">
       <c r="A479" s="7" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="B479" s="8" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="C479" s="1" t="s">
         <v>5</v>
@@ -6946,10 +6943,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="480" customHeight="1" ht="18">
       <c r="A480" s="7" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="B480" s="8" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="C480" s="1" t="s">
         <v>5</v>
@@ -6957,10 +6954,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="481" customHeight="1" ht="18">
       <c r="A481" s="7" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="B481" s="8" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C481" s="1" t="s">
         <v>5</v>
